--- a/rtw_excel_report/report_invoice/invoice.xlsx
+++ b/rtw_excel_report/report_invoice/invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D3DBD-5BEC-430C-903D-1640C6C3228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01D5821-456D-48CF-A6F6-1F1533C90F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,14 +344,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -361,23 +353,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,8 +682,8 @@
   </sheetPr>
   <dimension ref="A1:AB1249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -704,8 +710,8 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2"/>
       <c r="K1" s="4"/>
       <c r="L1" s="1"/>
@@ -724,7 +730,7 @@
     </row>
     <row r="2" spans="1:28" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -788,7 +794,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="12"/>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="13"/>
@@ -817,7 +823,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="9"/>
@@ -928,7 +934,7 @@
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="8"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
@@ -958,7 +964,7 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10"/>
       <c r="D10" s="28" t="s">
         <v>30</v>
@@ -989,17 +995,17 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="10"/>
       <c r="D11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="8"/>
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
@@ -1027,9 +1033,9 @@
       <c r="B12" s="25"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="8"/>
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
@@ -1062,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="34" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="29"/>
@@ -1117,31 +1123,31 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="19"/>
@@ -1165,15 +1171,15 @@
       <c r="AB15" s="11"/>
     </row>
     <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -1197,7 +1203,7 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="30"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -1227,7 +1233,7 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="30"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -1257,7 +1263,7 @@
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="31"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -1287,7 +1293,7 @@
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="31"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -1317,7 +1323,7 @@
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="31"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -1347,7 +1353,7 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="31"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -1377,7 +1383,7 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -1407,7 +1413,7 @@
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="31"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -1437,7 +1443,7 @@
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="31"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -1467,7 +1473,7 @@
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="31"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -1497,7 +1503,7 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="30"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -1527,7 +1533,7 @@
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="30"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -1557,7 +1563,7 @@
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="31"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -1587,7 +1593,7 @@
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="31"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -1617,7 +1623,7 @@
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="31"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -1647,7 +1653,7 @@
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="31"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -1677,7 +1683,7 @@
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="31"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -1707,7 +1713,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="31"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -1737,7 +1743,7 @@
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="31"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -1767,7 +1773,7 @@
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="31"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -1797,7 +1803,7 @@
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="30"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -1827,7 +1833,7 @@
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="30"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -1857,7 +1863,7 @@
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="31"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -1887,7 +1893,7 @@
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="31"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -1917,7 +1923,7 @@
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="31"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -1947,7 +1953,7 @@
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="31"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -1977,7 +1983,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="31"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -2007,7 +2013,7 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="31"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -2037,7 +2043,7 @@
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="31"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -2067,7 +2073,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="31"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -2097,7 +2103,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="30"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -2127,7 +2133,7 @@
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="30"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -2157,7 +2163,7 @@
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="31"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -2187,7 +2193,7 @@
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="31"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -2217,7 +2223,7 @@
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="31"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -2247,7 +2253,7 @@
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="31"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -2277,7 +2283,7 @@
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="31"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -2307,7 +2313,7 @@
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="31"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -2337,7 +2343,7 @@
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="31"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -2367,7 +2373,7 @@
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="31"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -2397,7 +2403,7 @@
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="30"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -2427,7 +2433,7 @@
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="30"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -2457,7 +2463,7 @@
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="31"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -2487,7 +2493,7 @@
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="31"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -2517,7 +2523,7 @@
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="31"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -2547,7 +2553,7 @@
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="31"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -2577,7 +2583,7 @@
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="31"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -2607,7 +2613,7 @@
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="31"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -2637,7 +2643,7 @@
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="31"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -2667,7 +2673,7 @@
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
       <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="31"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -2697,7 +2703,7 @@
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
       <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="30"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -2727,7 +2733,7 @@
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
       <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="30"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -2757,7 +2763,7 @@
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="31"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -2787,7 +2793,7 @@
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
       <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="31"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -2817,7 +2823,7 @@
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
       <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="31"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -2847,7 +2853,7 @@
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
       <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="31"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -2877,7 +2883,7 @@
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="31"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
@@ -2907,7 +2913,7 @@
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="31"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -2937,7 +2943,7 @@
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
       <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="31"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -2967,7 +2973,7 @@
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
       <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="31"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -2997,7 +3003,7 @@
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="30"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -3027,7 +3033,7 @@
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
       <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="30"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -3057,7 +3063,7 @@
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="31"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
@@ -3087,7 +3093,7 @@
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="31"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -3117,7 +3123,7 @@
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="31"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -3147,7 +3153,7 @@
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
       <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="31"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -3177,7 +3183,7 @@
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
       <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="31"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -3207,7 +3213,7 @@
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
       <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="31"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -3237,7 +3243,7 @@
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
       <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="31"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -3267,7 +3273,7 @@
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
       <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="31"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
@@ -3297,7 +3303,7 @@
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
       <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="30"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -3327,7 +3333,7 @@
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
       <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
+      <c r="C88" s="46"/>
       <c r="D88" s="30"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
@@ -3357,7 +3363,7 @@
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="22"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="31"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
@@ -3387,7 +3393,7 @@
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
       <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="31"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
@@ -3417,7 +3423,7 @@
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
       <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="31"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
@@ -3447,7 +3453,7 @@
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
       <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="31"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
@@ -3477,7 +3483,7 @@
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="22"/>
       <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="31"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
@@ -3507,7 +3513,7 @@
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="31"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
@@ -3537,7 +3543,7 @@
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
       <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="31"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
@@ -3567,7 +3573,7 @@
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
       <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="31"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
@@ -3597,7 +3603,7 @@
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="22"/>
       <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="30"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
@@ -3627,7 +3633,7 @@
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="22"/>
       <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="30"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
@@ -3657,7 +3663,7 @@
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="22"/>
       <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="31"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
@@ -3687,7 +3693,7 @@
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="22"/>
       <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="31"/>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
@@ -3717,7 +3723,7 @@
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="22"/>
       <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="31"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
@@ -3747,7 +3753,7 @@
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="22"/>
       <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="31"/>
       <c r="E102" s="22"/>
       <c r="F102" s="22"/>
@@ -3777,7 +3783,7 @@
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
       <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="31"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
@@ -3807,7 +3813,7 @@
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="22"/>
       <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="31"/>
       <c r="E104" s="22"/>
       <c r="F104" s="22"/>
@@ -3837,7 +3843,7 @@
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="22"/>
       <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="31"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
@@ -3867,7 +3873,7 @@
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="22"/>
       <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="31"/>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -3897,7 +3903,7 @@
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="22"/>
       <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="30"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
@@ -3927,7 +3933,7 @@
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="22"/>
       <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
+      <c r="C108" s="46"/>
       <c r="D108" s="30"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
@@ -3957,7 +3963,7 @@
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="22"/>
       <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="31"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
@@ -3987,7 +3993,7 @@
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="22"/>
       <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="31"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
@@ -4017,7 +4023,7 @@
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
       <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="31"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
@@ -4047,7 +4053,7 @@
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="22"/>
       <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="31"/>
       <c r="E112" s="22"/>
       <c r="F112" s="22"/>
@@ -4077,7 +4083,7 @@
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
       <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="31"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
@@ -4107,7 +4113,7 @@
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
       <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="31"/>
       <c r="E114" s="22"/>
       <c r="F114" s="22"/>
@@ -4137,7 +4143,7 @@
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="22"/>
       <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="31"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
@@ -4167,7 +4173,7 @@
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="22"/>
       <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="31"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
@@ -4197,7 +4203,7 @@
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="22"/>
       <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="30"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
@@ -4227,7 +4233,7 @@
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="22"/>
       <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
+      <c r="C118" s="46"/>
       <c r="D118" s="30"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
@@ -4257,7 +4263,7 @@
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="22"/>
       <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="31"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
@@ -4287,7 +4293,7 @@
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="22"/>
       <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="31"/>
       <c r="E120" s="22"/>
       <c r="F120" s="22"/>
@@ -4317,7 +4323,7 @@
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="22"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="31"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
@@ -4347,7 +4353,7 @@
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="22"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="31"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
@@ -4377,7 +4383,7 @@
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
+      <c r="C123" s="47"/>
       <c r="D123" s="31"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
@@ -4407,7 +4413,7 @@
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="22"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="31"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -4437,7 +4443,7 @@
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="22"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="31"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
@@ -4467,7 +4473,7 @@
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="22"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
+      <c r="C126" s="47"/>
       <c r="D126" s="31"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
@@ -4497,7 +4503,7 @@
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="22"/>
       <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
+      <c r="C127" s="46"/>
       <c r="D127" s="30"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
@@ -4527,7 +4533,7 @@
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="22"/>
       <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
+      <c r="C128" s="46"/>
       <c r="D128" s="30"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22"/>
@@ -4557,7 +4563,7 @@
     <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="22"/>
       <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
+      <c r="C129" s="47"/>
       <c r="D129" s="31"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
@@ -4587,7 +4593,7 @@
     <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="22"/>
       <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
+      <c r="C130" s="47"/>
       <c r="D130" s="31"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
@@ -4617,7 +4623,7 @@
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="22"/>
       <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="31"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
@@ -4647,7 +4653,7 @@
     <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="22"/>
       <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
+      <c r="C132" s="47"/>
       <c r="D132" s="31"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
@@ -4677,7 +4683,7 @@
     <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="22"/>
       <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
+      <c r="C133" s="47"/>
       <c r="D133" s="31"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
@@ -4707,7 +4713,7 @@
     <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="22"/>
       <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="C134" s="47"/>
       <c r="D134" s="31"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
@@ -4737,7 +4743,7 @@
     <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="22"/>
       <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="31"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
@@ -4767,7 +4773,7 @@
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="22"/>
       <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="C136" s="47"/>
       <c r="D136" s="31"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
@@ -4797,7 +4803,7 @@
     <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="22"/>
       <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
+      <c r="C137" s="46"/>
       <c r="D137" s="30"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
@@ -4827,7 +4833,7 @@
     <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" s="22"/>
       <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
+      <c r="C138" s="46"/>
       <c r="D138" s="30"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -4857,7 +4863,7 @@
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="22"/>
       <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="C139" s="47"/>
       <c r="D139" s="31"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -4887,7 +4893,7 @@
     <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="22"/>
       <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
+      <c r="C140" s="47"/>
       <c r="D140" s="31"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
@@ -4917,7 +4923,7 @@
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="22"/>
       <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="C141" s="47"/>
       <c r="D141" s="31"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
@@ -4947,7 +4953,7 @@
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="22"/>
       <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
+      <c r="C142" s="47"/>
       <c r="D142" s="31"/>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
@@ -4977,7 +4983,7 @@
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="22"/>
       <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
+      <c r="C143" s="47"/>
       <c r="D143" s="31"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
@@ -5007,7 +5013,7 @@
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="22"/>
       <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
+      <c r="C144" s="47"/>
       <c r="D144" s="31"/>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
@@ -5037,7 +5043,7 @@
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" s="22"/>
       <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
+      <c r="C145" s="47"/>
       <c r="D145" s="31"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
@@ -5067,7 +5073,7 @@
     <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" s="22"/>
       <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
+      <c r="C146" s="47"/>
       <c r="D146" s="31"/>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
@@ -5097,7 +5103,7 @@
     <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147" s="22"/>
       <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
+      <c r="C147" s="46"/>
       <c r="D147" s="30"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
@@ -5127,7 +5133,7 @@
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="22"/>
       <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
+      <c r="C148" s="46"/>
       <c r="D148" s="30"/>
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
@@ -5157,7 +5163,7 @@
     <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" s="22"/>
       <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
+      <c r="C149" s="47"/>
       <c r="D149" s="31"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
@@ -5187,7 +5193,7 @@
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="22"/>
       <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
+      <c r="C150" s="47"/>
       <c r="D150" s="31"/>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
@@ -5217,7 +5223,7 @@
     <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" s="22"/>
       <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
+      <c r="C151" s="47"/>
       <c r="D151" s="31"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
@@ -5247,7 +5253,7 @@
     <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" s="22"/>
       <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
+      <c r="C152" s="47"/>
       <c r="D152" s="31"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
@@ -5277,7 +5283,7 @@
     <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153" s="22"/>
       <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+      <c r="C153" s="47"/>
       <c r="D153" s="31"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
@@ -5307,7 +5313,7 @@
     <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" s="22"/>
       <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
+      <c r="C154" s="47"/>
       <c r="D154" s="31"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
@@ -5337,7 +5343,7 @@
     <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155" s="22"/>
       <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
+      <c r="C155" s="47"/>
       <c r="D155" s="31"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
@@ -5367,7 +5373,7 @@
     <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156" s="22"/>
       <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
+      <c r="C156" s="47"/>
       <c r="D156" s="31"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
@@ -5397,7 +5403,7 @@
     <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157" s="22"/>
       <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
+      <c r="C157" s="46"/>
       <c r="D157" s="30"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
@@ -5427,7 +5433,7 @@
     <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158" s="22"/>
       <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
+      <c r="C158" s="46"/>
       <c r="D158" s="30"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
@@ -5457,7 +5463,7 @@
     <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159" s="22"/>
       <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+      <c r="C159" s="47"/>
       <c r="D159" s="31"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
@@ -5487,7 +5493,7 @@
     <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160" s="22"/>
       <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
+      <c r="C160" s="47"/>
       <c r="D160" s="31"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
@@ -5517,7 +5523,7 @@
     <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161" s="22"/>
       <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="31"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
@@ -5547,7 +5553,7 @@
     <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162" s="22"/>
       <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
+      <c r="C162" s="47"/>
       <c r="D162" s="31"/>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
@@ -5577,7 +5583,7 @@
     <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163" s="22"/>
       <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
+      <c r="C163" s="47"/>
       <c r="D163" s="31"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
@@ -5607,7 +5613,7 @@
     <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" s="22"/>
       <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
+      <c r="C164" s="47"/>
       <c r="D164" s="31"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
@@ -5637,7 +5643,7 @@
     <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165" s="22"/>
       <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
+      <c r="C165" s="47"/>
       <c r="D165" s="31"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
@@ -5667,7 +5673,7 @@
     <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" s="22"/>
       <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
+      <c r="C166" s="47"/>
       <c r="D166" s="31"/>
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
@@ -5697,7 +5703,7 @@
     <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167" s="22"/>
       <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
+      <c r="C167" s="46"/>
       <c r="D167" s="30"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
@@ -5727,7 +5733,7 @@
     <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" s="22"/>
       <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
+      <c r="C168" s="46"/>
       <c r="D168" s="30"/>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
@@ -5757,7 +5763,7 @@
     <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169" s="22"/>
       <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
+      <c r="C169" s="47"/>
       <c r="D169" s="31"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
@@ -5787,7 +5793,7 @@
     <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170" s="22"/>
       <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
+      <c r="C170" s="47"/>
       <c r="D170" s="31"/>
       <c r="E170" s="22"/>
       <c r="F170" s="22"/>
@@ -5817,7 +5823,7 @@
     <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171" s="22"/>
       <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
+      <c r="C171" s="47"/>
       <c r="D171" s="31"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
@@ -5847,7 +5853,7 @@
     <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" s="22"/>
       <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
+      <c r="C172" s="47"/>
       <c r="D172" s="31"/>
       <c r="E172" s="22"/>
       <c r="F172" s="22"/>
@@ -5877,7 +5883,7 @@
     <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173" s="22"/>
       <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
+      <c r="C173" s="47"/>
       <c r="D173" s="31"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
@@ -5907,7 +5913,7 @@
     <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" s="22"/>
       <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
+      <c r="C174" s="47"/>
       <c r="D174" s="31"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
@@ -5937,7 +5943,7 @@
     <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175" s="22"/>
       <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
+      <c r="C175" s="47"/>
       <c r="D175" s="31"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
@@ -5967,7 +5973,7 @@
     <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176" s="22"/>
       <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
+      <c r="C176" s="47"/>
       <c r="D176" s="31"/>
       <c r="E176" s="22"/>
       <c r="F176" s="22"/>
@@ -5997,7 +6003,7 @@
     <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177" s="22"/>
       <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
+      <c r="C177" s="46"/>
       <c r="D177" s="30"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
@@ -6027,7 +6033,7 @@
     <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178" s="22"/>
       <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
+      <c r="C178" s="46"/>
       <c r="D178" s="30"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
@@ -6057,7 +6063,7 @@
     <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179" s="22"/>
       <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
+      <c r="C179" s="47"/>
       <c r="D179" s="31"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
@@ -6087,7 +6093,7 @@
     <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" s="22"/>
       <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
+      <c r="C180" s="47"/>
       <c r="D180" s="31"/>
       <c r="E180" s="22"/>
       <c r="F180" s="22"/>
@@ -6117,7 +6123,7 @@
     <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" s="22"/>
       <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
+      <c r="C181" s="47"/>
       <c r="D181" s="31"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
@@ -6147,7 +6153,7 @@
     <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" s="22"/>
       <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
+      <c r="C182" s="47"/>
       <c r="D182" s="31"/>
       <c r="E182" s="22"/>
       <c r="F182" s="22"/>
@@ -6177,7 +6183,7 @@
     <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" s="22"/>
       <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
+      <c r="C183" s="47"/>
       <c r="D183" s="31"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
@@ -6207,7 +6213,7 @@
     <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" s="22"/>
       <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
+      <c r="C184" s="47"/>
       <c r="D184" s="31"/>
       <c r="E184" s="22"/>
       <c r="F184" s="22"/>
@@ -6237,7 +6243,7 @@
     <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185" s="22"/>
       <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
+      <c r="C185" s="47"/>
       <c r="D185" s="31"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
@@ -6267,7 +6273,7 @@
     <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" s="22"/>
       <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
+      <c r="C186" s="47"/>
       <c r="D186" s="31"/>
       <c r="E186" s="22"/>
       <c r="F186" s="22"/>
@@ -6297,7 +6303,7 @@
     <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187" s="22"/>
       <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
+      <c r="C187" s="46"/>
       <c r="D187" s="30"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
@@ -6327,7 +6333,7 @@
     <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" s="22"/>
       <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
+      <c r="C188" s="46"/>
       <c r="D188" s="30"/>
       <c r="E188" s="22"/>
       <c r="F188" s="22"/>
@@ -6357,7 +6363,7 @@
     <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" s="22"/>
       <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
+      <c r="C189" s="47"/>
       <c r="D189" s="31"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
@@ -6387,7 +6393,7 @@
     <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190" s="22"/>
       <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
+      <c r="C190" s="47"/>
       <c r="D190" s="31"/>
       <c r="E190" s="22"/>
       <c r="F190" s="22"/>
@@ -6417,7 +6423,7 @@
     <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" s="22"/>
       <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
+      <c r="C191" s="47"/>
       <c r="D191" s="31"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
@@ -6447,7 +6453,7 @@
     <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" s="22"/>
       <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
+      <c r="C192" s="47"/>
       <c r="D192" s="31"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
@@ -6477,7 +6483,7 @@
     <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193" s="22"/>
       <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
+      <c r="C193" s="47"/>
       <c r="D193" s="31"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
@@ -6507,7 +6513,7 @@
     <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194" s="22"/>
       <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
+      <c r="C194" s="47"/>
       <c r="D194" s="31"/>
       <c r="E194" s="22"/>
       <c r="F194" s="22"/>
@@ -6537,7 +6543,7 @@
     <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195" s="22"/>
       <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
+      <c r="C195" s="47"/>
       <c r="D195" s="31"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
@@ -6567,7 +6573,7 @@
     <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196" s="22"/>
       <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
+      <c r="C196" s="47"/>
       <c r="D196" s="31"/>
       <c r="E196" s="22"/>
       <c r="F196" s="22"/>
@@ -6597,7 +6603,7 @@
     <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" s="22"/>
       <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
+      <c r="C197" s="46"/>
       <c r="D197" s="30"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
@@ -6627,7 +6633,7 @@
     <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198" s="22"/>
       <c r="B198" s="30"/>
-      <c r="C198" s="30"/>
+      <c r="C198" s="46"/>
       <c r="D198" s="30"/>
       <c r="E198" s="22"/>
       <c r="F198" s="22"/>
@@ -6657,7 +6663,7 @@
     <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" s="22"/>
       <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
+      <c r="C199" s="47"/>
       <c r="D199" s="31"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
@@ -6687,7 +6693,7 @@
     <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" s="22"/>
       <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
+      <c r="C200" s="47"/>
       <c r="D200" s="31"/>
       <c r="E200" s="22"/>
       <c r="F200" s="22"/>
@@ -6717,7 +6723,7 @@
     <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" s="22"/>
       <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
+      <c r="C201" s="47"/>
       <c r="D201" s="31"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
@@ -6747,7 +6753,7 @@
     <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" s="22"/>
       <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
+      <c r="C202" s="47"/>
       <c r="D202" s="31"/>
       <c r="E202" s="22"/>
       <c r="F202" s="22"/>
@@ -6777,7 +6783,7 @@
     <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" s="22"/>
       <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
+      <c r="C203" s="47"/>
       <c r="D203" s="31"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
@@ -6807,7 +6813,7 @@
     <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" s="22"/>
       <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
+      <c r="C204" s="47"/>
       <c r="D204" s="31"/>
       <c r="E204" s="22"/>
       <c r="F204" s="22"/>
@@ -6837,7 +6843,7 @@
     <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" s="22"/>
       <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
+      <c r="C205" s="47"/>
       <c r="D205" s="31"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
@@ -6867,7 +6873,7 @@
     <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206" s="22"/>
       <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
+      <c r="C206" s="47"/>
       <c r="D206" s="31"/>
       <c r="E206" s="22"/>
       <c r="F206" s="22"/>
@@ -6897,7 +6903,7 @@
     <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" s="22"/>
       <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
+      <c r="C207" s="46"/>
       <c r="D207" s="30"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
@@ -6927,7 +6933,7 @@
     <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" s="22"/>
       <c r="B208" s="30"/>
-      <c r="C208" s="30"/>
+      <c r="C208" s="46"/>
       <c r="D208" s="30"/>
       <c r="E208" s="22"/>
       <c r="F208" s="22"/>
@@ -6957,7 +6963,7 @@
     <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" s="22"/>
       <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
+      <c r="C209" s="47"/>
       <c r="D209" s="31"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
@@ -6987,7 +6993,7 @@
     <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" s="22"/>
       <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
+      <c r="C210" s="47"/>
       <c r="D210" s="31"/>
       <c r="E210" s="22"/>
       <c r="F210" s="22"/>
@@ -7017,7 +7023,7 @@
     <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" s="22"/>
       <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
+      <c r="C211" s="47"/>
       <c r="D211" s="31"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
@@ -7047,7 +7053,7 @@
     <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" s="22"/>
       <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
+      <c r="C212" s="47"/>
       <c r="D212" s="31"/>
       <c r="E212" s="22"/>
       <c r="F212" s="22"/>
@@ -7077,7 +7083,7 @@
     <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213" s="22"/>
       <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
+      <c r="C213" s="47"/>
       <c r="D213" s="31"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
@@ -7107,7 +7113,7 @@
     <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" s="22"/>
       <c r="B214" s="31"/>
-      <c r="C214" s="31"/>
+      <c r="C214" s="47"/>
       <c r="D214" s="31"/>
       <c r="E214" s="22"/>
       <c r="F214" s="22"/>
@@ -7137,7 +7143,7 @@
     <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" s="22"/>
       <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
+      <c r="C215" s="47"/>
       <c r="D215" s="31"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
@@ -7167,7 +7173,7 @@
     <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" s="22"/>
       <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
+      <c r="C216" s="47"/>
       <c r="D216" s="31"/>
       <c r="E216" s="22"/>
       <c r="F216" s="22"/>
@@ -7197,7 +7203,7 @@
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" s="22"/>
       <c r="B217" s="30"/>
-      <c r="C217" s="30"/>
+      <c r="C217" s="46"/>
       <c r="D217" s="30"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
@@ -7227,7 +7233,7 @@
     <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" s="22"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="30"/>
+      <c r="C218" s="46"/>
       <c r="D218" s="30"/>
       <c r="E218" s="22"/>
       <c r="F218" s="22"/>
@@ -7257,7 +7263,7 @@
     <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" s="22"/>
       <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
+      <c r="C219" s="47"/>
       <c r="D219" s="31"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
@@ -7287,7 +7293,7 @@
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
+      <c r="C220" s="47"/>
       <c r="D220" s="31"/>
       <c r="E220" s="27"/>
       <c r="F220" s="27"/>
@@ -7296,7 +7302,7 @@
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
+      <c r="C221" s="47"/>
       <c r="D221" s="31"/>
       <c r="E221" s="27"/>
       <c r="F221" s="27"/>
@@ -7305,7 +7311,7 @@
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
+      <c r="C222" s="47"/>
       <c r="D222" s="31"/>
       <c r="E222" s="27"/>
       <c r="F222" s="27"/>
@@ -7314,7 +7320,7 @@
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
+      <c r="C223" s="47"/>
       <c r="D223" s="31"/>
       <c r="E223" s="27"/>
       <c r="F223" s="27"/>
@@ -7323,7 +7329,7 @@
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
+      <c r="C224" s="47"/>
       <c r="D224" s="31"/>
       <c r="E224" s="27"/>
       <c r="F224" s="27"/>
@@ -7332,7 +7338,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
+      <c r="C225" s="47"/>
       <c r="D225" s="31"/>
       <c r="E225" s="27"/>
       <c r="F225" s="27"/>
@@ -7341,7 +7347,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
+      <c r="C226" s="47"/>
       <c r="D226" s="31"/>
       <c r="E226" s="27"/>
       <c r="F226" s="27"/>
@@ -7350,7 +7356,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="30"/>
-      <c r="C227" s="30"/>
+      <c r="C227" s="46"/>
       <c r="D227" s="30"/>
       <c r="E227" s="27"/>
       <c r="F227" s="27"/>
@@ -7359,7 +7365,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="30"/>
+      <c r="C228" s="46"/>
       <c r="D228" s="30"/>
       <c r="E228" s="27"/>
       <c r="F228" s="27"/>
@@ -7368,7 +7374,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="31"/>
-      <c r="C229" s="31"/>
+      <c r="C229" s="47"/>
       <c r="D229" s="31"/>
       <c r="E229" s="27"/>
       <c r="F229" s="27"/>
@@ -7377,7 +7383,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
+      <c r="C230" s="47"/>
       <c r="D230" s="31"/>
       <c r="E230" s="27"/>
       <c r="F230" s="27"/>
@@ -7386,7 +7392,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="31"/>
-      <c r="C231" s="31"/>
+      <c r="C231" s="47"/>
       <c r="D231" s="31"/>
       <c r="E231" s="27"/>
       <c r="F231" s="27"/>
@@ -7395,7 +7401,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="31"/>
-      <c r="C232" s="31"/>
+      <c r="C232" s="47"/>
       <c r="D232" s="31"/>
       <c r="E232" s="27"/>
       <c r="F232" s="27"/>
@@ -7404,7 +7410,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="31"/>
-      <c r="C233" s="31"/>
+      <c r="C233" s="47"/>
       <c r="D233" s="31"/>
       <c r="E233" s="27"/>
       <c r="F233" s="27"/>
@@ -7413,7 +7419,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
+      <c r="C234" s="47"/>
       <c r="D234" s="31"/>
       <c r="E234" s="27"/>
       <c r="F234" s="27"/>
@@ -7422,7 +7428,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
+      <c r="C235" s="47"/>
       <c r="D235" s="31"/>
       <c r="E235" s="27"/>
       <c r="F235" s="27"/>
@@ -7431,7 +7437,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="31"/>
-      <c r="C236" s="31"/>
+      <c r="C236" s="47"/>
       <c r="D236" s="31"/>
       <c r="E236" s="27"/>
       <c r="F236" s="27"/>
@@ -7440,7 +7446,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="30"/>
+      <c r="C237" s="46"/>
       <c r="D237" s="30"/>
       <c r="E237" s="27"/>
       <c r="F237" s="27"/>
@@ -7449,7 +7455,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="30"/>
-      <c r="C238" s="30"/>
+      <c r="C238" s="46"/>
       <c r="D238" s="30"/>
       <c r="E238" s="27"/>
       <c r="F238" s="27"/>
@@ -7458,7 +7464,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
+      <c r="C239" s="47"/>
       <c r="D239" s="31"/>
       <c r="E239" s="27"/>
       <c r="F239" s="27"/>
@@ -7467,7 +7473,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="31"/>
-      <c r="C240" s="31"/>
+      <c r="C240" s="47"/>
       <c r="D240" s="31"/>
       <c r="E240" s="27"/>
       <c r="F240" s="27"/>
@@ -7476,7 +7482,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
+      <c r="C241" s="47"/>
       <c r="D241" s="31"/>
       <c r="E241" s="27"/>
       <c r="F241" s="27"/>
@@ -7485,7 +7491,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="31"/>
-      <c r="C242" s="31"/>
+      <c r="C242" s="47"/>
       <c r="D242" s="31"/>
       <c r="E242" s="27"/>
       <c r="F242" s="27"/>
@@ -7494,7 +7500,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
+      <c r="C243" s="47"/>
       <c r="D243" s="31"/>
       <c r="E243" s="27"/>
       <c r="F243" s="27"/>
@@ -7503,7 +7509,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="31"/>
-      <c r="C244" s="31"/>
+      <c r="C244" s="47"/>
       <c r="D244" s="31"/>
       <c r="E244" s="27"/>
       <c r="F244" s="27"/>
@@ -7512,7 +7518,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
+      <c r="C245" s="47"/>
       <c r="D245" s="31"/>
       <c r="E245" s="27"/>
       <c r="F245" s="27"/>
@@ -7521,7 +7527,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
+      <c r="C246" s="47"/>
       <c r="D246" s="31"/>
       <c r="E246" s="27"/>
       <c r="F246" s="27"/>
@@ -7530,7 +7536,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="30"/>
+      <c r="C247" s="46"/>
       <c r="D247" s="30"/>
       <c r="E247" s="27"/>
       <c r="F247" s="27"/>
@@ -7539,7 +7545,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
+      <c r="C248" s="46"/>
       <c r="D248" s="30"/>
       <c r="E248" s="27"/>
       <c r="F248" s="27"/>
@@ -7548,7 +7554,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="31"/>
-      <c r="C249" s="31"/>
+      <c r="C249" s="47"/>
       <c r="D249" s="31"/>
       <c r="E249" s="27"/>
       <c r="F249" s="27"/>
@@ -7557,7 +7563,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="31"/>
-      <c r="C250" s="31"/>
+      <c r="C250" s="47"/>
       <c r="D250" s="31"/>
       <c r="E250" s="27"/>
       <c r="F250" s="27"/>
@@ -7566,7 +7572,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="31"/>
-      <c r="C251" s="31"/>
+      <c r="C251" s="47"/>
       <c r="D251" s="31"/>
       <c r="E251" s="27"/>
       <c r="F251" s="27"/>
@@ -7575,7 +7581,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="31"/>
-      <c r="C252" s="31"/>
+      <c r="C252" s="47"/>
       <c r="D252" s="31"/>
       <c r="E252" s="27"/>
       <c r="F252" s="27"/>
@@ -7584,7 +7590,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
+      <c r="C253" s="47"/>
       <c r="D253" s="31"/>
       <c r="E253" s="27"/>
       <c r="F253" s="27"/>
@@ -7593,7 +7599,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="31"/>
-      <c r="C254" s="31"/>
+      <c r="C254" s="47"/>
       <c r="D254" s="31"/>
       <c r="E254" s="27"/>
       <c r="F254" s="27"/>
@@ -7602,7 +7608,7 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
+      <c r="C255" s="47"/>
       <c r="D255" s="31"/>
       <c r="E255" s="27"/>
       <c r="F255" s="27"/>
@@ -7611,7 +7617,7 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="31"/>
-      <c r="C256" s="31"/>
+      <c r="C256" s="47"/>
       <c r="D256" s="31"/>
       <c r="E256" s="27"/>
       <c r="F256" s="27"/>
@@ -7620,7 +7626,7 @@
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="21"/>
       <c r="B257" s="30"/>
-      <c r="C257" s="30"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="30"/>
       <c r="E257" s="22"/>
       <c r="F257" s="22"/>
@@ -7631,7 +7637,7 @@
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="21"/>
       <c r="B258" s="30"/>
-      <c r="C258" s="30"/>
+      <c r="C258" s="46"/>
       <c r="D258" s="30"/>
       <c r="E258" s="22"/>
       <c r="F258" s="22"/>
@@ -7642,7 +7648,7 @@
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="22"/>
       <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
+      <c r="C259" s="47"/>
       <c r="D259" s="31"/>
       <c r="E259" s="22"/>
       <c r="F259" s="22"/>
@@ -7653,7 +7659,7 @@
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="21"/>
       <c r="B260" s="31"/>
-      <c r="C260" s="31"/>
+      <c r="C260" s="47"/>
       <c r="D260" s="31"/>
       <c r="E260" s="22"/>
       <c r="F260" s="22"/>
@@ -7664,7 +7670,7 @@
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="21"/>
       <c r="B261" s="31"/>
-      <c r="C261" s="31"/>
+      <c r="C261" s="47"/>
       <c r="D261" s="31"/>
       <c r="E261" s="22"/>
       <c r="F261" s="22"/>
@@ -7675,7 +7681,7 @@
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="21"/>
       <c r="B262" s="31"/>
-      <c r="C262" s="31"/>
+      <c r="C262" s="47"/>
       <c r="D262" s="31"/>
       <c r="E262" s="22"/>
       <c r="F262" s="22"/>
@@ -7686,7 +7692,7 @@
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="21"/>
       <c r="B263" s="31"/>
-      <c r="C263" s="31"/>
+      <c r="C263" s="47"/>
       <c r="D263" s="31"/>
       <c r="E263" s="22"/>
       <c r="F263" s="22"/>
@@ -7697,7 +7703,7 @@
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="21"/>
       <c r="B264" s="31"/>
-      <c r="C264" s="31"/>
+      <c r="C264" s="47"/>
       <c r="D264" s="31"/>
       <c r="E264" s="22"/>
       <c r="F264" s="22"/>
@@ -7708,7 +7714,7 @@
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="21"/>
       <c r="B265" s="31"/>
-      <c r="C265" s="31"/>
+      <c r="C265" s="47"/>
       <c r="D265" s="31"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
@@ -7719,7 +7725,7 @@
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="21"/>
       <c r="B266" s="31"/>
-      <c r="C266" s="31"/>
+      <c r="C266" s="47"/>
       <c r="D266" s="31"/>
       <c r="E266" s="22"/>
       <c r="F266" s="22"/>
@@ -7730,7 +7736,7 @@
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="21"/>
       <c r="B267" s="30"/>
-      <c r="C267" s="30"/>
+      <c r="C267" s="46"/>
       <c r="D267" s="30"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
@@ -7741,7 +7747,7 @@
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="21"/>
       <c r="B268" s="30"/>
-      <c r="C268" s="30"/>
+      <c r="C268" s="46"/>
       <c r="D268" s="30"/>
       <c r="E268" s="22"/>
       <c r="F268" s="22"/>
@@ -7752,7 +7758,7 @@
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="21"/>
       <c r="B269" s="31"/>
-      <c r="C269" s="31"/>
+      <c r="C269" s="47"/>
       <c r="D269" s="31"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
@@ -7763,7 +7769,7 @@
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="21"/>
       <c r="B270" s="31"/>
-      <c r="C270" s="31"/>
+      <c r="C270" s="47"/>
       <c r="D270" s="31"/>
       <c r="E270" s="22"/>
       <c r="F270" s="22"/>
@@ -7774,7 +7780,7 @@
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="21"/>
       <c r="B271" s="31"/>
-      <c r="C271" s="31"/>
+      <c r="C271" s="47"/>
       <c r="D271" s="31"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
@@ -7785,7 +7791,7 @@
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="22"/>
       <c r="B272" s="31"/>
-      <c r="C272" s="31"/>
+      <c r="C272" s="47"/>
       <c r="D272" s="31"/>
       <c r="E272" s="22"/>
       <c r="F272" s="22"/>
@@ -7796,7 +7802,7 @@
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="22"/>
       <c r="B273" s="31"/>
-      <c r="C273" s="31"/>
+      <c r="C273" s="47"/>
       <c r="D273" s="31"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
@@ -7807,7 +7813,7 @@
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="22"/>
       <c r="B274" s="31"/>
-      <c r="C274" s="31"/>
+      <c r="C274" s="47"/>
       <c r="D274" s="31"/>
       <c r="E274" s="22"/>
       <c r="F274" s="22"/>
@@ -7818,7 +7824,7 @@
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="22"/>
       <c r="B275" s="31"/>
-      <c r="C275" s="31"/>
+      <c r="C275" s="47"/>
       <c r="D275" s="31"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
@@ -7829,7 +7835,7 @@
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="22"/>
       <c r="B276" s="31"/>
-      <c r="C276" s="31"/>
+      <c r="C276" s="47"/>
       <c r="D276" s="31"/>
       <c r="E276" s="22"/>
       <c r="F276" s="22"/>
@@ -7840,7 +7846,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="22"/>
       <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
+      <c r="C277" s="46"/>
       <c r="D277" s="30"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
@@ -7851,7 +7857,7 @@
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="22"/>
       <c r="B278" s="30"/>
-      <c r="C278" s="30"/>
+      <c r="C278" s="46"/>
       <c r="D278" s="30"/>
       <c r="E278" s="22"/>
       <c r="F278" s="22"/>
@@ -7862,7 +7868,7 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="21"/>
       <c r="B279" s="31"/>
-      <c r="C279" s="31"/>
+      <c r="C279" s="47"/>
       <c r="D279" s="31"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
@@ -7873,7 +7879,7 @@
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="21"/>
       <c r="B280" s="31"/>
-      <c r="C280" s="31"/>
+      <c r="C280" s="47"/>
       <c r="D280" s="31"/>
       <c r="E280" s="22"/>
       <c r="F280" s="22"/>
@@ -7884,7 +7890,7 @@
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="21"/>
       <c r="B281" s="31"/>
-      <c r="C281" s="31"/>
+      <c r="C281" s="47"/>
       <c r="D281" s="31"/>
       <c r="E281" s="22"/>
       <c r="F281" s="22"/>
@@ -7895,7 +7901,7 @@
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="21"/>
       <c r="B282" s="31"/>
-      <c r="C282" s="31"/>
+      <c r="C282" s="47"/>
       <c r="D282" s="31"/>
       <c r="E282" s="22"/>
       <c r="F282" s="22"/>
@@ -7906,7 +7912,7 @@
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="21"/>
       <c r="B283" s="31"/>
-      <c r="C283" s="31"/>
+      <c r="C283" s="47"/>
       <c r="D283" s="31"/>
       <c r="E283" s="22"/>
       <c r="F283" s="22"/>
@@ -7917,7 +7923,7 @@
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="21"/>
       <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
+      <c r="C284" s="47"/>
       <c r="D284" s="31"/>
       <c r="E284" s="22"/>
       <c r="F284" s="22"/>
@@ -7928,7 +7934,7 @@
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="21"/>
       <c r="B285" s="31"/>
-      <c r="C285" s="31"/>
+      <c r="C285" s="47"/>
       <c r="D285" s="31"/>
       <c r="E285" s="22"/>
       <c r="F285" s="22"/>
@@ -7939,7 +7945,7 @@
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="21"/>
       <c r="B286" s="31"/>
-      <c r="C286" s="31"/>
+      <c r="C286" s="47"/>
       <c r="D286" s="31"/>
       <c r="E286" s="22"/>
       <c r="F286" s="22"/>
@@ -7950,7 +7956,7 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="21"/>
       <c r="B287" s="30"/>
-      <c r="C287" s="30"/>
+      <c r="C287" s="46"/>
       <c r="D287" s="30"/>
       <c r="E287" s="22"/>
       <c r="F287" s="22"/>
@@ -7961,7 +7967,7 @@
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="21"/>
       <c r="B288" s="30"/>
-      <c r="C288" s="30"/>
+      <c r="C288" s="46"/>
       <c r="D288" s="30"/>
       <c r="E288" s="22"/>
       <c r="F288" s="22"/>
@@ -7972,7 +7978,7 @@
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="21"/>
       <c r="B289" s="31"/>
-      <c r="C289" s="31"/>
+      <c r="C289" s="47"/>
       <c r="D289" s="31"/>
       <c r="E289" s="22"/>
       <c r="F289" s="22"/>
@@ -7983,7 +7989,7 @@
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="21"/>
       <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+      <c r="C290" s="47"/>
       <c r="D290" s="31"/>
       <c r="E290" s="22"/>
       <c r="F290" s="22"/>
@@ -7994,7 +8000,7 @@
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="21"/>
       <c r="B291" s="31"/>
-      <c r="C291" s="31"/>
+      <c r="C291" s="47"/>
       <c r="D291" s="31"/>
       <c r="E291" s="22"/>
       <c r="F291" s="22"/>
@@ -8005,7 +8011,7 @@
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="21"/>
       <c r="B292" s="31"/>
-      <c r="C292" s="31"/>
+      <c r="C292" s="47"/>
       <c r="D292" s="31"/>
       <c r="E292" s="22"/>
       <c r="F292" s="22"/>
@@ -8016,7 +8022,7 @@
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="21"/>
       <c r="B293" s="31"/>
-      <c r="C293" s="31"/>
+      <c r="C293" s="47"/>
       <c r="D293" s="31"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
@@ -8027,7 +8033,7 @@
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="21"/>
       <c r="B294" s="31"/>
-      <c r="C294" s="31"/>
+      <c r="C294" s="47"/>
       <c r="D294" s="31"/>
       <c r="E294" s="22"/>
       <c r="F294" s="22"/>
@@ -8038,7 +8044,7 @@
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
       <c r="B295" s="31"/>
-      <c r="C295" s="31"/>
+      <c r="C295" s="47"/>
       <c r="D295" s="31"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
@@ -8049,7 +8055,7 @@
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="21"/>
       <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
+      <c r="C296" s="47"/>
       <c r="D296" s="31"/>
       <c r="E296" s="22"/>
       <c r="F296" s="22"/>
@@ -8060,7 +8066,7 @@
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="21"/>
       <c r="B297" s="30"/>
-      <c r="C297" s="30"/>
+      <c r="C297" s="46"/>
       <c r="D297" s="30"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
@@ -8071,7 +8077,7 @@
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="21"/>
       <c r="B298" s="30"/>
-      <c r="C298" s="30"/>
+      <c r="C298" s="46"/>
       <c r="D298" s="30"/>
       <c r="E298" s="22"/>
       <c r="F298" s="22"/>
@@ -8082,7 +8088,7 @@
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="21"/>
       <c r="B299" s="31"/>
-      <c r="C299" s="31"/>
+      <c r="C299" s="47"/>
       <c r="D299" s="31"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
@@ -8093,7 +8099,7 @@
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="21"/>
       <c r="B300" s="31"/>
-      <c r="C300" s="31"/>
+      <c r="C300" s="47"/>
       <c r="D300" s="31"/>
       <c r="E300" s="22"/>
       <c r="F300" s="22"/>
@@ -8104,7 +8110,7 @@
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="21"/>
       <c r="B301" s="31"/>
-      <c r="C301" s="31"/>
+      <c r="C301" s="47"/>
       <c r="D301" s="31"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
@@ -8115,7 +8121,7 @@
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="22"/>
       <c r="B302" s="31"/>
-      <c r="C302" s="31"/>
+      <c r="C302" s="47"/>
       <c r="D302" s="31"/>
       <c r="E302" s="22"/>
       <c r="F302" s="22"/>
@@ -8126,7 +8132,7 @@
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="22"/>
       <c r="B303" s="31"/>
-      <c r="C303" s="31"/>
+      <c r="C303" s="47"/>
       <c r="D303" s="31"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
@@ -8137,7 +8143,7 @@
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="22"/>
       <c r="B304" s="31"/>
-      <c r="C304" s="31"/>
+      <c r="C304" s="47"/>
       <c r="D304" s="31"/>
       <c r="E304" s="22"/>
       <c r="F304" s="22"/>
@@ -8148,7 +8154,7 @@
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="22"/>
       <c r="B305" s="31"/>
-      <c r="C305" s="31"/>
+      <c r="C305" s="47"/>
       <c r="D305" s="31"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
@@ -8159,7 +8165,7 @@
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="22"/>
       <c r="B306" s="31"/>
-      <c r="C306" s="31"/>
+      <c r="C306" s="47"/>
       <c r="D306" s="31"/>
       <c r="E306" s="22"/>
       <c r="F306" s="22"/>
@@ -8170,7 +8176,7 @@
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="22"/>
       <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
+      <c r="C307" s="46"/>
       <c r="D307" s="30"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
@@ -8181,7 +8187,7 @@
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="22"/>
       <c r="B308" s="30"/>
-      <c r="C308" s="30"/>
+      <c r="C308" s="46"/>
       <c r="D308" s="30"/>
       <c r="E308" s="22"/>
       <c r="F308" s="22"/>
@@ -8192,7 +8198,7 @@
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="22"/>
       <c r="B309" s="31"/>
-      <c r="C309" s="31"/>
+      <c r="C309" s="47"/>
       <c r="D309" s="31"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
@@ -8203,7 +8209,7 @@
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="22"/>
       <c r="B310" s="31"/>
-      <c r="C310" s="31"/>
+      <c r="C310" s="47"/>
       <c r="D310" s="31"/>
       <c r="E310" s="22"/>
       <c r="F310" s="22"/>
@@ -8214,7 +8220,7 @@
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="22"/>
       <c r="B311" s="31"/>
-      <c r="C311" s="31"/>
+      <c r="C311" s="47"/>
       <c r="D311" s="31"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
@@ -8225,7 +8231,7 @@
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="22"/>
       <c r="B312" s="31"/>
-      <c r="C312" s="31"/>
+      <c r="C312" s="47"/>
       <c r="D312" s="31"/>
       <c r="E312" s="22"/>
       <c r="F312" s="22"/>
@@ -8236,7 +8242,7 @@
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="22"/>
       <c r="B313" s="31"/>
-      <c r="C313" s="31"/>
+      <c r="C313" s="47"/>
       <c r="D313" s="31"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
@@ -8247,7 +8253,7 @@
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="22"/>
       <c r="B314" s="31"/>
-      <c r="C314" s="31"/>
+      <c r="C314" s="47"/>
       <c r="D314" s="31"/>
       <c r="E314" s="22"/>
       <c r="F314" s="22"/>
@@ -8258,7 +8264,7 @@
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="22"/>
       <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
+      <c r="C315" s="47"/>
       <c r="D315" s="31"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
@@ -8269,7 +8275,7 @@
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="22"/>
       <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
+      <c r="C316" s="47"/>
       <c r="D316" s="31"/>
       <c r="E316" s="22"/>
       <c r="F316" s="22"/>
@@ -8280,7 +8286,7 @@
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="22"/>
       <c r="B317" s="30"/>
-      <c r="C317" s="30"/>
+      <c r="C317" s="46"/>
       <c r="D317" s="30"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
@@ -8291,7 +8297,7 @@
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="22"/>
       <c r="B318" s="30"/>
-      <c r="C318" s="30"/>
+      <c r="C318" s="46"/>
       <c r="D318" s="30"/>
       <c r="E318" s="22"/>
       <c r="F318" s="22"/>
@@ -8302,7 +8308,7 @@
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="22"/>
       <c r="B319" s="31"/>
-      <c r="C319" s="31"/>
+      <c r="C319" s="47"/>
       <c r="D319" s="31"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
@@ -8313,7 +8319,7 @@
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="22"/>
       <c r="B320" s="31"/>
-      <c r="C320" s="31"/>
+      <c r="C320" s="47"/>
       <c r="D320" s="31"/>
       <c r="E320" s="22"/>
       <c r="F320" s="22"/>
@@ -8324,7 +8330,7 @@
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="22"/>
       <c r="B321" s="31"/>
-      <c r="C321" s="31"/>
+      <c r="C321" s="47"/>
       <c r="D321" s="31"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
@@ -8335,7 +8341,7 @@
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="22"/>
       <c r="B322" s="31"/>
-      <c r="C322" s="31"/>
+      <c r="C322" s="47"/>
       <c r="D322" s="31"/>
       <c r="E322" s="22"/>
       <c r="F322" s="22"/>
@@ -8346,7 +8352,7 @@
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="22"/>
       <c r="B323" s="31"/>
-      <c r="C323" s="31"/>
+      <c r="C323" s="47"/>
       <c r="D323" s="31"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
@@ -8357,7 +8363,7 @@
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="22"/>
       <c r="B324" s="31"/>
-      <c r="C324" s="31"/>
+      <c r="C324" s="47"/>
       <c r="D324" s="31"/>
       <c r="E324" s="22"/>
       <c r="F324" s="22"/>
@@ -8368,7 +8374,7 @@
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="22"/>
       <c r="B325" s="31"/>
-      <c r="C325" s="31"/>
+      <c r="C325" s="47"/>
       <c r="D325" s="31"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
@@ -8379,7 +8385,7 @@
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="22"/>
       <c r="B326" s="31"/>
-      <c r="C326" s="31"/>
+      <c r="C326" s="47"/>
       <c r="D326" s="31"/>
       <c r="E326" s="22"/>
       <c r="F326" s="22"/>
@@ -8390,7 +8396,7 @@
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="22"/>
       <c r="B327" s="30"/>
-      <c r="C327" s="30"/>
+      <c r="C327" s="46"/>
       <c r="D327" s="30"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
@@ -8401,7 +8407,7 @@
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="22"/>
       <c r="B328" s="30"/>
-      <c r="C328" s="30"/>
+      <c r="C328" s="46"/>
       <c r="D328" s="30"/>
       <c r="E328" s="22"/>
       <c r="F328" s="22"/>
@@ -8412,7 +8418,7 @@
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="22"/>
       <c r="B329" s="31"/>
-      <c r="C329" s="31"/>
+      <c r="C329" s="47"/>
       <c r="D329" s="31"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
@@ -8423,7 +8429,7 @@
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="22"/>
       <c r="B330" s="31"/>
-      <c r="C330" s="31"/>
+      <c r="C330" s="47"/>
       <c r="D330" s="31"/>
       <c r="E330" s="22"/>
       <c r="F330" s="22"/>
@@ -8434,7 +8440,7 @@
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="22"/>
       <c r="B331" s="31"/>
-      <c r="C331" s="31"/>
+      <c r="C331" s="47"/>
       <c r="D331" s="31"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
@@ -8445,7 +8451,7 @@
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="22"/>
       <c r="B332" s="31"/>
-      <c r="C332" s="31"/>
+      <c r="C332" s="47"/>
       <c r="D332" s="31"/>
       <c r="E332" s="22"/>
       <c r="F332" s="22"/>
@@ -8456,7 +8462,7 @@
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="22"/>
       <c r="B333" s="31"/>
-      <c r="C333" s="31"/>
+      <c r="C333" s="47"/>
       <c r="D333" s="31"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
@@ -8467,7 +8473,7 @@
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="22"/>
       <c r="B334" s="31"/>
-      <c r="C334" s="31"/>
+      <c r="C334" s="47"/>
       <c r="D334" s="31"/>
       <c r="E334" s="22"/>
       <c r="F334" s="22"/>
@@ -8478,7 +8484,7 @@
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="22"/>
       <c r="B335" s="31"/>
-      <c r="C335" s="31"/>
+      <c r="C335" s="47"/>
       <c r="D335" s="31"/>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
@@ -8489,7 +8495,7 @@
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="22"/>
       <c r="B336" s="31"/>
-      <c r="C336" s="31"/>
+      <c r="C336" s="47"/>
       <c r="D336" s="31"/>
       <c r="E336" s="22"/>
       <c r="F336" s="22"/>
@@ -8500,7 +8506,7 @@
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="22"/>
       <c r="B337" s="30"/>
-      <c r="C337" s="30"/>
+      <c r="C337" s="46"/>
       <c r="D337" s="30"/>
       <c r="E337" s="22"/>
       <c r="F337" s="22"/>
@@ -8511,7 +8517,7 @@
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="22"/>
       <c r="B338" s="30"/>
-      <c r="C338" s="30"/>
+      <c r="C338" s="46"/>
       <c r="D338" s="30"/>
       <c r="E338" s="22"/>
       <c r="F338" s="22"/>
@@ -8522,7 +8528,7 @@
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="22"/>
       <c r="B339" s="31"/>
-      <c r="C339" s="31"/>
+      <c r="C339" s="47"/>
       <c r="D339" s="31"/>
       <c r="E339" s="22"/>
       <c r="F339" s="22"/>
@@ -8533,7 +8539,7 @@
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="22"/>
       <c r="B340" s="31"/>
-      <c r="C340" s="31"/>
+      <c r="C340" s="47"/>
       <c r="D340" s="31"/>
       <c r="E340" s="22"/>
       <c r="F340" s="22"/>
@@ -8544,7 +8550,7 @@
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="22"/>
       <c r="B341" s="31"/>
-      <c r="C341" s="31"/>
+      <c r="C341" s="47"/>
       <c r="D341" s="31"/>
       <c r="E341" s="22"/>
       <c r="F341" s="22"/>
@@ -8555,7 +8561,7 @@
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="22"/>
       <c r="B342" s="31"/>
-      <c r="C342" s="31"/>
+      <c r="C342" s="47"/>
       <c r="D342" s="31"/>
       <c r="E342" s="22"/>
       <c r="F342" s="22"/>
@@ -8566,7 +8572,7 @@
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="22"/>
       <c r="B343" s="31"/>
-      <c r="C343" s="31"/>
+      <c r="C343" s="47"/>
       <c r="D343" s="31"/>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
@@ -8577,7 +8583,7 @@
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="22"/>
       <c r="B344" s="31"/>
-      <c r="C344" s="31"/>
+      <c r="C344" s="47"/>
       <c r="D344" s="31"/>
       <c r="E344" s="22"/>
       <c r="F344" s="22"/>
@@ -8588,7 +8594,7 @@
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="22"/>
       <c r="B345" s="31"/>
-      <c r="C345" s="31"/>
+      <c r="C345" s="47"/>
       <c r="D345" s="31"/>
       <c r="E345" s="22"/>
       <c r="F345" s="22"/>
@@ -8599,7 +8605,7 @@
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="22"/>
       <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
+      <c r="C346" s="47"/>
       <c r="D346" s="31"/>
       <c r="E346" s="22"/>
       <c r="F346" s="22"/>
@@ -8610,7 +8616,7 @@
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="22"/>
       <c r="B347" s="30"/>
-      <c r="C347" s="30"/>
+      <c r="C347" s="46"/>
       <c r="D347" s="30"/>
       <c r="E347" s="22"/>
       <c r="F347" s="22"/>
@@ -8621,7 +8627,7 @@
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="22"/>
       <c r="B348" s="30"/>
-      <c r="C348" s="30"/>
+      <c r="C348" s="46"/>
       <c r="D348" s="30"/>
       <c r="E348" s="22"/>
       <c r="F348" s="22"/>
@@ -8632,7 +8638,7 @@
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="22"/>
       <c r="B349" s="31"/>
-      <c r="C349" s="31"/>
+      <c r="C349" s="47"/>
       <c r="D349" s="31"/>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
@@ -8643,7 +8649,7 @@
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="22"/>
       <c r="B350" s="31"/>
-      <c r="C350" s="31"/>
+      <c r="C350" s="47"/>
       <c r="D350" s="31"/>
       <c r="E350" s="22"/>
       <c r="F350" s="22"/>
@@ -8654,7 +8660,7 @@
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="22"/>
       <c r="B351" s="31"/>
-      <c r="C351" s="31"/>
+      <c r="C351" s="47"/>
       <c r="D351" s="31"/>
       <c r="E351" s="22"/>
       <c r="F351" s="22"/>
@@ -8665,7 +8671,7 @@
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="22"/>
       <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
+      <c r="C352" s="47"/>
       <c r="D352" s="31"/>
       <c r="E352" s="22"/>
       <c r="F352" s="22"/>
@@ -8676,7 +8682,7 @@
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="22"/>
       <c r="B353" s="31"/>
-      <c r="C353" s="31"/>
+      <c r="C353" s="47"/>
       <c r="D353" s="31"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
@@ -8687,7 +8693,7 @@
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="22"/>
       <c r="B354" s="31"/>
-      <c r="C354" s="31"/>
+      <c r="C354" s="47"/>
       <c r="D354" s="31"/>
       <c r="E354" s="22"/>
       <c r="F354" s="22"/>
@@ -8698,7 +8704,7 @@
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="22"/>
       <c r="B355" s="31"/>
-      <c r="C355" s="31"/>
+      <c r="C355" s="47"/>
       <c r="D355" s="31"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
@@ -8709,7 +8715,7 @@
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="22"/>
       <c r="B356" s="31"/>
-      <c r="C356" s="31"/>
+      <c r="C356" s="47"/>
       <c r="D356" s="31"/>
       <c r="E356" s="22"/>
       <c r="F356" s="22"/>
@@ -8720,7 +8726,7 @@
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="22"/>
       <c r="B357" s="30"/>
-      <c r="C357" s="30"/>
+      <c r="C357" s="46"/>
       <c r="D357" s="30"/>
       <c r="E357" s="22"/>
       <c r="F357" s="22"/>
@@ -8731,7 +8737,7 @@
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="22"/>
       <c r="B358" s="30"/>
-      <c r="C358" s="30"/>
+      <c r="C358" s="46"/>
       <c r="D358" s="30"/>
       <c r="E358" s="22"/>
       <c r="F358" s="22"/>
@@ -8742,7 +8748,7 @@
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="22"/>
       <c r="B359" s="31"/>
-      <c r="C359" s="31"/>
+      <c r="C359" s="47"/>
       <c r="D359" s="31"/>
       <c r="E359" s="22"/>
       <c r="F359" s="22"/>
@@ -8753,7 +8759,7 @@
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="22"/>
       <c r="B360" s="31"/>
-      <c r="C360" s="31"/>
+      <c r="C360" s="47"/>
       <c r="D360" s="31"/>
       <c r="E360" s="22"/>
       <c r="F360" s="22"/>
@@ -8764,7 +8770,7 @@
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="22"/>
       <c r="B361" s="31"/>
-      <c r="C361" s="31"/>
+      <c r="C361" s="47"/>
       <c r="D361" s="31"/>
       <c r="E361" s="22"/>
       <c r="F361" s="22"/>
@@ -8775,7 +8781,7 @@
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="22"/>
       <c r="B362" s="31"/>
-      <c r="C362" s="31"/>
+      <c r="C362" s="47"/>
       <c r="D362" s="31"/>
       <c r="E362" s="22"/>
       <c r="F362" s="22"/>
@@ -8786,7 +8792,7 @@
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="22"/>
       <c r="B363" s="31"/>
-      <c r="C363" s="31"/>
+      <c r="C363" s="47"/>
       <c r="D363" s="31"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
@@ -8797,7 +8803,7 @@
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="22"/>
       <c r="B364" s="31"/>
-      <c r="C364" s="31"/>
+      <c r="C364" s="47"/>
       <c r="D364" s="31"/>
       <c r="E364" s="22"/>
       <c r="F364" s="22"/>
@@ -8808,7 +8814,7 @@
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="22"/>
       <c r="B365" s="31"/>
-      <c r="C365" s="31"/>
+      <c r="C365" s="47"/>
       <c r="D365" s="31"/>
       <c r="E365" s="22"/>
       <c r="F365" s="22"/>
@@ -8819,7 +8825,7 @@
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="22"/>
       <c r="B366" s="31"/>
-      <c r="C366" s="31"/>
+      <c r="C366" s="47"/>
       <c r="D366" s="31"/>
       <c r="E366" s="22"/>
       <c r="F366" s="22"/>
@@ -8830,7 +8836,7 @@
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="22"/>
       <c r="B367" s="30"/>
-      <c r="C367" s="30"/>
+      <c r="C367" s="46"/>
       <c r="D367" s="30"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
@@ -8841,7 +8847,7 @@
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="22"/>
       <c r="B368" s="30"/>
-      <c r="C368" s="30"/>
+      <c r="C368" s="46"/>
       <c r="D368" s="30"/>
       <c r="E368" s="22"/>
       <c r="F368" s="22"/>
@@ -8852,7 +8858,7 @@
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="22"/>
       <c r="B369" s="31"/>
-      <c r="C369" s="31"/>
+      <c r="C369" s="47"/>
       <c r="D369" s="31"/>
       <c r="E369" s="22"/>
       <c r="F369" s="22"/>
@@ -8863,7 +8869,7 @@
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="22"/>
       <c r="B370" s="31"/>
-      <c r="C370" s="31"/>
+      <c r="C370" s="47"/>
       <c r="D370" s="31"/>
       <c r="E370" s="22"/>
       <c r="F370" s="22"/>
@@ -8874,7 +8880,7 @@
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="22"/>
       <c r="B371" s="31"/>
-      <c r="C371" s="31"/>
+      <c r="C371" s="47"/>
       <c r="D371" s="31"/>
       <c r="E371" s="22"/>
       <c r="F371" s="22"/>
@@ -8885,7 +8891,7 @@
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="22"/>
       <c r="B372" s="31"/>
-      <c r="C372" s="31"/>
+      <c r="C372" s="47"/>
       <c r="D372" s="31"/>
       <c r="E372" s="22"/>
       <c r="F372" s="22"/>
@@ -8896,7 +8902,7 @@
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="22"/>
       <c r="B373" s="31"/>
-      <c r="C373" s="31"/>
+      <c r="C373" s="47"/>
       <c r="D373" s="31"/>
       <c r="E373" s="22"/>
       <c r="F373" s="22"/>
@@ -8907,7 +8913,7 @@
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="22"/>
       <c r="B374" s="31"/>
-      <c r="C374" s="31"/>
+      <c r="C374" s="47"/>
       <c r="D374" s="31"/>
       <c r="E374" s="22"/>
       <c r="F374" s="22"/>
@@ -8918,7 +8924,7 @@
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="22"/>
       <c r="B375" s="31"/>
-      <c r="C375" s="31"/>
+      <c r="C375" s="47"/>
       <c r="D375" s="31"/>
       <c r="E375" s="22"/>
       <c r="F375" s="22"/>
@@ -8929,7 +8935,7 @@
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="22"/>
       <c r="B376" s="31"/>
-      <c r="C376" s="31"/>
+      <c r="C376" s="47"/>
       <c r="D376" s="31"/>
       <c r="E376" s="22"/>
       <c r="F376" s="22"/>
@@ -8940,7 +8946,7 @@
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="22"/>
       <c r="B377" s="30"/>
-      <c r="C377" s="30"/>
+      <c r="C377" s="46"/>
       <c r="D377" s="30"/>
       <c r="E377" s="22"/>
       <c r="F377" s="22"/>
@@ -8951,7 +8957,7 @@
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="22"/>
       <c r="B378" s="30"/>
-      <c r="C378" s="30"/>
+      <c r="C378" s="46"/>
       <c r="D378" s="30"/>
       <c r="E378" s="22"/>
       <c r="F378" s="22"/>
@@ -8962,7 +8968,7 @@
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="22"/>
       <c r="B379" s="31"/>
-      <c r="C379" s="31"/>
+      <c r="C379" s="47"/>
       <c r="D379" s="31"/>
       <c r="E379" s="22"/>
       <c r="F379" s="22"/>
@@ -8973,7 +8979,7 @@
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="22"/>
       <c r="B380" s="31"/>
-      <c r="C380" s="31"/>
+      <c r="C380" s="47"/>
       <c r="D380" s="31"/>
       <c r="E380" s="22"/>
       <c r="F380" s="22"/>
@@ -8984,7 +8990,7 @@
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="22"/>
       <c r="B381" s="31"/>
-      <c r="C381" s="31"/>
+      <c r="C381" s="47"/>
       <c r="D381" s="31"/>
       <c r="E381" s="22"/>
       <c r="F381" s="22"/>
@@ -8995,7 +9001,7 @@
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="22"/>
       <c r="B382" s="31"/>
-      <c r="C382" s="31"/>
+      <c r="C382" s="47"/>
       <c r="D382" s="31"/>
       <c r="E382" s="22"/>
       <c r="F382" s="22"/>
@@ -9006,7 +9012,7 @@
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="22"/>
       <c r="B383" s="31"/>
-      <c r="C383" s="31"/>
+      <c r="C383" s="47"/>
       <c r="D383" s="31"/>
       <c r="E383" s="22"/>
       <c r="F383" s="22"/>
@@ -9017,7 +9023,7 @@
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="22"/>
       <c r="B384" s="31"/>
-      <c r="C384" s="31"/>
+      <c r="C384" s="47"/>
       <c r="D384" s="31"/>
       <c r="E384" s="22"/>
       <c r="F384" s="22"/>
@@ -9028,7 +9034,7 @@
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="22"/>
       <c r="B385" s="31"/>
-      <c r="C385" s="31"/>
+      <c r="C385" s="47"/>
       <c r="D385" s="31"/>
       <c r="E385" s="22"/>
       <c r="F385" s="22"/>
@@ -9039,7 +9045,7 @@
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="22"/>
       <c r="B386" s="31"/>
-      <c r="C386" s="31"/>
+      <c r="C386" s="47"/>
       <c r="D386" s="31"/>
       <c r="E386" s="22"/>
       <c r="F386" s="22"/>
@@ -9050,7 +9056,7 @@
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="22"/>
       <c r="B387" s="30"/>
-      <c r="C387" s="30"/>
+      <c r="C387" s="46"/>
       <c r="D387" s="30"/>
       <c r="E387" s="22"/>
       <c r="F387" s="22"/>
@@ -9061,7 +9067,7 @@
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="22"/>
       <c r="B388" s="30"/>
-      <c r="C388" s="30"/>
+      <c r="C388" s="46"/>
       <c r="D388" s="30"/>
       <c r="E388" s="22"/>
       <c r="F388" s="22"/>
@@ -9072,7 +9078,7 @@
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="22"/>
       <c r="B389" s="31"/>
-      <c r="C389" s="31"/>
+      <c r="C389" s="47"/>
       <c r="D389" s="31"/>
       <c r="E389" s="22"/>
       <c r="F389" s="22"/>
@@ -9083,7 +9089,7 @@
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="22"/>
       <c r="B390" s="31"/>
-      <c r="C390" s="31"/>
+      <c r="C390" s="47"/>
       <c r="D390" s="31"/>
       <c r="E390" s="22"/>
       <c r="F390" s="22"/>
@@ -9094,7 +9100,7 @@
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="22"/>
       <c r="B391" s="31"/>
-      <c r="C391" s="31"/>
+      <c r="C391" s="47"/>
       <c r="D391" s="31"/>
       <c r="E391" s="22"/>
       <c r="F391" s="22"/>
@@ -9105,7 +9111,7 @@
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="22"/>
       <c r="B392" s="31"/>
-      <c r="C392" s="31"/>
+      <c r="C392" s="47"/>
       <c r="D392" s="31"/>
       <c r="E392" s="22"/>
       <c r="F392" s="22"/>
@@ -9116,7 +9122,7 @@
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="22"/>
       <c r="B393" s="31"/>
-      <c r="C393" s="31"/>
+      <c r="C393" s="47"/>
       <c r="D393" s="31"/>
       <c r="E393" s="22"/>
       <c r="F393" s="22"/>
@@ -9127,7 +9133,7 @@
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="22"/>
       <c r="B394" s="31"/>
-      <c r="C394" s="31"/>
+      <c r="C394" s="47"/>
       <c r="D394" s="31"/>
       <c r="E394" s="22"/>
       <c r="F394" s="22"/>
@@ -9138,7 +9144,7 @@
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="22"/>
       <c r="B395" s="31"/>
-      <c r="C395" s="31"/>
+      <c r="C395" s="47"/>
       <c r="D395" s="31"/>
       <c r="E395" s="22"/>
       <c r="F395" s="22"/>
@@ -9149,7 +9155,7 @@
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="22"/>
       <c r="B396" s="31"/>
-      <c r="C396" s="31"/>
+      <c r="C396" s="47"/>
       <c r="D396" s="31"/>
       <c r="E396" s="22"/>
       <c r="F396" s="22"/>
@@ -9160,7 +9166,7 @@
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="22"/>
       <c r="B397" s="30"/>
-      <c r="C397" s="30"/>
+      <c r="C397" s="46"/>
       <c r="D397" s="30"/>
       <c r="E397" s="22"/>
       <c r="F397" s="22"/>
@@ -9171,7 +9177,7 @@
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="22"/>
       <c r="B398" s="30"/>
-      <c r="C398" s="30"/>
+      <c r="C398" s="46"/>
       <c r="D398" s="30"/>
       <c r="E398" s="22"/>
       <c r="F398" s="22"/>
@@ -9182,7 +9188,7 @@
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="22"/>
       <c r="B399" s="31"/>
-      <c r="C399" s="31"/>
+      <c r="C399" s="47"/>
       <c r="D399" s="31"/>
       <c r="E399" s="22"/>
       <c r="F399" s="22"/>
@@ -9193,7 +9199,7 @@
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="22"/>
       <c r="B400" s="31"/>
-      <c r="C400" s="31"/>
+      <c r="C400" s="47"/>
       <c r="D400" s="31"/>
       <c r="E400" s="22"/>
       <c r="F400" s="22"/>
@@ -9204,7 +9210,7 @@
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="22"/>
       <c r="B401" s="31"/>
-      <c r="C401" s="31"/>
+      <c r="C401" s="47"/>
       <c r="D401" s="31"/>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
@@ -9215,7 +9221,7 @@
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="22"/>
       <c r="B402" s="31"/>
-      <c r="C402" s="31"/>
+      <c r="C402" s="47"/>
       <c r="D402" s="31"/>
       <c r="E402" s="22"/>
       <c r="F402" s="22"/>
@@ -9226,7 +9232,7 @@
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="22"/>
       <c r="B403" s="31"/>
-      <c r="C403" s="31"/>
+      <c r="C403" s="47"/>
       <c r="D403" s="31"/>
       <c r="E403" s="22"/>
       <c r="F403" s="22"/>
@@ -9237,7 +9243,7 @@
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="22"/>
       <c r="B404" s="31"/>
-      <c r="C404" s="31"/>
+      <c r="C404" s="47"/>
       <c r="D404" s="31"/>
       <c r="E404" s="22"/>
       <c r="F404" s="22"/>
@@ -9248,7 +9254,7 @@
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="22"/>
       <c r="B405" s="31"/>
-      <c r="C405" s="31"/>
+      <c r="C405" s="47"/>
       <c r="D405" s="31"/>
       <c r="E405" s="22"/>
       <c r="F405" s="22"/>
@@ -9259,7 +9265,7 @@
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="22"/>
       <c r="B406" s="31"/>
-      <c r="C406" s="31"/>
+      <c r="C406" s="47"/>
       <c r="D406" s="31"/>
       <c r="E406" s="22"/>
       <c r="F406" s="22"/>
@@ -9270,7 +9276,7 @@
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="22"/>
       <c r="B407" s="30"/>
-      <c r="C407" s="30"/>
+      <c r="C407" s="46"/>
       <c r="D407" s="30"/>
       <c r="E407" s="22"/>
       <c r="F407" s="22"/>
@@ -9281,7 +9287,7 @@
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="22"/>
       <c r="B408" s="30"/>
-      <c r="C408" s="30"/>
+      <c r="C408" s="46"/>
       <c r="D408" s="30"/>
       <c r="E408" s="22"/>
       <c r="F408" s="22"/>
@@ -9292,7 +9298,7 @@
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="22"/>
       <c r="B409" s="31"/>
-      <c r="C409" s="31"/>
+      <c r="C409" s="47"/>
       <c r="D409" s="31"/>
       <c r="E409" s="22"/>
       <c r="F409" s="22"/>
@@ -9303,7 +9309,7 @@
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="22"/>
       <c r="B410" s="31"/>
-      <c r="C410" s="31"/>
+      <c r="C410" s="47"/>
       <c r="D410" s="31"/>
       <c r="E410" s="22"/>
       <c r="F410" s="22"/>
@@ -9314,7 +9320,7 @@
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="22"/>
       <c r="B411" s="31"/>
-      <c r="C411" s="31"/>
+      <c r="C411" s="47"/>
       <c r="D411" s="31"/>
       <c r="E411" s="22"/>
       <c r="F411" s="22"/>
@@ -9325,7 +9331,7 @@
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="22"/>
       <c r="B412" s="31"/>
-      <c r="C412" s="31"/>
+      <c r="C412" s="47"/>
       <c r="D412" s="31"/>
       <c r="E412" s="22"/>
       <c r="F412" s="22"/>
@@ -9336,7 +9342,7 @@
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="22"/>
       <c r="B413" s="31"/>
-      <c r="C413" s="31"/>
+      <c r="C413" s="47"/>
       <c r="D413" s="31"/>
       <c r="E413" s="22"/>
       <c r="F413" s="22"/>
@@ -9347,7 +9353,7 @@
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="22"/>
       <c r="B414" s="31"/>
-      <c r="C414" s="31"/>
+      <c r="C414" s="47"/>
       <c r="D414" s="31"/>
       <c r="E414" s="22"/>
       <c r="F414" s="22"/>
@@ -9358,7 +9364,7 @@
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="22"/>
       <c r="B415" s="31"/>
-      <c r="C415" s="31"/>
+      <c r="C415" s="47"/>
       <c r="D415" s="31"/>
       <c r="E415" s="22"/>
       <c r="F415" s="22"/>
@@ -9369,7 +9375,7 @@
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="22"/>
       <c r="B416" s="31"/>
-      <c r="C416" s="31"/>
+      <c r="C416" s="47"/>
       <c r="D416" s="31"/>
       <c r="E416" s="22"/>
       <c r="F416" s="22"/>
@@ -9380,7 +9386,7 @@
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="22"/>
       <c r="B417" s="30"/>
-      <c r="C417" s="30"/>
+      <c r="C417" s="46"/>
       <c r="D417" s="30"/>
       <c r="E417" s="22"/>
       <c r="F417" s="22"/>
@@ -9391,7 +9397,7 @@
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="22"/>
       <c r="B418" s="30"/>
-      <c r="C418" s="30"/>
+      <c r="C418" s="46"/>
       <c r="D418" s="30"/>
       <c r="E418" s="22"/>
       <c r="F418" s="22"/>
@@ -9402,7 +9408,7 @@
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="22"/>
       <c r="B419" s="31"/>
-      <c r="C419" s="31"/>
+      <c r="C419" s="47"/>
       <c r="D419" s="31"/>
       <c r="E419" s="22"/>
       <c r="F419" s="22"/>
@@ -9413,7 +9419,7 @@
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="22"/>
       <c r="B420" s="31"/>
-      <c r="C420" s="31"/>
+      <c r="C420" s="47"/>
       <c r="D420" s="31"/>
       <c r="E420" s="22"/>
       <c r="F420" s="22"/>
@@ -9424,7 +9430,7 @@
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="22"/>
       <c r="B421" s="31"/>
-      <c r="C421" s="31"/>
+      <c r="C421" s="47"/>
       <c r="D421" s="31"/>
       <c r="E421" s="22"/>
       <c r="F421" s="22"/>
@@ -9435,7 +9441,7 @@
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="22"/>
       <c r="B422" s="31"/>
-      <c r="C422" s="31"/>
+      <c r="C422" s="47"/>
       <c r="D422" s="31"/>
       <c r="E422" s="22"/>
       <c r="F422" s="22"/>
@@ -9446,7 +9452,7 @@
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="22"/>
       <c r="B423" s="31"/>
-      <c r="C423" s="31"/>
+      <c r="C423" s="47"/>
       <c r="D423" s="31"/>
       <c r="E423" s="22"/>
       <c r="F423" s="22"/>
@@ -9457,7 +9463,7 @@
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="22"/>
       <c r="B424" s="31"/>
-      <c r="C424" s="31"/>
+      <c r="C424" s="47"/>
       <c r="D424" s="31"/>
       <c r="E424" s="22"/>
       <c r="F424" s="22"/>
@@ -9468,7 +9474,7 @@
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="22"/>
       <c r="B425" s="31"/>
-      <c r="C425" s="31"/>
+      <c r="C425" s="47"/>
       <c r="D425" s="31"/>
       <c r="E425" s="22"/>
       <c r="F425" s="22"/>
@@ -9479,7 +9485,7 @@
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="22"/>
       <c r="B426" s="31"/>
-      <c r="C426" s="31"/>
+      <c r="C426" s="47"/>
       <c r="D426" s="31"/>
       <c r="E426" s="22"/>
       <c r="F426" s="22"/>
@@ -9490,7 +9496,7 @@
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="22"/>
       <c r="B427" s="30"/>
-      <c r="C427" s="30"/>
+      <c r="C427" s="46"/>
       <c r="D427" s="30"/>
       <c r="E427" s="22"/>
       <c r="F427" s="22"/>
@@ -9501,7 +9507,7 @@
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="22"/>
       <c r="B428" s="30"/>
-      <c r="C428" s="30"/>
+      <c r="C428" s="46"/>
       <c r="D428" s="30"/>
       <c r="E428" s="22"/>
       <c r="F428" s="22"/>
@@ -9512,7 +9518,7 @@
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="22"/>
       <c r="B429" s="31"/>
-      <c r="C429" s="31"/>
+      <c r="C429" s="47"/>
       <c r="D429" s="31"/>
       <c r="E429" s="22"/>
       <c r="F429" s="22"/>
@@ -9523,7 +9529,7 @@
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="22"/>
       <c r="B430" s="31"/>
-      <c r="C430" s="31"/>
+      <c r="C430" s="47"/>
       <c r="D430" s="31"/>
       <c r="E430" s="22"/>
       <c r="F430" s="22"/>
@@ -9534,7 +9540,7 @@
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="22"/>
       <c r="B431" s="31"/>
-      <c r="C431" s="31"/>
+      <c r="C431" s="47"/>
       <c r="D431" s="31"/>
       <c r="E431" s="22"/>
       <c r="F431" s="22"/>
@@ -9545,7 +9551,7 @@
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="22"/>
       <c r="B432" s="31"/>
-      <c r="C432" s="31"/>
+      <c r="C432" s="47"/>
       <c r="D432" s="31"/>
       <c r="E432" s="22"/>
       <c r="F432" s="22"/>
@@ -9556,7 +9562,7 @@
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="22"/>
       <c r="B433" s="31"/>
-      <c r="C433" s="31"/>
+      <c r="C433" s="47"/>
       <c r="D433" s="31"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
@@ -9567,7 +9573,7 @@
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="22"/>
       <c r="B434" s="31"/>
-      <c r="C434" s="31"/>
+      <c r="C434" s="47"/>
       <c r="D434" s="31"/>
       <c r="E434" s="22"/>
       <c r="F434" s="22"/>
@@ -9578,7 +9584,7 @@
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="22"/>
       <c r="B435" s="31"/>
-      <c r="C435" s="31"/>
+      <c r="C435" s="47"/>
       <c r="D435" s="31"/>
       <c r="E435" s="22"/>
       <c r="F435" s="22"/>
@@ -9589,7 +9595,7 @@
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="22"/>
       <c r="B436" s="31"/>
-      <c r="C436" s="31"/>
+      <c r="C436" s="47"/>
       <c r="D436" s="31"/>
       <c r="E436" s="22"/>
       <c r="F436" s="22"/>
@@ -9600,7 +9606,7 @@
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="22"/>
       <c r="B437" s="30"/>
-      <c r="C437" s="30"/>
+      <c r="C437" s="46"/>
       <c r="D437" s="30"/>
       <c r="E437" s="22"/>
       <c r="F437" s="22"/>
@@ -9611,7 +9617,7 @@
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="22"/>
       <c r="B438" s="30"/>
-      <c r="C438" s="30"/>
+      <c r="C438" s="46"/>
       <c r="D438" s="30"/>
       <c r="E438" s="22"/>
       <c r="F438" s="22"/>
@@ -9622,7 +9628,7 @@
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="22"/>
       <c r="B439" s="31"/>
-      <c r="C439" s="31"/>
+      <c r="C439" s="47"/>
       <c r="D439" s="31"/>
       <c r="E439" s="22"/>
       <c r="F439" s="22"/>
@@ -9633,7 +9639,7 @@
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="22"/>
       <c r="B440" s="31"/>
-      <c r="C440" s="31"/>
+      <c r="C440" s="47"/>
       <c r="D440" s="31"/>
       <c r="E440" s="22"/>
       <c r="F440" s="22"/>
@@ -9644,7 +9650,7 @@
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="22"/>
       <c r="B441" s="31"/>
-      <c r="C441" s="31"/>
+      <c r="C441" s="47"/>
       <c r="D441" s="31"/>
       <c r="E441" s="22"/>
       <c r="F441" s="22"/>
@@ -9655,7 +9661,7 @@
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="22"/>
       <c r="B442" s="31"/>
-      <c r="C442" s="31"/>
+      <c r="C442" s="47"/>
       <c r="D442" s="31"/>
       <c r="E442" s="22"/>
       <c r="F442" s="22"/>
@@ -9666,7 +9672,7 @@
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="22"/>
       <c r="B443" s="31"/>
-      <c r="C443" s="31"/>
+      <c r="C443" s="47"/>
       <c r="D443" s="31"/>
       <c r="E443" s="22"/>
       <c r="F443" s="22"/>
@@ -9677,7 +9683,7 @@
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="22"/>
       <c r="B444" s="31"/>
-      <c r="C444" s="31"/>
+      <c r="C444" s="47"/>
       <c r="D444" s="31"/>
       <c r="E444" s="22"/>
       <c r="F444" s="22"/>
@@ -9688,7 +9694,7 @@
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="22"/>
       <c r="B445" s="31"/>
-      <c r="C445" s="31"/>
+      <c r="C445" s="47"/>
       <c r="D445" s="31"/>
       <c r="E445" s="22"/>
       <c r="F445" s="22"/>
@@ -9699,7 +9705,7 @@
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="22"/>
       <c r="B446" s="31"/>
-      <c r="C446" s="31"/>
+      <c r="C446" s="47"/>
       <c r="D446" s="31"/>
       <c r="E446" s="22"/>
       <c r="F446" s="22"/>
@@ -9710,7 +9716,7 @@
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="22"/>
       <c r="B447" s="30"/>
-      <c r="C447" s="30"/>
+      <c r="C447" s="46"/>
       <c r="D447" s="30"/>
       <c r="E447" s="22"/>
       <c r="F447" s="22"/>
@@ -9721,7 +9727,7 @@
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="22"/>
       <c r="B448" s="30"/>
-      <c r="C448" s="30"/>
+      <c r="C448" s="46"/>
       <c r="D448" s="30"/>
       <c r="E448" s="22"/>
       <c r="F448" s="22"/>
@@ -9732,7 +9738,7 @@
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="22"/>
       <c r="B449" s="31"/>
-      <c r="C449" s="31"/>
+      <c r="C449" s="47"/>
       <c r="D449" s="31"/>
       <c r="E449" s="22"/>
       <c r="F449" s="22"/>
@@ -9743,7 +9749,7 @@
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="22"/>
       <c r="B450" s="31"/>
-      <c r="C450" s="31"/>
+      <c r="C450" s="47"/>
       <c r="D450" s="31"/>
       <c r="E450" s="22"/>
       <c r="F450" s="22"/>
@@ -9754,7 +9760,7 @@
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="22"/>
       <c r="B451" s="31"/>
-      <c r="C451" s="31"/>
+      <c r="C451" s="47"/>
       <c r="D451" s="31"/>
       <c r="E451" s="22"/>
       <c r="F451" s="22"/>
@@ -9765,7 +9771,7 @@
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="22"/>
       <c r="B452" s="31"/>
-      <c r="C452" s="31"/>
+      <c r="C452" s="47"/>
       <c r="D452" s="31"/>
       <c r="E452" s="22"/>
       <c r="F452" s="22"/>
@@ -9776,7 +9782,7 @@
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="22"/>
       <c r="B453" s="31"/>
-      <c r="C453" s="31"/>
+      <c r="C453" s="47"/>
       <c r="D453" s="31"/>
       <c r="E453" s="22"/>
       <c r="F453" s="22"/>
@@ -9787,7 +9793,7 @@
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="22"/>
       <c r="B454" s="31"/>
-      <c r="C454" s="31"/>
+      <c r="C454" s="47"/>
       <c r="D454" s="31"/>
       <c r="E454" s="22"/>
       <c r="F454" s="22"/>
@@ -9798,7 +9804,7 @@
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="22"/>
       <c r="B455" s="31"/>
-      <c r="C455" s="31"/>
+      <c r="C455" s="47"/>
       <c r="D455" s="31"/>
       <c r="E455" s="22"/>
       <c r="F455" s="22"/>
@@ -9809,7 +9815,7 @@
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="22"/>
       <c r="B456" s="31"/>
-      <c r="C456" s="31"/>
+      <c r="C456" s="47"/>
       <c r="D456" s="31"/>
       <c r="E456" s="22"/>
       <c r="F456" s="22"/>
@@ -9820,7 +9826,7 @@
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="22"/>
       <c r="B457" s="30"/>
-      <c r="C457" s="30"/>
+      <c r="C457" s="46"/>
       <c r="D457" s="30"/>
       <c r="E457" s="22"/>
       <c r="F457" s="22"/>
@@ -9831,7 +9837,7 @@
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="22"/>
       <c r="B458" s="30"/>
-      <c r="C458" s="30"/>
+      <c r="C458" s="46"/>
       <c r="D458" s="30"/>
       <c r="E458" s="22"/>
       <c r="F458" s="22"/>
@@ -9842,7 +9848,7 @@
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="22"/>
       <c r="B459" s="31"/>
-      <c r="C459" s="31"/>
+      <c r="C459" s="47"/>
       <c r="D459" s="31"/>
       <c r="E459" s="22"/>
       <c r="F459" s="22"/>
@@ -9853,7 +9859,7 @@
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="27"/>
       <c r="B460" s="31"/>
-      <c r="C460" s="31"/>
+      <c r="C460" s="47"/>
       <c r="D460" s="31"/>
       <c r="E460" s="27"/>
       <c r="F460" s="27"/>
@@ -9862,7 +9868,7 @@
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="27"/>
       <c r="B461" s="31"/>
-      <c r="C461" s="31"/>
+      <c r="C461" s="47"/>
       <c r="D461" s="31"/>
       <c r="E461" s="27"/>
       <c r="F461" s="27"/>
@@ -9871,7 +9877,7 @@
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="27"/>
       <c r="B462" s="31"/>
-      <c r="C462" s="31"/>
+      <c r="C462" s="47"/>
       <c r="D462" s="31"/>
       <c r="E462" s="27"/>
       <c r="F462" s="27"/>
@@ -9880,7 +9886,7 @@
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="27"/>
       <c r="B463" s="31"/>
-      <c r="C463" s="31"/>
+      <c r="C463" s="47"/>
       <c r="D463" s="31"/>
       <c r="E463" s="27"/>
       <c r="F463" s="27"/>
@@ -9889,7 +9895,7 @@
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="27"/>
       <c r="B464" s="31"/>
-      <c r="C464" s="31"/>
+      <c r="C464" s="47"/>
       <c r="D464" s="31"/>
       <c r="E464" s="27"/>
       <c r="F464" s="27"/>
@@ -9898,7 +9904,7 @@
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="27"/>
       <c r="B465" s="31"/>
-      <c r="C465" s="31"/>
+      <c r="C465" s="47"/>
       <c r="D465" s="31"/>
       <c r="E465" s="27"/>
       <c r="F465" s="27"/>
@@ -9907,7 +9913,7 @@
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="27"/>
       <c r="B466" s="31"/>
-      <c r="C466" s="31"/>
+      <c r="C466" s="47"/>
       <c r="D466" s="31"/>
       <c r="E466" s="27"/>
       <c r="F466" s="27"/>
@@ -9916,7 +9922,7 @@
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="27"/>
       <c r="B467" s="30"/>
-      <c r="C467" s="30"/>
+      <c r="C467" s="46"/>
       <c r="D467" s="30"/>
       <c r="E467" s="27"/>
       <c r="F467" s="27"/>
@@ -9925,7 +9931,7 @@
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="27"/>
       <c r="B468" s="30"/>
-      <c r="C468" s="30"/>
+      <c r="C468" s="46"/>
       <c r="D468" s="30"/>
       <c r="E468" s="27"/>
       <c r="F468" s="27"/>
@@ -9934,7 +9940,7 @@
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="27"/>
       <c r="B469" s="31"/>
-      <c r="C469" s="31"/>
+      <c r="C469" s="47"/>
       <c r="D469" s="31"/>
       <c r="E469" s="27"/>
       <c r="F469" s="27"/>
@@ -9943,7 +9949,7 @@
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="27"/>
       <c r="B470" s="31"/>
-      <c r="C470" s="31"/>
+      <c r="C470" s="47"/>
       <c r="D470" s="31"/>
       <c r="E470" s="27"/>
       <c r="F470" s="27"/>
@@ -9952,7 +9958,7 @@
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="27"/>
       <c r="B471" s="31"/>
-      <c r="C471" s="31"/>
+      <c r="C471" s="47"/>
       <c r="D471" s="31"/>
       <c r="E471" s="27"/>
       <c r="F471" s="27"/>
@@ -9961,7 +9967,7 @@
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="27"/>
       <c r="B472" s="31"/>
-      <c r="C472" s="31"/>
+      <c r="C472" s="47"/>
       <c r="D472" s="31"/>
       <c r="E472" s="27"/>
       <c r="F472" s="27"/>
@@ -9970,7 +9976,7 @@
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="27"/>
       <c r="B473" s="31"/>
-      <c r="C473" s="31"/>
+      <c r="C473" s="47"/>
       <c r="D473" s="31"/>
       <c r="E473" s="27"/>
       <c r="F473" s="27"/>
@@ -9979,7 +9985,7 @@
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="27"/>
       <c r="B474" s="31"/>
-      <c r="C474" s="31"/>
+      <c r="C474" s="47"/>
       <c r="D474" s="31"/>
       <c r="E474" s="27"/>
       <c r="F474" s="27"/>
@@ -9988,7 +9994,7 @@
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="27"/>
       <c r="B475" s="31"/>
-      <c r="C475" s="31"/>
+      <c r="C475" s="47"/>
       <c r="D475" s="31"/>
       <c r="E475" s="27"/>
       <c r="F475" s="27"/>
@@ -9997,7 +10003,7 @@
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="27"/>
       <c r="B476" s="31"/>
-      <c r="C476" s="31"/>
+      <c r="C476" s="47"/>
       <c r="D476" s="31"/>
       <c r="E476" s="27"/>
       <c r="F476" s="27"/>
@@ -10006,7 +10012,7 @@
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="27"/>
       <c r="B477" s="30"/>
-      <c r="C477" s="30"/>
+      <c r="C477" s="46"/>
       <c r="D477" s="30"/>
       <c r="E477" s="27"/>
       <c r="F477" s="27"/>
@@ -10015,7 +10021,7 @@
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="27"/>
       <c r="B478" s="30"/>
-      <c r="C478" s="30"/>
+      <c r="C478" s="46"/>
       <c r="D478" s="30"/>
       <c r="E478" s="27"/>
       <c r="F478" s="27"/>
@@ -10024,7 +10030,7 @@
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="27"/>
       <c r="B479" s="31"/>
-      <c r="C479" s="31"/>
+      <c r="C479" s="47"/>
       <c r="D479" s="31"/>
       <c r="E479" s="27"/>
       <c r="F479" s="27"/>
@@ -10033,7 +10039,7 @@
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="27"/>
       <c r="B480" s="31"/>
-      <c r="C480" s="31"/>
+      <c r="C480" s="47"/>
       <c r="D480" s="31"/>
       <c r="E480" s="27"/>
       <c r="F480" s="27"/>
@@ -10042,7 +10048,7 @@
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="27"/>
       <c r="B481" s="31"/>
-      <c r="C481" s="31"/>
+      <c r="C481" s="47"/>
       <c r="D481" s="31"/>
       <c r="E481" s="27"/>
       <c r="F481" s="27"/>
@@ -10051,7 +10057,7 @@
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="27"/>
       <c r="B482" s="31"/>
-      <c r="C482" s="31"/>
+      <c r="C482" s="47"/>
       <c r="D482" s="31"/>
       <c r="E482" s="27"/>
       <c r="F482" s="27"/>
@@ -10060,7 +10066,7 @@
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="27"/>
       <c r="B483" s="31"/>
-      <c r="C483" s="31"/>
+      <c r="C483" s="47"/>
       <c r="D483" s="31"/>
       <c r="E483" s="27"/>
       <c r="F483" s="27"/>
@@ -10069,7 +10075,7 @@
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="27"/>
       <c r="B484" s="31"/>
-      <c r="C484" s="31"/>
+      <c r="C484" s="47"/>
       <c r="D484" s="31"/>
       <c r="E484" s="27"/>
       <c r="F484" s="27"/>
@@ -10078,7 +10084,7 @@
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="27"/>
       <c r="B485" s="31"/>
-      <c r="C485" s="31"/>
+      <c r="C485" s="47"/>
       <c r="D485" s="31"/>
       <c r="E485" s="27"/>
       <c r="F485" s="27"/>
@@ -10087,7 +10093,7 @@
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="27"/>
       <c r="B486" s="31"/>
-      <c r="C486" s="31"/>
+      <c r="C486" s="47"/>
       <c r="D486" s="31"/>
       <c r="E486" s="27"/>
       <c r="F486" s="27"/>
@@ -10096,7 +10102,7 @@
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="27"/>
       <c r="B487" s="30"/>
-      <c r="C487" s="30"/>
+      <c r="C487" s="46"/>
       <c r="D487" s="30"/>
       <c r="E487" s="27"/>
       <c r="F487" s="27"/>
@@ -10105,7 +10111,7 @@
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="27"/>
       <c r="B488" s="30"/>
-      <c r="C488" s="30"/>
+      <c r="C488" s="46"/>
       <c r="D488" s="30"/>
       <c r="E488" s="27"/>
       <c r="F488" s="27"/>
@@ -10114,7 +10120,7 @@
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="27"/>
       <c r="B489" s="31"/>
-      <c r="C489" s="31"/>
+      <c r="C489" s="47"/>
       <c r="D489" s="31"/>
       <c r="E489" s="27"/>
       <c r="F489" s="27"/>
@@ -10123,7 +10129,7 @@
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="27"/>
       <c r="B490" s="31"/>
-      <c r="C490" s="31"/>
+      <c r="C490" s="47"/>
       <c r="D490" s="31"/>
       <c r="E490" s="27"/>
       <c r="F490" s="27"/>
@@ -10132,7 +10138,7 @@
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="27"/>
       <c r="B491" s="31"/>
-      <c r="C491" s="31"/>
+      <c r="C491" s="47"/>
       <c r="D491" s="31"/>
       <c r="E491" s="27"/>
       <c r="F491" s="27"/>
@@ -10141,7 +10147,7 @@
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="27"/>
       <c r="B492" s="31"/>
-      <c r="C492" s="31"/>
+      <c r="C492" s="47"/>
       <c r="D492" s="31"/>
       <c r="E492" s="27"/>
       <c r="F492" s="27"/>
@@ -10150,7 +10156,7 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="27"/>
       <c r="B493" s="31"/>
-      <c r="C493" s="31"/>
+      <c r="C493" s="47"/>
       <c r="D493" s="31"/>
       <c r="E493" s="27"/>
       <c r="F493" s="27"/>
@@ -10159,7 +10165,7 @@
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="27"/>
       <c r="B494" s="31"/>
-      <c r="C494" s="31"/>
+      <c r="C494" s="47"/>
       <c r="D494" s="31"/>
       <c r="E494" s="27"/>
       <c r="F494" s="27"/>
@@ -10168,7 +10174,7 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="27"/>
       <c r="B495" s="31"/>
-      <c r="C495" s="31"/>
+      <c r="C495" s="47"/>
       <c r="D495" s="31"/>
       <c r="E495" s="27"/>
       <c r="F495" s="27"/>
@@ -10177,7 +10183,7 @@
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="27"/>
       <c r="B496" s="31"/>
-      <c r="C496" s="31"/>
+      <c r="C496" s="47"/>
       <c r="D496" s="31"/>
       <c r="E496" s="27"/>
       <c r="F496" s="27"/>
@@ -10186,7 +10192,7 @@
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="21"/>
       <c r="B497" s="30"/>
-      <c r="C497" s="30"/>
+      <c r="C497" s="46"/>
       <c r="D497" s="30"/>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
@@ -10197,7 +10203,7 @@
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="21"/>
       <c r="B498" s="30"/>
-      <c r="C498" s="30"/>
+      <c r="C498" s="46"/>
       <c r="D498" s="30"/>
       <c r="E498" s="22"/>
       <c r="F498" s="22"/>
@@ -10208,7 +10214,7 @@
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="22"/>
       <c r="B499" s="31"/>
-      <c r="C499" s="31"/>
+      <c r="C499" s="47"/>
       <c r="D499" s="31"/>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
@@ -10219,7 +10225,7 @@
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="21"/>
       <c r="B500" s="31"/>
-      <c r="C500" s="31"/>
+      <c r="C500" s="47"/>
       <c r="D500" s="31"/>
       <c r="E500" s="22"/>
       <c r="F500" s="22"/>
@@ -10230,7 +10236,7 @@
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="21"/>
       <c r="B501" s="31"/>
-      <c r="C501" s="31"/>
+      <c r="C501" s="47"/>
       <c r="D501" s="31"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
@@ -10241,7 +10247,7 @@
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="21"/>
       <c r="B502" s="31"/>
-      <c r="C502" s="31"/>
+      <c r="C502" s="47"/>
       <c r="D502" s="31"/>
       <c r="E502" s="22"/>
       <c r="F502" s="22"/>
@@ -10252,7 +10258,7 @@
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="21"/>
       <c r="B503" s="31"/>
-      <c r="C503" s="31"/>
+      <c r="C503" s="47"/>
       <c r="D503" s="31"/>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
@@ -10263,7 +10269,7 @@
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="21"/>
       <c r="B504" s="31"/>
-      <c r="C504" s="31"/>
+      <c r="C504" s="47"/>
       <c r="D504" s="31"/>
       <c r="E504" s="22"/>
       <c r="F504" s="22"/>
@@ -10274,7 +10280,7 @@
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="21"/>
       <c r="B505" s="31"/>
-      <c r="C505" s="31"/>
+      <c r="C505" s="47"/>
       <c r="D505" s="31"/>
       <c r="E505" s="22"/>
       <c r="F505" s="22"/>
@@ -10285,7 +10291,7 @@
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="21"/>
       <c r="B506" s="31"/>
-      <c r="C506" s="31"/>
+      <c r="C506" s="47"/>
       <c r="D506" s="31"/>
       <c r="E506" s="22"/>
       <c r="F506" s="22"/>
@@ -10296,7 +10302,7 @@
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="21"/>
       <c r="B507" s="30"/>
-      <c r="C507" s="30"/>
+      <c r="C507" s="46"/>
       <c r="D507" s="30"/>
       <c r="E507" s="22"/>
       <c r="F507" s="22"/>
@@ -10307,7 +10313,7 @@
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="21"/>
       <c r="B508" s="30"/>
-      <c r="C508" s="30"/>
+      <c r="C508" s="46"/>
       <c r="D508" s="30"/>
       <c r="E508" s="22"/>
       <c r="F508" s="22"/>
@@ -10318,7 +10324,7 @@
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="21"/>
       <c r="B509" s="31"/>
-      <c r="C509" s="31"/>
+      <c r="C509" s="47"/>
       <c r="D509" s="31"/>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
@@ -10329,7 +10335,7 @@
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="21"/>
       <c r="B510" s="31"/>
-      <c r="C510" s="31"/>
+      <c r="C510" s="47"/>
       <c r="D510" s="31"/>
       <c r="E510" s="22"/>
       <c r="F510" s="22"/>
@@ -10340,7 +10346,7 @@
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="21"/>
       <c r="B511" s="31"/>
-      <c r="C511" s="31"/>
+      <c r="C511" s="47"/>
       <c r="D511" s="31"/>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
@@ -10351,7 +10357,7 @@
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="22"/>
       <c r="B512" s="31"/>
-      <c r="C512" s="31"/>
+      <c r="C512" s="47"/>
       <c r="D512" s="31"/>
       <c r="E512" s="22"/>
       <c r="F512" s="22"/>
@@ -10362,7 +10368,7 @@
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="22"/>
       <c r="B513" s="31"/>
-      <c r="C513" s="31"/>
+      <c r="C513" s="47"/>
       <c r="D513" s="31"/>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
@@ -10373,7 +10379,7 @@
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="22"/>
       <c r="B514" s="31"/>
-      <c r="C514" s="31"/>
+      <c r="C514" s="47"/>
       <c r="D514" s="31"/>
       <c r="E514" s="22"/>
       <c r="F514" s="22"/>
@@ -10384,7 +10390,7 @@
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="22"/>
       <c r="B515" s="31"/>
-      <c r="C515" s="31"/>
+      <c r="C515" s="47"/>
       <c r="D515" s="31"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
@@ -10395,7 +10401,7 @@
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="22"/>
       <c r="B516" s="31"/>
-      <c r="C516" s="31"/>
+      <c r="C516" s="47"/>
       <c r="D516" s="31"/>
       <c r="E516" s="22"/>
       <c r="F516" s="22"/>
@@ -10406,7 +10412,7 @@
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="22"/>
       <c r="B517" s="30"/>
-      <c r="C517" s="30"/>
+      <c r="C517" s="46"/>
       <c r="D517" s="30"/>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
@@ -10417,7 +10423,7 @@
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="22"/>
       <c r="B518" s="30"/>
-      <c r="C518" s="30"/>
+      <c r="C518" s="46"/>
       <c r="D518" s="30"/>
       <c r="E518" s="22"/>
       <c r="F518" s="22"/>
@@ -10428,7 +10434,7 @@
     <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" s="21"/>
       <c r="B519" s="31"/>
-      <c r="C519" s="31"/>
+      <c r="C519" s="47"/>
       <c r="D519" s="31"/>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
@@ -10439,7 +10445,7 @@
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" s="21"/>
       <c r="B520" s="31"/>
-      <c r="C520" s="31"/>
+      <c r="C520" s="47"/>
       <c r="D520" s="31"/>
       <c r="E520" s="22"/>
       <c r="F520" s="22"/>
@@ -10450,7 +10456,7 @@
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="21"/>
       <c r="B521" s="31"/>
-      <c r="C521" s="31"/>
+      <c r="C521" s="47"/>
       <c r="D521" s="31"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
@@ -10461,7 +10467,7 @@
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="21"/>
       <c r="B522" s="31"/>
-      <c r="C522" s="31"/>
+      <c r="C522" s="47"/>
       <c r="D522" s="31"/>
       <c r="E522" s="22"/>
       <c r="F522" s="22"/>
@@ -10472,7 +10478,7 @@
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="21"/>
       <c r="B523" s="31"/>
-      <c r="C523" s="31"/>
+      <c r="C523" s="47"/>
       <c r="D523" s="31"/>
       <c r="E523" s="22"/>
       <c r="F523" s="22"/>
@@ -10483,7 +10489,7 @@
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="21"/>
       <c r="B524" s="31"/>
-      <c r="C524" s="31"/>
+      <c r="C524" s="47"/>
       <c r="D524" s="31"/>
       <c r="E524" s="22"/>
       <c r="F524" s="22"/>
@@ -10494,7 +10500,7 @@
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="21"/>
       <c r="B525" s="31"/>
-      <c r="C525" s="31"/>
+      <c r="C525" s="47"/>
       <c r="D525" s="31"/>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
@@ -10505,7 +10511,7 @@
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="21"/>
       <c r="B526" s="31"/>
-      <c r="C526" s="31"/>
+      <c r="C526" s="47"/>
       <c r="D526" s="31"/>
       <c r="E526" s="22"/>
       <c r="F526" s="22"/>
@@ -10516,7 +10522,7 @@
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="21"/>
       <c r="B527" s="30"/>
-      <c r="C527" s="30"/>
+      <c r="C527" s="46"/>
       <c r="D527" s="30"/>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
@@ -10527,7 +10533,7 @@
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
       <c r="B528" s="30"/>
-      <c r="C528" s="30"/>
+      <c r="C528" s="46"/>
       <c r="D528" s="30"/>
       <c r="E528" s="22"/>
       <c r="F528" s="22"/>
@@ -10538,7 +10544,7 @@
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="21"/>
       <c r="B529" s="31"/>
-      <c r="C529" s="31"/>
+      <c r="C529" s="47"/>
       <c r="D529" s="31"/>
       <c r="E529" s="22"/>
       <c r="F529" s="22"/>
@@ -10549,7 +10555,7 @@
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="21"/>
       <c r="B530" s="31"/>
-      <c r="C530" s="31"/>
+      <c r="C530" s="47"/>
       <c r="D530" s="31"/>
       <c r="E530" s="22"/>
       <c r="F530" s="22"/>
@@ -10560,7 +10566,7 @@
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="21"/>
       <c r="B531" s="31"/>
-      <c r="C531" s="31"/>
+      <c r="C531" s="47"/>
       <c r="D531" s="31"/>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
@@ -10571,7 +10577,7 @@
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="21"/>
       <c r="B532" s="31"/>
-      <c r="C532" s="31"/>
+      <c r="C532" s="47"/>
       <c r="D532" s="31"/>
       <c r="E532" s="22"/>
       <c r="F532" s="22"/>
@@ -10582,7 +10588,7 @@
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="21"/>
       <c r="B533" s="31"/>
-      <c r="C533" s="31"/>
+      <c r="C533" s="47"/>
       <c r="D533" s="31"/>
       <c r="E533" s="22"/>
       <c r="F533" s="22"/>
@@ -10593,7 +10599,7 @@
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="21"/>
       <c r="B534" s="31"/>
-      <c r="C534" s="31"/>
+      <c r="C534" s="47"/>
       <c r="D534" s="31"/>
       <c r="E534" s="22"/>
       <c r="F534" s="22"/>
@@ -10604,7 +10610,7 @@
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="21"/>
       <c r="B535" s="31"/>
-      <c r="C535" s="31"/>
+      <c r="C535" s="47"/>
       <c r="D535" s="31"/>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
@@ -10615,7 +10621,7 @@
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="21"/>
       <c r="B536" s="31"/>
-      <c r="C536" s="31"/>
+      <c r="C536" s="47"/>
       <c r="D536" s="31"/>
       <c r="E536" s="22"/>
       <c r="F536" s="22"/>
@@ -10626,7 +10632,7 @@
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="21"/>
       <c r="B537" s="30"/>
-      <c r="C537" s="30"/>
+      <c r="C537" s="46"/>
       <c r="D537" s="30"/>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
@@ -10637,7 +10643,7 @@
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="21"/>
       <c r="B538" s="30"/>
-      <c r="C538" s="30"/>
+      <c r="C538" s="46"/>
       <c r="D538" s="30"/>
       <c r="E538" s="22"/>
       <c r="F538" s="22"/>
@@ -10648,7 +10654,7 @@
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="21"/>
       <c r="B539" s="31"/>
-      <c r="C539" s="31"/>
+      <c r="C539" s="47"/>
       <c r="D539" s="31"/>
       <c r="E539" s="22"/>
       <c r="F539" s="22"/>
@@ -10659,7 +10665,7 @@
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="21"/>
       <c r="B540" s="31"/>
-      <c r="C540" s="31"/>
+      <c r="C540" s="47"/>
       <c r="D540" s="31"/>
       <c r="E540" s="22"/>
       <c r="F540" s="22"/>
@@ -10670,7 +10676,7 @@
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="21"/>
       <c r="B541" s="31"/>
-      <c r="C541" s="31"/>
+      <c r="C541" s="47"/>
       <c r="D541" s="31"/>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
@@ -10681,7 +10687,7 @@
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="22"/>
       <c r="B542" s="31"/>
-      <c r="C542" s="31"/>
+      <c r="C542" s="47"/>
       <c r="D542" s="31"/>
       <c r="E542" s="22"/>
       <c r="F542" s="22"/>
@@ -10692,7 +10698,7 @@
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="22"/>
       <c r="B543" s="31"/>
-      <c r="C543" s="31"/>
+      <c r="C543" s="47"/>
       <c r="D543" s="31"/>
       <c r="E543" s="22"/>
       <c r="F543" s="22"/>
@@ -10703,7 +10709,7 @@
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="22"/>
       <c r="B544" s="31"/>
-      <c r="C544" s="31"/>
+      <c r="C544" s="47"/>
       <c r="D544" s="31"/>
       <c r="E544" s="22"/>
       <c r="F544" s="22"/>
@@ -10714,7 +10720,7 @@
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="22"/>
       <c r="B545" s="31"/>
-      <c r="C545" s="31"/>
+      <c r="C545" s="47"/>
       <c r="D545" s="31"/>
       <c r="E545" s="22"/>
       <c r="F545" s="22"/>
@@ -10725,7 +10731,7 @@
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="22"/>
       <c r="B546" s="31"/>
-      <c r="C546" s="31"/>
+      <c r="C546" s="47"/>
       <c r="D546" s="31"/>
       <c r="E546" s="22"/>
       <c r="F546" s="22"/>
@@ -10736,7 +10742,7 @@
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" s="22"/>
       <c r="B547" s="30"/>
-      <c r="C547" s="30"/>
+      <c r="C547" s="46"/>
       <c r="D547" s="30"/>
       <c r="E547" s="22"/>
       <c r="F547" s="22"/>
@@ -10747,7 +10753,7 @@
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="22"/>
       <c r="B548" s="30"/>
-      <c r="C548" s="30"/>
+      <c r="C548" s="46"/>
       <c r="D548" s="30"/>
       <c r="E548" s="22"/>
       <c r="F548" s="22"/>
@@ -10758,7 +10764,7 @@
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="22"/>
       <c r="B549" s="31"/>
-      <c r="C549" s="31"/>
+      <c r="C549" s="47"/>
       <c r="D549" s="31"/>
       <c r="E549" s="22"/>
       <c r="F549" s="22"/>
@@ -10769,7 +10775,7 @@
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="22"/>
       <c r="B550" s="31"/>
-      <c r="C550" s="31"/>
+      <c r="C550" s="47"/>
       <c r="D550" s="31"/>
       <c r="E550" s="22"/>
       <c r="F550" s="22"/>
@@ -10780,7 +10786,7 @@
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="22"/>
       <c r="B551" s="31"/>
-      <c r="C551" s="31"/>
+      <c r="C551" s="47"/>
       <c r="D551" s="31"/>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
@@ -10791,7 +10797,7 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="22"/>
       <c r="B552" s="31"/>
-      <c r="C552" s="31"/>
+      <c r="C552" s="47"/>
       <c r="D552" s="31"/>
       <c r="E552" s="22"/>
       <c r="F552" s="22"/>
@@ -10802,7 +10808,7 @@
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" s="22"/>
       <c r="B553" s="31"/>
-      <c r="C553" s="31"/>
+      <c r="C553" s="47"/>
       <c r="D553" s="31"/>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
@@ -10813,7 +10819,7 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="22"/>
       <c r="B554" s="31"/>
-      <c r="C554" s="31"/>
+      <c r="C554" s="47"/>
       <c r="D554" s="31"/>
       <c r="E554" s="22"/>
       <c r="F554" s="22"/>
@@ -10824,7 +10830,7 @@
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="22"/>
       <c r="B555" s="31"/>
-      <c r="C555" s="31"/>
+      <c r="C555" s="47"/>
       <c r="D555" s="31"/>
       <c r="E555" s="22"/>
       <c r="F555" s="22"/>
@@ -10835,7 +10841,7 @@
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="22"/>
       <c r="B556" s="31"/>
-      <c r="C556" s="31"/>
+      <c r="C556" s="47"/>
       <c r="D556" s="31"/>
       <c r="E556" s="22"/>
       <c r="F556" s="22"/>
@@ -10846,7 +10852,7 @@
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="22"/>
       <c r="B557" s="30"/>
-      <c r="C557" s="30"/>
+      <c r="C557" s="46"/>
       <c r="D557" s="30"/>
       <c r="E557" s="22"/>
       <c r="F557" s="22"/>
@@ -10857,7 +10863,7 @@
     <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" s="22"/>
       <c r="B558" s="30"/>
-      <c r="C558" s="30"/>
+      <c r="C558" s="46"/>
       <c r="D558" s="30"/>
       <c r="E558" s="22"/>
       <c r="F558" s="22"/>
@@ -10868,7 +10874,7 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="22"/>
       <c r="B559" s="31"/>
-      <c r="C559" s="31"/>
+      <c r="C559" s="47"/>
       <c r="D559" s="31"/>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
@@ -10879,7 +10885,7 @@
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" s="22"/>
       <c r="B560" s="31"/>
-      <c r="C560" s="31"/>
+      <c r="C560" s="47"/>
       <c r="D560" s="31"/>
       <c r="E560" s="22"/>
       <c r="F560" s="22"/>
@@ -10890,7 +10896,7 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="22"/>
       <c r="B561" s="31"/>
-      <c r="C561" s="31"/>
+      <c r="C561" s="47"/>
       <c r="D561" s="31"/>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
@@ -10901,7 +10907,7 @@
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="22"/>
       <c r="B562" s="31"/>
-      <c r="C562" s="31"/>
+      <c r="C562" s="47"/>
       <c r="D562" s="31"/>
       <c r="E562" s="22"/>
       <c r="F562" s="22"/>
@@ -10912,7 +10918,7 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="22"/>
       <c r="B563" s="31"/>
-      <c r="C563" s="31"/>
+      <c r="C563" s="47"/>
       <c r="D563" s="31"/>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
@@ -10923,7 +10929,7 @@
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="22"/>
       <c r="B564" s="31"/>
-      <c r="C564" s="31"/>
+      <c r="C564" s="47"/>
       <c r="D564" s="31"/>
       <c r="E564" s="22"/>
       <c r="F564" s="22"/>
@@ -10934,7 +10940,7 @@
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" s="22"/>
       <c r="B565" s="31"/>
-      <c r="C565" s="31"/>
+      <c r="C565" s="47"/>
       <c r="D565" s="31"/>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
@@ -10945,7 +10951,7 @@
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" s="22"/>
       <c r="B566" s="31"/>
-      <c r="C566" s="31"/>
+      <c r="C566" s="47"/>
       <c r="D566" s="31"/>
       <c r="E566" s="22"/>
       <c r="F566" s="22"/>
@@ -10956,7 +10962,7 @@
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="22"/>
       <c r="B567" s="30"/>
-      <c r="C567" s="30"/>
+      <c r="C567" s="46"/>
       <c r="D567" s="30"/>
       <c r="E567" s="22"/>
       <c r="F567" s="22"/>
@@ -10967,7 +10973,7 @@
     <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" s="22"/>
       <c r="B568" s="30"/>
-      <c r="C568" s="30"/>
+      <c r="C568" s="46"/>
       <c r="D568" s="30"/>
       <c r="E568" s="22"/>
       <c r="F568" s="22"/>
@@ -10978,7 +10984,7 @@
     <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" s="22"/>
       <c r="B569" s="31"/>
-      <c r="C569" s="31"/>
+      <c r="C569" s="47"/>
       <c r="D569" s="31"/>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
@@ -10989,7 +10995,7 @@
     <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" s="22"/>
       <c r="B570" s="31"/>
-      <c r="C570" s="31"/>
+      <c r="C570" s="47"/>
       <c r="D570" s="31"/>
       <c r="E570" s="22"/>
       <c r="F570" s="22"/>
@@ -11000,7 +11006,7 @@
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" s="22"/>
       <c r="B571" s="31"/>
-      <c r="C571" s="31"/>
+      <c r="C571" s="47"/>
       <c r="D571" s="31"/>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
@@ -11011,7 +11017,7 @@
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="22"/>
       <c r="B572" s="31"/>
-      <c r="C572" s="31"/>
+      <c r="C572" s="47"/>
       <c r="D572" s="31"/>
       <c r="E572" s="22"/>
       <c r="F572" s="22"/>
@@ -11022,7 +11028,7 @@
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="22"/>
       <c r="B573" s="31"/>
-      <c r="C573" s="31"/>
+      <c r="C573" s="47"/>
       <c r="D573" s="31"/>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
@@ -11033,7 +11039,7 @@
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="22"/>
       <c r="B574" s="31"/>
-      <c r="C574" s="31"/>
+      <c r="C574" s="47"/>
       <c r="D574" s="31"/>
       <c r="E574" s="22"/>
       <c r="F574" s="22"/>
@@ -11044,7 +11050,7 @@
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="22"/>
       <c r="B575" s="31"/>
-      <c r="C575" s="31"/>
+      <c r="C575" s="47"/>
       <c r="D575" s="31"/>
       <c r="E575" s="22"/>
       <c r="F575" s="22"/>
@@ -11055,7 +11061,7 @@
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="22"/>
       <c r="B576" s="31"/>
-      <c r="C576" s="31"/>
+      <c r="C576" s="47"/>
       <c r="D576" s="31"/>
       <c r="E576" s="22"/>
       <c r="F576" s="22"/>
@@ -11066,7 +11072,7 @@
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="22"/>
       <c r="B577" s="30"/>
-      <c r="C577" s="30"/>
+      <c r="C577" s="46"/>
       <c r="D577" s="30"/>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
@@ -11077,7 +11083,7 @@
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="22"/>
       <c r="B578" s="30"/>
-      <c r="C578" s="30"/>
+      <c r="C578" s="46"/>
       <c r="D578" s="30"/>
       <c r="E578" s="22"/>
       <c r="F578" s="22"/>
@@ -11088,7 +11094,7 @@
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="22"/>
       <c r="B579" s="31"/>
-      <c r="C579" s="31"/>
+      <c r="C579" s="47"/>
       <c r="D579" s="31"/>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
@@ -11099,7 +11105,7 @@
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="22"/>
       <c r="B580" s="31"/>
-      <c r="C580" s="31"/>
+      <c r="C580" s="47"/>
       <c r="D580" s="31"/>
       <c r="E580" s="22"/>
       <c r="F580" s="22"/>
@@ -11110,7 +11116,7 @@
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="22"/>
       <c r="B581" s="31"/>
-      <c r="C581" s="31"/>
+      <c r="C581" s="47"/>
       <c r="D581" s="31"/>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
@@ -11121,7 +11127,7 @@
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="22"/>
       <c r="B582" s="31"/>
-      <c r="C582" s="31"/>
+      <c r="C582" s="47"/>
       <c r="D582" s="31"/>
       <c r="E582" s="22"/>
       <c r="F582" s="22"/>
@@ -11132,7 +11138,7 @@
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="22"/>
       <c r="B583" s="31"/>
-      <c r="C583" s="31"/>
+      <c r="C583" s="47"/>
       <c r="D583" s="31"/>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
@@ -11143,7 +11149,7 @@
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="22"/>
       <c r="B584" s="31"/>
-      <c r="C584" s="31"/>
+      <c r="C584" s="47"/>
       <c r="D584" s="31"/>
       <c r="E584" s="22"/>
       <c r="F584" s="22"/>
@@ -11154,7 +11160,7 @@
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="22"/>
       <c r="B585" s="31"/>
-      <c r="C585" s="31"/>
+      <c r="C585" s="47"/>
       <c r="D585" s="31"/>
       <c r="E585" s="22"/>
       <c r="F585" s="22"/>
@@ -11165,7 +11171,7 @@
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="22"/>
       <c r="B586" s="31"/>
-      <c r="C586" s="31"/>
+      <c r="C586" s="47"/>
       <c r="D586" s="31"/>
       <c r="E586" s="22"/>
       <c r="F586" s="22"/>
@@ -11176,7 +11182,7 @@
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="22"/>
       <c r="B587" s="30"/>
-      <c r="C587" s="30"/>
+      <c r="C587" s="46"/>
       <c r="D587" s="30"/>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
@@ -11187,7 +11193,7 @@
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="22"/>
       <c r="B588" s="30"/>
-      <c r="C588" s="30"/>
+      <c r="C588" s="46"/>
       <c r="D588" s="30"/>
       <c r="E588" s="22"/>
       <c r="F588" s="22"/>
@@ -11198,7 +11204,7 @@
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="22"/>
       <c r="B589" s="31"/>
-      <c r="C589" s="31"/>
+      <c r="C589" s="47"/>
       <c r="D589" s="31"/>
       <c r="E589" s="22"/>
       <c r="F589" s="22"/>
@@ -11209,7 +11215,7 @@
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="22"/>
       <c r="B590" s="31"/>
-      <c r="C590" s="31"/>
+      <c r="C590" s="47"/>
       <c r="D590" s="31"/>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -11220,7 +11226,7 @@
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="22"/>
       <c r="B591" s="31"/>
-      <c r="C591" s="31"/>
+      <c r="C591" s="47"/>
       <c r="D591" s="31"/>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
@@ -11231,7 +11237,7 @@
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="22"/>
       <c r="B592" s="31"/>
-      <c r="C592" s="31"/>
+      <c r="C592" s="47"/>
       <c r="D592" s="31"/>
       <c r="E592" s="22"/>
       <c r="F592" s="22"/>
@@ -11242,7 +11248,7 @@
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="22"/>
       <c r="B593" s="31"/>
-      <c r="C593" s="31"/>
+      <c r="C593" s="47"/>
       <c r="D593" s="31"/>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
@@ -11253,7 +11259,7 @@
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="22"/>
       <c r="B594" s="31"/>
-      <c r="C594" s="31"/>
+      <c r="C594" s="47"/>
       <c r="D594" s="31"/>
       <c r="E594" s="22"/>
       <c r="F594" s="22"/>
@@ -11264,7 +11270,7 @@
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="22"/>
       <c r="B595" s="31"/>
-      <c r="C595" s="31"/>
+      <c r="C595" s="47"/>
       <c r="D595" s="31"/>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
@@ -11275,7 +11281,7 @@
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="22"/>
       <c r="B596" s="31"/>
-      <c r="C596" s="31"/>
+      <c r="C596" s="47"/>
       <c r="D596" s="31"/>
       <c r="E596" s="22"/>
       <c r="F596" s="22"/>
@@ -11286,7 +11292,7 @@
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="22"/>
       <c r="B597" s="30"/>
-      <c r="C597" s="30"/>
+      <c r="C597" s="46"/>
       <c r="D597" s="30"/>
       <c r="E597" s="22"/>
       <c r="F597" s="22"/>
@@ -11297,7 +11303,7 @@
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="22"/>
       <c r="B598" s="30"/>
-      <c r="C598" s="30"/>
+      <c r="C598" s="46"/>
       <c r="D598" s="30"/>
       <c r="E598" s="22"/>
       <c r="F598" s="22"/>
@@ -11308,7 +11314,7 @@
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="22"/>
       <c r="B599" s="31"/>
-      <c r="C599" s="31"/>
+      <c r="C599" s="47"/>
       <c r="D599" s="31"/>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
@@ -11319,7 +11325,7 @@
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="22"/>
       <c r="B600" s="31"/>
-      <c r="C600" s="31"/>
+      <c r="C600" s="47"/>
       <c r="D600" s="31"/>
       <c r="E600" s="22"/>
       <c r="F600" s="22"/>
@@ -11330,7 +11336,7 @@
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="22"/>
       <c r="B601" s="31"/>
-      <c r="C601" s="31"/>
+      <c r="C601" s="47"/>
       <c r="D601" s="31"/>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
@@ -11341,7 +11347,7 @@
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="22"/>
       <c r="B602" s="31"/>
-      <c r="C602" s="31"/>
+      <c r="C602" s="47"/>
       <c r="D602" s="31"/>
       <c r="E602" s="22"/>
       <c r="F602" s="22"/>
@@ -11352,7 +11358,7 @@
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="22"/>
       <c r="B603" s="31"/>
-      <c r="C603" s="31"/>
+      <c r="C603" s="47"/>
       <c r="D603" s="31"/>
       <c r="E603" s="22"/>
       <c r="F603" s="22"/>
@@ -11363,7 +11369,7 @@
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="22"/>
       <c r="B604" s="31"/>
-      <c r="C604" s="31"/>
+      <c r="C604" s="47"/>
       <c r="D604" s="31"/>
       <c r="E604" s="22"/>
       <c r="F604" s="22"/>
@@ -11374,7 +11380,7 @@
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="22"/>
       <c r="B605" s="31"/>
-      <c r="C605" s="31"/>
+      <c r="C605" s="47"/>
       <c r="D605" s="31"/>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
@@ -11385,7 +11391,7 @@
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="22"/>
       <c r="B606" s="31"/>
-      <c r="C606" s="31"/>
+      <c r="C606" s="47"/>
       <c r="D606" s="31"/>
       <c r="E606" s="22"/>
       <c r="F606" s="22"/>
@@ -11396,7 +11402,7 @@
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="22"/>
       <c r="B607" s="30"/>
-      <c r="C607" s="30"/>
+      <c r="C607" s="46"/>
       <c r="D607" s="30"/>
       <c r="E607" s="22"/>
       <c r="F607" s="22"/>
@@ -11407,7 +11413,7 @@
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="22"/>
       <c r="B608" s="30"/>
-      <c r="C608" s="30"/>
+      <c r="C608" s="46"/>
       <c r="D608" s="30"/>
       <c r="E608" s="22"/>
       <c r="F608" s="22"/>
@@ -11418,7 +11424,7 @@
     <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="22"/>
       <c r="B609" s="31"/>
-      <c r="C609" s="31"/>
+      <c r="C609" s="47"/>
       <c r="D609" s="31"/>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
@@ -11429,7 +11435,7 @@
     <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="22"/>
       <c r="B610" s="31"/>
-      <c r="C610" s="31"/>
+      <c r="C610" s="47"/>
       <c r="D610" s="31"/>
       <c r="E610" s="22"/>
       <c r="F610" s="22"/>
@@ -11440,7 +11446,7 @@
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="22"/>
       <c r="B611" s="31"/>
-      <c r="C611" s="31"/>
+      <c r="C611" s="47"/>
       <c r="D611" s="31"/>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
@@ -11451,7 +11457,7 @@
     <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="22"/>
       <c r="B612" s="31"/>
-      <c r="C612" s="31"/>
+      <c r="C612" s="47"/>
       <c r="D612" s="31"/>
       <c r="E612" s="22"/>
       <c r="F612" s="22"/>
@@ -11462,7 +11468,7 @@
     <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="22"/>
       <c r="B613" s="31"/>
-      <c r="C613" s="31"/>
+      <c r="C613" s="47"/>
       <c r="D613" s="31"/>
       <c r="E613" s="22"/>
       <c r="F613" s="22"/>
@@ -11473,7 +11479,7 @@
     <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="22"/>
       <c r="B614" s="31"/>
-      <c r="C614" s="31"/>
+      <c r="C614" s="47"/>
       <c r="D614" s="31"/>
       <c r="E614" s="22"/>
       <c r="F614" s="22"/>
@@ -11484,7 +11490,7 @@
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="22"/>
       <c r="B615" s="31"/>
-      <c r="C615" s="31"/>
+      <c r="C615" s="47"/>
       <c r="D615" s="31"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
@@ -11495,7 +11501,7 @@
     <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="22"/>
       <c r="B616" s="31"/>
-      <c r="C616" s="31"/>
+      <c r="C616" s="47"/>
       <c r="D616" s="31"/>
       <c r="E616" s="22"/>
       <c r="F616" s="22"/>
@@ -11506,7 +11512,7 @@
     <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="22"/>
       <c r="B617" s="30"/>
-      <c r="C617" s="30"/>
+      <c r="C617" s="46"/>
       <c r="D617" s="30"/>
       <c r="E617" s="22"/>
       <c r="F617" s="22"/>
@@ -11517,7 +11523,7 @@
     <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="22"/>
       <c r="B618" s="30"/>
-      <c r="C618" s="30"/>
+      <c r="C618" s="46"/>
       <c r="D618" s="30"/>
       <c r="E618" s="22"/>
       <c r="F618" s="22"/>
@@ -11528,7 +11534,7 @@
     <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="22"/>
       <c r="B619" s="31"/>
-      <c r="C619" s="31"/>
+      <c r="C619" s="47"/>
       <c r="D619" s="31"/>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
@@ -11539,7 +11545,7 @@
     <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="22"/>
       <c r="B620" s="31"/>
-      <c r="C620" s="31"/>
+      <c r="C620" s="47"/>
       <c r="D620" s="31"/>
       <c r="E620" s="22"/>
       <c r="F620" s="22"/>
@@ -11550,7 +11556,7 @@
     <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="22"/>
       <c r="B621" s="31"/>
-      <c r="C621" s="31"/>
+      <c r="C621" s="47"/>
       <c r="D621" s="31"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
@@ -11561,7 +11567,7 @@
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="22"/>
       <c r="B622" s="31"/>
-      <c r="C622" s="31"/>
+      <c r="C622" s="47"/>
       <c r="D622" s="31"/>
       <c r="E622" s="22"/>
       <c r="F622" s="22"/>
@@ -11572,7 +11578,7 @@
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="22"/>
       <c r="B623" s="31"/>
-      <c r="C623" s="31"/>
+      <c r="C623" s="47"/>
       <c r="D623" s="31"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22"/>
@@ -11583,7 +11589,7 @@
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="22"/>
       <c r="B624" s="31"/>
-      <c r="C624" s="31"/>
+      <c r="C624" s="47"/>
       <c r="D624" s="31"/>
       <c r="E624" s="22"/>
       <c r="F624" s="22"/>
@@ -11594,7 +11600,7 @@
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="22"/>
       <c r="B625" s="31"/>
-      <c r="C625" s="31"/>
+      <c r="C625" s="47"/>
       <c r="D625" s="31"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
@@ -11605,7 +11611,7 @@
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="22"/>
       <c r="B626" s="31"/>
-      <c r="C626" s="31"/>
+      <c r="C626" s="47"/>
       <c r="D626" s="31"/>
       <c r="E626" s="22"/>
       <c r="F626" s="22"/>
@@ -11616,7 +11622,7 @@
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="22"/>
       <c r="B627" s="30"/>
-      <c r="C627" s="30"/>
+      <c r="C627" s="46"/>
       <c r="D627" s="30"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
@@ -11627,7 +11633,7 @@
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="22"/>
       <c r="B628" s="30"/>
-      <c r="C628" s="30"/>
+      <c r="C628" s="46"/>
       <c r="D628" s="30"/>
       <c r="E628" s="22"/>
       <c r="F628" s="22"/>
@@ -11638,7 +11644,7 @@
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="22"/>
       <c r="B629" s="31"/>
-      <c r="C629" s="31"/>
+      <c r="C629" s="47"/>
       <c r="D629" s="31"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
@@ -11649,7 +11655,7 @@
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="22"/>
       <c r="B630" s="31"/>
-      <c r="C630" s="31"/>
+      <c r="C630" s="47"/>
       <c r="D630" s="31"/>
       <c r="E630" s="22"/>
       <c r="F630" s="22"/>
@@ -11660,7 +11666,7 @@
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="22"/>
       <c r="B631" s="31"/>
-      <c r="C631" s="31"/>
+      <c r="C631" s="47"/>
       <c r="D631" s="31"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
@@ -11671,7 +11677,7 @@
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="22"/>
       <c r="B632" s="31"/>
-      <c r="C632" s="31"/>
+      <c r="C632" s="47"/>
       <c r="D632" s="31"/>
       <c r="E632" s="22"/>
       <c r="F632" s="22"/>
@@ -11682,7 +11688,7 @@
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="22"/>
       <c r="B633" s="31"/>
-      <c r="C633" s="31"/>
+      <c r="C633" s="47"/>
       <c r="D633" s="31"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22"/>
@@ -11693,7 +11699,7 @@
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="22"/>
       <c r="B634" s="31"/>
-      <c r="C634" s="31"/>
+      <c r="C634" s="47"/>
       <c r="D634" s="31"/>
       <c r="E634" s="22"/>
       <c r="F634" s="22"/>
@@ -11704,7 +11710,7 @@
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="22"/>
       <c r="B635" s="31"/>
-      <c r="C635" s="31"/>
+      <c r="C635" s="47"/>
       <c r="D635" s="31"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
@@ -11715,7 +11721,7 @@
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="22"/>
       <c r="B636" s="31"/>
-      <c r="C636" s="31"/>
+      <c r="C636" s="47"/>
       <c r="D636" s="31"/>
       <c r="E636" s="22"/>
       <c r="F636" s="22"/>
@@ -11726,7 +11732,7 @@
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="22"/>
       <c r="B637" s="30"/>
-      <c r="C637" s="30"/>
+      <c r="C637" s="46"/>
       <c r="D637" s="30"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
@@ -11737,7 +11743,7 @@
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="22"/>
       <c r="B638" s="30"/>
-      <c r="C638" s="30"/>
+      <c r="C638" s="46"/>
       <c r="D638" s="30"/>
       <c r="E638" s="22"/>
       <c r="F638" s="22"/>
@@ -11748,7 +11754,7 @@
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="22"/>
       <c r="B639" s="31"/>
-      <c r="C639" s="31"/>
+      <c r="C639" s="47"/>
       <c r="D639" s="31"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22"/>
@@ -11759,7 +11765,7 @@
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="22"/>
       <c r="B640" s="31"/>
-      <c r="C640" s="31"/>
+      <c r="C640" s="47"/>
       <c r="D640" s="31"/>
       <c r="E640" s="22"/>
       <c r="F640" s="22"/>
@@ -11770,7 +11776,7 @@
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="22"/>
       <c r="B641" s="31"/>
-      <c r="C641" s="31"/>
+      <c r="C641" s="47"/>
       <c r="D641" s="31"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
@@ -11781,7 +11787,7 @@
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="22"/>
       <c r="B642" s="31"/>
-      <c r="C642" s="31"/>
+      <c r="C642" s="47"/>
       <c r="D642" s="31"/>
       <c r="E642" s="22"/>
       <c r="F642" s="22"/>
@@ -11792,7 +11798,7 @@
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="22"/>
       <c r="B643" s="31"/>
-      <c r="C643" s="31"/>
+      <c r="C643" s="47"/>
       <c r="D643" s="31"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22"/>
@@ -11803,7 +11809,7 @@
     <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="22"/>
       <c r="B644" s="31"/>
-      <c r="C644" s="31"/>
+      <c r="C644" s="47"/>
       <c r="D644" s="31"/>
       <c r="E644" s="22"/>
       <c r="F644" s="22"/>
@@ -11814,7 +11820,7 @@
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="22"/>
       <c r="B645" s="31"/>
-      <c r="C645" s="31"/>
+      <c r="C645" s="47"/>
       <c r="D645" s="31"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
@@ -11825,7 +11831,7 @@
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="22"/>
       <c r="B646" s="31"/>
-      <c r="C646" s="31"/>
+      <c r="C646" s="47"/>
       <c r="D646" s="31"/>
       <c r="E646" s="22"/>
       <c r="F646" s="22"/>
@@ -11836,7 +11842,7 @@
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="22"/>
       <c r="B647" s="30"/>
-      <c r="C647" s="30"/>
+      <c r="C647" s="46"/>
       <c r="D647" s="30"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
@@ -11847,7 +11853,7 @@
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="22"/>
       <c r="B648" s="30"/>
-      <c r="C648" s="30"/>
+      <c r="C648" s="46"/>
       <c r="D648" s="30"/>
       <c r="E648" s="22"/>
       <c r="F648" s="22"/>
@@ -11858,7 +11864,7 @@
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="22"/>
       <c r="B649" s="31"/>
-      <c r="C649" s="31"/>
+      <c r="C649" s="47"/>
       <c r="D649" s="31"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22"/>
@@ -11869,7 +11875,7 @@
     <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="22"/>
       <c r="B650" s="31"/>
-      <c r="C650" s="31"/>
+      <c r="C650" s="47"/>
       <c r="D650" s="31"/>
       <c r="E650" s="22"/>
       <c r="F650" s="22"/>
@@ -11880,7 +11886,7 @@
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="22"/>
       <c r="B651" s="31"/>
-      <c r="C651" s="31"/>
+      <c r="C651" s="47"/>
       <c r="D651" s="31"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
@@ -11891,7 +11897,7 @@
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="22"/>
       <c r="B652" s="31"/>
-      <c r="C652" s="31"/>
+      <c r="C652" s="47"/>
       <c r="D652" s="31"/>
       <c r="E652" s="22"/>
       <c r="F652" s="22"/>
@@ -11902,7 +11908,7 @@
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="22"/>
       <c r="B653" s="31"/>
-      <c r="C653" s="31"/>
+      <c r="C653" s="47"/>
       <c r="D653" s="31"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22"/>
@@ -11913,7 +11919,7 @@
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="22"/>
       <c r="B654" s="31"/>
-      <c r="C654" s="31"/>
+      <c r="C654" s="47"/>
       <c r="D654" s="31"/>
       <c r="E654" s="22"/>
       <c r="F654" s="22"/>
@@ -11924,7 +11930,7 @@
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="22"/>
       <c r="B655" s="31"/>
-      <c r="C655" s="31"/>
+      <c r="C655" s="47"/>
       <c r="D655" s="31"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
@@ -11935,7 +11941,7 @@
     <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="22"/>
       <c r="B656" s="31"/>
-      <c r="C656" s="31"/>
+      <c r="C656" s="47"/>
       <c r="D656" s="31"/>
       <c r="E656" s="22"/>
       <c r="F656" s="22"/>
@@ -11946,7 +11952,7 @@
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="22"/>
       <c r="B657" s="30"/>
-      <c r="C657" s="30"/>
+      <c r="C657" s="46"/>
       <c r="D657" s="30"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22"/>
@@ -11957,7 +11963,7 @@
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="22"/>
       <c r="B658" s="30"/>
-      <c r="C658" s="30"/>
+      <c r="C658" s="46"/>
       <c r="D658" s="30"/>
       <c r="E658" s="22"/>
       <c r="F658" s="22"/>
@@ -11968,7 +11974,7 @@
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="22"/>
       <c r="B659" s="31"/>
-      <c r="C659" s="31"/>
+      <c r="C659" s="47"/>
       <c r="D659" s="31"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
@@ -11979,7 +11985,7 @@
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="22"/>
       <c r="B660" s="31"/>
-      <c r="C660" s="31"/>
+      <c r="C660" s="47"/>
       <c r="D660" s="31"/>
       <c r="E660" s="22"/>
       <c r="F660" s="22"/>
@@ -11990,7 +11996,7 @@
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="22"/>
       <c r="B661" s="31"/>
-      <c r="C661" s="31"/>
+      <c r="C661" s="47"/>
       <c r="D661" s="31"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
@@ -12001,7 +12007,7 @@
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="22"/>
       <c r="B662" s="31"/>
-      <c r="C662" s="31"/>
+      <c r="C662" s="47"/>
       <c r="D662" s="31"/>
       <c r="E662" s="22"/>
       <c r="F662" s="22"/>
@@ -12012,7 +12018,7 @@
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="22"/>
       <c r="B663" s="31"/>
-      <c r="C663" s="31"/>
+      <c r="C663" s="47"/>
       <c r="D663" s="31"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22"/>
@@ -12023,7 +12029,7 @@
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="22"/>
       <c r="B664" s="31"/>
-      <c r="C664" s="31"/>
+      <c r="C664" s="47"/>
       <c r="D664" s="31"/>
       <c r="E664" s="22"/>
       <c r="F664" s="22"/>
@@ -12034,7 +12040,7 @@
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="22"/>
       <c r="B665" s="31"/>
-      <c r="C665" s="31"/>
+      <c r="C665" s="47"/>
       <c r="D665" s="31"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
@@ -12045,7 +12051,7 @@
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="22"/>
       <c r="B666" s="31"/>
-      <c r="C666" s="31"/>
+      <c r="C666" s="47"/>
       <c r="D666" s="31"/>
       <c r="E666" s="22"/>
       <c r="F666" s="22"/>
@@ -12056,7 +12062,7 @@
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="22"/>
       <c r="B667" s="30"/>
-      <c r="C667" s="30"/>
+      <c r="C667" s="46"/>
       <c r="D667" s="30"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22"/>
@@ -12067,7 +12073,7 @@
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="22"/>
       <c r="B668" s="30"/>
-      <c r="C668" s="30"/>
+      <c r="C668" s="46"/>
       <c r="D668" s="30"/>
       <c r="E668" s="22"/>
       <c r="F668" s="22"/>
@@ -12078,7 +12084,7 @@
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="22"/>
       <c r="B669" s="31"/>
-      <c r="C669" s="31"/>
+      <c r="C669" s="47"/>
       <c r="D669" s="31"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
@@ -12089,7 +12095,7 @@
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="22"/>
       <c r="B670" s="31"/>
-      <c r="C670" s="31"/>
+      <c r="C670" s="47"/>
       <c r="D670" s="31"/>
       <c r="E670" s="22"/>
       <c r="F670" s="22"/>
@@ -12100,7 +12106,7 @@
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="22"/>
       <c r="B671" s="31"/>
-      <c r="C671" s="31"/>
+      <c r="C671" s="47"/>
       <c r="D671" s="31"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22"/>
@@ -12111,7 +12117,7 @@
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="22"/>
       <c r="B672" s="31"/>
-      <c r="C672" s="31"/>
+      <c r="C672" s="47"/>
       <c r="D672" s="31"/>
       <c r="E672" s="22"/>
       <c r="F672" s="22"/>
@@ -12122,7 +12128,7 @@
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="22"/>
       <c r="B673" s="31"/>
-      <c r="C673" s="31"/>
+      <c r="C673" s="47"/>
       <c r="D673" s="31"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
@@ -12133,7 +12139,7 @@
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="22"/>
       <c r="B674" s="31"/>
-      <c r="C674" s="31"/>
+      <c r="C674" s="47"/>
       <c r="D674" s="31"/>
       <c r="E674" s="22"/>
       <c r="F674" s="22"/>
@@ -12144,7 +12150,7 @@
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="22"/>
       <c r="B675" s="31"/>
-      <c r="C675" s="31"/>
+      <c r="C675" s="47"/>
       <c r="D675" s="31"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22"/>
@@ -12155,7 +12161,7 @@
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="22"/>
       <c r="B676" s="31"/>
-      <c r="C676" s="31"/>
+      <c r="C676" s="47"/>
       <c r="D676" s="31"/>
       <c r="E676" s="22"/>
       <c r="F676" s="22"/>
@@ -12166,7 +12172,7 @@
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="22"/>
       <c r="B677" s="30"/>
-      <c r="C677" s="30"/>
+      <c r="C677" s="46"/>
       <c r="D677" s="30"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
@@ -12177,7 +12183,7 @@
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="22"/>
       <c r="B678" s="30"/>
-      <c r="C678" s="30"/>
+      <c r="C678" s="46"/>
       <c r="D678" s="30"/>
       <c r="E678" s="22"/>
       <c r="F678" s="22"/>
@@ -12188,7 +12194,7 @@
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="22"/>
       <c r="B679" s="31"/>
-      <c r="C679" s="31"/>
+      <c r="C679" s="47"/>
       <c r="D679" s="31"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22"/>
@@ -12199,7 +12205,7 @@
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="22"/>
       <c r="B680" s="31"/>
-      <c r="C680" s="31"/>
+      <c r="C680" s="47"/>
       <c r="D680" s="31"/>
       <c r="E680" s="22"/>
       <c r="F680" s="22"/>
@@ -12210,7 +12216,7 @@
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="22"/>
       <c r="B681" s="31"/>
-      <c r="C681" s="31"/>
+      <c r="C681" s="47"/>
       <c r="D681" s="31"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
@@ -12221,7 +12227,7 @@
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="22"/>
       <c r="B682" s="31"/>
-      <c r="C682" s="31"/>
+      <c r="C682" s="47"/>
       <c r="D682" s="31"/>
       <c r="E682" s="22"/>
       <c r="F682" s="22"/>
@@ -12232,7 +12238,7 @@
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="22"/>
       <c r="B683" s="31"/>
-      <c r="C683" s="31"/>
+      <c r="C683" s="47"/>
       <c r="D683" s="31"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22"/>
@@ -12243,7 +12249,7 @@
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="22"/>
       <c r="B684" s="31"/>
-      <c r="C684" s="31"/>
+      <c r="C684" s="47"/>
       <c r="D684" s="31"/>
       <c r="E684" s="22"/>
       <c r="F684" s="22"/>
@@ -12254,7 +12260,7 @@
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="22"/>
       <c r="B685" s="31"/>
-      <c r="C685" s="31"/>
+      <c r="C685" s="47"/>
       <c r="D685" s="31"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22"/>
@@ -12265,7 +12271,7 @@
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="22"/>
       <c r="B686" s="31"/>
-      <c r="C686" s="31"/>
+      <c r="C686" s="47"/>
       <c r="D686" s="31"/>
       <c r="E686" s="22"/>
       <c r="F686" s="22"/>
@@ -12276,7 +12282,7 @@
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="22"/>
       <c r="B687" s="30"/>
-      <c r="C687" s="30"/>
+      <c r="C687" s="46"/>
       <c r="D687" s="30"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
@@ -12287,7 +12293,7 @@
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="22"/>
       <c r="B688" s="30"/>
-      <c r="C688" s="30"/>
+      <c r="C688" s="46"/>
       <c r="D688" s="30"/>
       <c r="E688" s="22"/>
       <c r="F688" s="22"/>
@@ -12298,7 +12304,7 @@
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="22"/>
       <c r="B689" s="31"/>
-      <c r="C689" s="31"/>
+      <c r="C689" s="47"/>
       <c r="D689" s="31"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
@@ -12309,7 +12315,7 @@
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="22"/>
       <c r="B690" s="31"/>
-      <c r="C690" s="31"/>
+      <c r="C690" s="47"/>
       <c r="D690" s="31"/>
       <c r="E690" s="22"/>
       <c r="F690" s="22"/>
@@ -12320,7 +12326,7 @@
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="22"/>
       <c r="B691" s="31"/>
-      <c r="C691" s="31"/>
+      <c r="C691" s="47"/>
       <c r="D691" s="31"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
@@ -12331,7 +12337,7 @@
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="22"/>
       <c r="B692" s="31"/>
-      <c r="C692" s="31"/>
+      <c r="C692" s="47"/>
       <c r="D692" s="31"/>
       <c r="E692" s="22"/>
       <c r="F692" s="22"/>
@@ -12342,7 +12348,7 @@
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="22"/>
       <c r="B693" s="31"/>
-      <c r="C693" s="31"/>
+      <c r="C693" s="47"/>
       <c r="D693" s="31"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
@@ -12353,7 +12359,7 @@
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="22"/>
       <c r="B694" s="31"/>
-      <c r="C694" s="31"/>
+      <c r="C694" s="47"/>
       <c r="D694" s="31"/>
       <c r="E694" s="22"/>
       <c r="F694" s="22"/>
@@ -12364,7 +12370,7 @@
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="22"/>
       <c r="B695" s="31"/>
-      <c r="C695" s="31"/>
+      <c r="C695" s="47"/>
       <c r="D695" s="31"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
@@ -12375,7 +12381,7 @@
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="22"/>
       <c r="B696" s="31"/>
-      <c r="C696" s="31"/>
+      <c r="C696" s="47"/>
       <c r="D696" s="31"/>
       <c r="E696" s="22"/>
       <c r="F696" s="22"/>
@@ -12386,7 +12392,7 @@
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="22"/>
       <c r="B697" s="30"/>
-      <c r="C697" s="30"/>
+      <c r="C697" s="46"/>
       <c r="D697" s="30"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
@@ -12397,7 +12403,7 @@
     <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="22"/>
       <c r="B698" s="30"/>
-      <c r="C698" s="30"/>
+      <c r="C698" s="46"/>
       <c r="D698" s="30"/>
       <c r="E698" s="22"/>
       <c r="F698" s="22"/>
@@ -12408,7 +12414,7 @@
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="22"/>
       <c r="B699" s="31"/>
-      <c r="C699" s="31"/>
+      <c r="C699" s="47"/>
       <c r="D699" s="31"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
@@ -12419,7 +12425,7 @@
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="27"/>
       <c r="B700" s="31"/>
-      <c r="C700" s="31"/>
+      <c r="C700" s="47"/>
       <c r="D700" s="31"/>
       <c r="E700" s="27"/>
       <c r="F700" s="27"/>
@@ -12428,7 +12434,7 @@
     <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" s="27"/>
       <c r="B701" s="31"/>
-      <c r="C701" s="31"/>
+      <c r="C701" s="47"/>
       <c r="D701" s="31"/>
       <c r="E701" s="27"/>
       <c r="F701" s="27"/>
@@ -12437,7 +12443,7 @@
     <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" s="27"/>
       <c r="B702" s="31"/>
-      <c r="C702" s="31"/>
+      <c r="C702" s="47"/>
       <c r="D702" s="31"/>
       <c r="E702" s="27"/>
       <c r="F702" s="27"/>
@@ -12446,7 +12452,7 @@
     <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="27"/>
       <c r="B703" s="31"/>
-      <c r="C703" s="31"/>
+      <c r="C703" s="47"/>
       <c r="D703" s="31"/>
       <c r="E703" s="27"/>
       <c r="F703" s="27"/>
@@ -12455,7 +12461,7 @@
     <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="27"/>
       <c r="B704" s="31"/>
-      <c r="C704" s="31"/>
+      <c r="C704" s="47"/>
       <c r="D704" s="31"/>
       <c r="E704" s="27"/>
       <c r="F704" s="27"/>
@@ -12464,7 +12470,7 @@
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="27"/>
       <c r="B705" s="31"/>
-      <c r="C705" s="31"/>
+      <c r="C705" s="47"/>
       <c r="D705" s="31"/>
       <c r="E705" s="27"/>
       <c r="F705" s="27"/>
@@ -12473,7 +12479,7 @@
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="27"/>
       <c r="B706" s="31"/>
-      <c r="C706" s="31"/>
+      <c r="C706" s="47"/>
       <c r="D706" s="31"/>
       <c r="E706" s="27"/>
       <c r="F706" s="27"/>
@@ -12482,7 +12488,7 @@
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="27"/>
       <c r="B707" s="30"/>
-      <c r="C707" s="30"/>
+      <c r="C707" s="46"/>
       <c r="D707" s="30"/>
       <c r="E707" s="27"/>
       <c r="F707" s="27"/>
@@ -12491,7 +12497,7 @@
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="27"/>
       <c r="B708" s="30"/>
-      <c r="C708" s="30"/>
+      <c r="C708" s="46"/>
       <c r="D708" s="30"/>
       <c r="E708" s="27"/>
       <c r="F708" s="27"/>
@@ -12500,7 +12506,7 @@
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="27"/>
       <c r="B709" s="31"/>
-      <c r="C709" s="31"/>
+      <c r="C709" s="47"/>
       <c r="D709" s="31"/>
       <c r="E709" s="27"/>
       <c r="F709" s="27"/>
@@ -12509,7 +12515,7 @@
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="27"/>
       <c r="B710" s="31"/>
-      <c r="C710" s="31"/>
+      <c r="C710" s="47"/>
       <c r="D710" s="31"/>
       <c r="E710" s="27"/>
       <c r="F710" s="27"/>
@@ -12518,7 +12524,7 @@
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="27"/>
       <c r="B711" s="31"/>
-      <c r="C711" s="31"/>
+      <c r="C711" s="47"/>
       <c r="D711" s="31"/>
       <c r="E711" s="27"/>
       <c r="F711" s="27"/>
@@ -12527,7 +12533,7 @@
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="27"/>
       <c r="B712" s="31"/>
-      <c r="C712" s="31"/>
+      <c r="C712" s="47"/>
       <c r="D712" s="31"/>
       <c r="E712" s="27"/>
       <c r="F712" s="27"/>
@@ -12536,7 +12542,7 @@
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="27"/>
       <c r="B713" s="31"/>
-      <c r="C713" s="31"/>
+      <c r="C713" s="47"/>
       <c r="D713" s="31"/>
       <c r="E713" s="27"/>
       <c r="F713" s="27"/>
@@ -12545,7 +12551,7 @@
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="27"/>
       <c r="B714" s="31"/>
-      <c r="C714" s="31"/>
+      <c r="C714" s="47"/>
       <c r="D714" s="31"/>
       <c r="E714" s="27"/>
       <c r="F714" s="27"/>
@@ -12554,7 +12560,7 @@
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="27"/>
       <c r="B715" s="31"/>
-      <c r="C715" s="31"/>
+      <c r="C715" s="47"/>
       <c r="D715" s="31"/>
       <c r="E715" s="27"/>
       <c r="F715" s="27"/>
@@ -12563,7 +12569,7 @@
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="27"/>
       <c r="B716" s="31"/>
-      <c r="C716" s="31"/>
+      <c r="C716" s="47"/>
       <c r="D716" s="31"/>
       <c r="E716" s="27"/>
       <c r="F716" s="27"/>
@@ -12572,7 +12578,7 @@
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="27"/>
       <c r="B717" s="30"/>
-      <c r="C717" s="30"/>
+      <c r="C717" s="46"/>
       <c r="D717" s="30"/>
       <c r="E717" s="27"/>
       <c r="F717" s="27"/>
@@ -12581,7 +12587,7 @@
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="27"/>
       <c r="B718" s="30"/>
-      <c r="C718" s="30"/>
+      <c r="C718" s="46"/>
       <c r="D718" s="30"/>
       <c r="E718" s="27"/>
       <c r="F718" s="27"/>
@@ -12590,7 +12596,7 @@
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="27"/>
       <c r="B719" s="31"/>
-      <c r="C719" s="31"/>
+      <c r="C719" s="47"/>
       <c r="D719" s="31"/>
       <c r="E719" s="27"/>
       <c r="F719" s="27"/>
@@ -12599,7 +12605,7 @@
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="27"/>
       <c r="B720" s="31"/>
-      <c r="C720" s="31"/>
+      <c r="C720" s="47"/>
       <c r="D720" s="31"/>
       <c r="E720" s="27"/>
       <c r="F720" s="27"/>
@@ -12608,7 +12614,7 @@
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="27"/>
       <c r="B721" s="31"/>
-      <c r="C721" s="31"/>
+      <c r="C721" s="47"/>
       <c r="D721" s="31"/>
       <c r="E721" s="27"/>
       <c r="F721" s="27"/>
@@ -12617,7 +12623,7 @@
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="27"/>
       <c r="B722" s="31"/>
-      <c r="C722" s="31"/>
+      <c r="C722" s="47"/>
       <c r="D722" s="31"/>
       <c r="E722" s="27"/>
       <c r="F722" s="27"/>
@@ -12626,7 +12632,7 @@
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="27"/>
       <c r="B723" s="31"/>
-      <c r="C723" s="31"/>
+      <c r="C723" s="47"/>
       <c r="D723" s="31"/>
       <c r="E723" s="27"/>
       <c r="F723" s="27"/>
@@ -12635,7 +12641,7 @@
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="27"/>
       <c r="B724" s="31"/>
-      <c r="C724" s="31"/>
+      <c r="C724" s="47"/>
       <c r="D724" s="31"/>
       <c r="E724" s="27"/>
       <c r="F724" s="27"/>
@@ -12644,7 +12650,7 @@
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="27"/>
       <c r="B725" s="31"/>
-      <c r="C725" s="31"/>
+      <c r="C725" s="47"/>
       <c r="D725" s="31"/>
       <c r="E725" s="27"/>
       <c r="F725" s="27"/>
@@ -12653,7 +12659,7 @@
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="27"/>
       <c r="B726" s="31"/>
-      <c r="C726" s="31"/>
+      <c r="C726" s="47"/>
       <c r="D726" s="31"/>
       <c r="E726" s="27"/>
       <c r="F726" s="27"/>
@@ -12662,7 +12668,7 @@
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="27"/>
       <c r="B727" s="30"/>
-      <c r="C727" s="30"/>
+      <c r="C727" s="46"/>
       <c r="D727" s="30"/>
       <c r="E727" s="27"/>
       <c r="F727" s="27"/>
@@ -12671,7 +12677,7 @@
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="27"/>
       <c r="B728" s="30"/>
-      <c r="C728" s="30"/>
+      <c r="C728" s="46"/>
       <c r="D728" s="30"/>
       <c r="E728" s="27"/>
       <c r="F728" s="27"/>
@@ -12680,7 +12686,7 @@
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="27"/>
       <c r="B729" s="31"/>
-      <c r="C729" s="31"/>
+      <c r="C729" s="47"/>
       <c r="D729" s="31"/>
       <c r="E729" s="27"/>
       <c r="F729" s="27"/>
@@ -12689,7 +12695,7 @@
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="27"/>
       <c r="B730" s="31"/>
-      <c r="C730" s="31"/>
+      <c r="C730" s="47"/>
       <c r="D730" s="31"/>
       <c r="E730" s="27"/>
       <c r="F730" s="27"/>
@@ -12698,7 +12704,7 @@
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="27"/>
       <c r="B731" s="31"/>
-      <c r="C731" s="31"/>
+      <c r="C731" s="47"/>
       <c r="D731" s="31"/>
       <c r="E731" s="27"/>
       <c r="F731" s="27"/>
@@ -12707,7 +12713,7 @@
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="27"/>
       <c r="B732" s="31"/>
-      <c r="C732" s="31"/>
+      <c r="C732" s="47"/>
       <c r="D732" s="31"/>
       <c r="E732" s="27"/>
       <c r="F732" s="27"/>
@@ -12716,7 +12722,7 @@
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="27"/>
       <c r="B733" s="31"/>
-      <c r="C733" s="31"/>
+      <c r="C733" s="47"/>
       <c r="D733" s="31"/>
       <c r="E733" s="27"/>
       <c r="F733" s="27"/>
@@ -12725,7 +12731,7 @@
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="27"/>
       <c r="B734" s="31"/>
-      <c r="C734" s="31"/>
+      <c r="C734" s="47"/>
       <c r="D734" s="31"/>
       <c r="E734" s="27"/>
       <c r="F734" s="27"/>
@@ -12734,7 +12740,7 @@
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="27"/>
       <c r="B735" s="31"/>
-      <c r="C735" s="31"/>
+      <c r="C735" s="47"/>
       <c r="D735" s="31"/>
       <c r="E735" s="27"/>
       <c r="F735" s="27"/>
@@ -12743,7 +12749,7 @@
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="27"/>
       <c r="B736" s="31"/>
-      <c r="C736" s="31"/>
+      <c r="C736" s="47"/>
       <c r="D736" s="31"/>
       <c r="E736" s="27"/>
       <c r="F736" s="27"/>
@@ -12751,33 +12757,33 @@
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B737" s="30"/>
-      <c r="C737" s="30"/>
+      <c r="C737" s="46"/>
       <c r="D737" s="30"/>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B738" s="30"/>
-      <c r="C738" s="30"/>
+      <c r="C738" s="46"/>
       <c r="D738" s="30"/>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B739" s="31"/>
-      <c r="C739" s="31"/>
+      <c r="C739" s="47"/>
       <c r="D739" s="31"/>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B740" s="31"/>
-      <c r="C740" s="31"/>
+      <c r="C740" s="47"/>
       <c r="D740" s="31"/>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B741" s="31"/>
-      <c r="C741" s="31"/>
+      <c r="C741" s="47"/>
       <c r="D741" s="31"/>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" s="21"/>
       <c r="B742" s="31"/>
-      <c r="C742" s="31"/>
+      <c r="C742" s="47"/>
       <c r="D742" s="31"/>
       <c r="E742" s="22"/>
       <c r="F742" s="22"/>
@@ -12788,7 +12794,7 @@
     <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" s="21"/>
       <c r="B743" s="31"/>
-      <c r="C743" s="31"/>
+      <c r="C743" s="47"/>
       <c r="D743" s="31"/>
       <c r="E743" s="22"/>
       <c r="F743" s="22"/>
@@ -12799,7 +12805,7 @@
     <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" s="22"/>
       <c r="B744" s="31"/>
-      <c r="C744" s="31"/>
+      <c r="C744" s="47"/>
       <c r="D744" s="31"/>
       <c r="E744" s="22"/>
       <c r="F744" s="22"/>
@@ -12810,7 +12816,7 @@
     <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" s="21"/>
       <c r="B745" s="31"/>
-      <c r="C745" s="31"/>
+      <c r="C745" s="47"/>
       <c r="D745" s="31"/>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
@@ -12821,7 +12827,7 @@
     <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" s="21"/>
       <c r="B746" s="31"/>
-      <c r="C746" s="31"/>
+      <c r="C746" s="47"/>
       <c r="D746" s="31"/>
       <c r="E746" s="22"/>
       <c r="F746" s="22"/>

--- a/rtw_excel_report/report_invoice/invoice.xlsx
+++ b/rtw_excel_report/report_invoice/invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D3DBD-5BEC-430C-903D-1640C6C3228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6332D18-9490-46AE-8BDF-7ECE47A28812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,14 +344,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -361,23 +353,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +683,7 @@
   <dimension ref="A1:AB1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,7 +730,7 @@
     </row>
     <row r="2" spans="1:28" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -788,7 +794,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="12"/>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="13"/>
@@ -817,7 +823,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="9"/>
@@ -928,7 +934,7 @@
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="8"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
@@ -958,7 +964,7 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10"/>
       <c r="D10" s="28" t="s">
         <v>30</v>
@@ -989,17 +995,17 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="10"/>
       <c r="D11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="8"/>
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
@@ -1027,9 +1033,9 @@
       <c r="B12" s="25"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="8"/>
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
@@ -1062,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="34" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="29"/>
@@ -1117,31 +1123,31 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="42" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="19"/>
@@ -1165,15 +1171,15 @@
       <c r="AB15" s="11"/>
     </row>
     <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -1197,7 +1203,7 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="30"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -1227,7 +1233,7 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="30"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -1257,7 +1263,7 @@
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="31"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -1287,7 +1293,7 @@
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="31"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -1317,7 +1323,7 @@
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="31"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -1347,7 +1353,7 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="31"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -1377,7 +1383,7 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -1407,7 +1413,7 @@
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="31"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -1437,7 +1443,7 @@
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="31"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -1467,7 +1473,7 @@
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="31"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -1497,7 +1503,7 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="30"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -1527,7 +1533,7 @@
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="30"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -1557,7 +1563,7 @@
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="31"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -1587,7 +1593,7 @@
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="31"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -1617,7 +1623,7 @@
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="31"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -1647,7 +1653,7 @@
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="31"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -1677,7 +1683,7 @@
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="31"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -1707,7 +1713,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="31"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -1737,7 +1743,7 @@
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="31"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -1767,7 +1773,7 @@
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="31"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -1797,7 +1803,7 @@
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="30"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -1827,7 +1833,7 @@
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="30"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -1857,7 +1863,7 @@
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="31"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -1887,7 +1893,7 @@
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="31"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -1917,7 +1923,7 @@
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="31"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -1947,7 +1953,7 @@
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="31"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -1977,7 +1983,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="31"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -2007,7 +2013,7 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="31"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -2037,7 +2043,7 @@
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="31"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -2067,7 +2073,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="31"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -2097,7 +2103,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="30"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -2127,7 +2133,7 @@
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="30"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -2157,7 +2163,7 @@
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="31"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -2187,7 +2193,7 @@
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="31"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -2217,7 +2223,7 @@
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="31"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -2247,7 +2253,7 @@
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="31"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -2277,7 +2283,7 @@
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="31"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -2307,7 +2313,7 @@
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="31"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -2337,7 +2343,7 @@
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="31"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -2367,7 +2373,7 @@
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="31"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -2397,7 +2403,7 @@
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="30"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -2427,7 +2433,7 @@
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="30"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -2457,7 +2463,7 @@
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="31"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -2487,7 +2493,7 @@
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="31"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -2517,7 +2523,7 @@
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="31"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -2547,7 +2553,7 @@
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="31"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -2577,7 +2583,7 @@
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="31"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -2607,7 +2613,7 @@
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+      <c r="C64" s="40"/>
       <c r="D64" s="31"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -2637,7 +2643,7 @@
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="C65" s="40"/>
       <c r="D65" s="31"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -2667,7 +2673,7 @@
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
       <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="31"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -2697,7 +2703,7 @@
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
       <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="30"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -2727,7 +2733,7 @@
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
       <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="30"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -2757,7 +2763,7 @@
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="C69" s="40"/>
       <c r="D69" s="31"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -2787,7 +2793,7 @@
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
       <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="C70" s="40"/>
       <c r="D70" s="31"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -2817,7 +2823,7 @@
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
       <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="31"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -2847,7 +2853,7 @@
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
       <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="31"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -2877,7 +2883,7 @@
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="31"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
@@ -2907,7 +2913,7 @@
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
+      <c r="C74" s="40"/>
       <c r="D74" s="31"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -2937,7 +2943,7 @@
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
       <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="C75" s="40"/>
       <c r="D75" s="31"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -2967,7 +2973,7 @@
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
       <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="C76" s="40"/>
       <c r="D76" s="31"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -2997,7 +3003,7 @@
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="30"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -3027,7 +3033,7 @@
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
       <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="30"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -3057,7 +3063,7 @@
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="31"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
@@ -3087,7 +3093,7 @@
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="31"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -3117,7 +3123,7 @@
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="31"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -3147,7 +3153,7 @@
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
       <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
+      <c r="C82" s="40"/>
       <c r="D82" s="31"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -3177,7 +3183,7 @@
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
       <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="C83" s="40"/>
       <c r="D83" s="31"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -3207,7 +3213,7 @@
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
       <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
+      <c r="C84" s="40"/>
       <c r="D84" s="31"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -3237,7 +3243,7 @@
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
       <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
+      <c r="C85" s="40"/>
       <c r="D85" s="31"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -3267,7 +3273,7 @@
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
       <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="31"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
@@ -3297,7 +3303,7 @@
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
       <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="30"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -3327,7 +3333,7 @@
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
       <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="30"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
@@ -3357,7 +3363,7 @@
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="22"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="31"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
@@ -3387,7 +3393,7 @@
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
       <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="31"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
@@ -3417,7 +3423,7 @@
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
       <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="31"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
@@ -3447,7 +3453,7 @@
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
       <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="31"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
@@ -3477,7 +3483,7 @@
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="22"/>
       <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
+      <c r="C93" s="40"/>
       <c r="D93" s="31"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
@@ -3507,7 +3513,7 @@
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
+      <c r="C94" s="40"/>
       <c r="D94" s="31"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
@@ -3537,7 +3543,7 @@
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
       <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="C95" s="40"/>
       <c r="D95" s="31"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
@@ -3567,7 +3573,7 @@
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
       <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="C96" s="40"/>
       <c r="D96" s="31"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
@@ -3597,7 +3603,7 @@
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="22"/>
       <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="30"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
@@ -3627,7 +3633,7 @@
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="22"/>
       <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="30"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
@@ -3657,7 +3663,7 @@
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="22"/>
       <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
+      <c r="C99" s="40"/>
       <c r="D99" s="31"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
@@ -3687,7 +3693,7 @@
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="22"/>
       <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
+      <c r="C100" s="40"/>
       <c r="D100" s="31"/>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
@@ -3717,7 +3723,7 @@
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="22"/>
       <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
+      <c r="C101" s="40"/>
       <c r="D101" s="31"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
@@ -3747,7 +3753,7 @@
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="22"/>
       <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
+      <c r="C102" s="40"/>
       <c r="D102" s="31"/>
       <c r="E102" s="22"/>
       <c r="F102" s="22"/>
@@ -3777,7 +3783,7 @@
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
       <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
+      <c r="C103" s="40"/>
       <c r="D103" s="31"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
@@ -3807,7 +3813,7 @@
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="22"/>
       <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
+      <c r="C104" s="40"/>
       <c r="D104" s="31"/>
       <c r="E104" s="22"/>
       <c r="F104" s="22"/>
@@ -3837,7 +3843,7 @@
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="22"/>
       <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="C105" s="40"/>
       <c r="D105" s="31"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
@@ -3867,7 +3873,7 @@
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="22"/>
       <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
+      <c r="C106" s="40"/>
       <c r="D106" s="31"/>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -3897,7 +3903,7 @@
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="22"/>
       <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="30"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
@@ -3927,7 +3933,7 @@
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="22"/>
       <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="30"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
@@ -3957,7 +3963,7 @@
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="22"/>
       <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="C109" s="40"/>
       <c r="D109" s="31"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
@@ -3987,7 +3993,7 @@
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="22"/>
       <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
+      <c r="C110" s="40"/>
       <c r="D110" s="31"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
@@ -4017,7 +4023,7 @@
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
       <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
+      <c r="C111" s="40"/>
       <c r="D111" s="31"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
@@ -4047,7 +4053,7 @@
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="22"/>
       <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
+      <c r="C112" s="40"/>
       <c r="D112" s="31"/>
       <c r="E112" s="22"/>
       <c r="F112" s="22"/>
@@ -4077,7 +4083,7 @@
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
       <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
+      <c r="C113" s="40"/>
       <c r="D113" s="31"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
@@ -4107,7 +4113,7 @@
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
       <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
+      <c r="C114" s="40"/>
       <c r="D114" s="31"/>
       <c r="E114" s="22"/>
       <c r="F114" s="22"/>
@@ -4137,7 +4143,7 @@
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="22"/>
       <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
+      <c r="C115" s="40"/>
       <c r="D115" s="31"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
@@ -4167,7 +4173,7 @@
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="22"/>
       <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
+      <c r="C116" s="40"/>
       <c r="D116" s="31"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
@@ -4197,7 +4203,7 @@
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="22"/>
       <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="30"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
@@ -4227,7 +4233,7 @@
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="22"/>
       <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
+      <c r="C118" s="39"/>
       <c r="D118" s="30"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
@@ -4257,7 +4263,7 @@
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="22"/>
       <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
+      <c r="C119" s="40"/>
       <c r="D119" s="31"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
@@ -4287,7 +4293,7 @@
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="22"/>
       <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
+      <c r="C120" s="40"/>
       <c r="D120" s="31"/>
       <c r="E120" s="22"/>
       <c r="F120" s="22"/>
@@ -4317,7 +4323,7 @@
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="22"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
+      <c r="C121" s="40"/>
       <c r="D121" s="31"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
@@ -4347,7 +4353,7 @@
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="22"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
+      <c r="C122" s="40"/>
       <c r="D122" s="31"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
@@ -4377,7 +4383,7 @@
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
+      <c r="C123" s="40"/>
       <c r="D123" s="31"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
@@ -4407,7 +4413,7 @@
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="22"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
+      <c r="C124" s="40"/>
       <c r="D124" s="31"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -4437,7 +4443,7 @@
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="22"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
+      <c r="C125" s="40"/>
       <c r="D125" s="31"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
@@ -4467,7 +4473,7 @@
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="22"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
+      <c r="C126" s="40"/>
       <c r="D126" s="31"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
@@ -4497,7 +4503,7 @@
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="22"/>
       <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
+      <c r="C127" s="39"/>
       <c r="D127" s="30"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
@@ -4527,7 +4533,7 @@
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="22"/>
       <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
+      <c r="C128" s="39"/>
       <c r="D128" s="30"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22"/>
@@ -4557,7 +4563,7 @@
     <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="22"/>
       <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
+      <c r="C129" s="40"/>
       <c r="D129" s="31"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
@@ -4587,7 +4593,7 @@
     <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="22"/>
       <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
+      <c r="C130" s="40"/>
       <c r="D130" s="31"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
@@ -4617,7 +4623,7 @@
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="22"/>
       <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
+      <c r="C131" s="40"/>
       <c r="D131" s="31"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
@@ -4647,7 +4653,7 @@
     <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="22"/>
       <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
+      <c r="C132" s="40"/>
       <c r="D132" s="31"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
@@ -4677,7 +4683,7 @@
     <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="22"/>
       <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
+      <c r="C133" s="40"/>
       <c r="D133" s="31"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
@@ -4707,7 +4713,7 @@
     <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="22"/>
       <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="C134" s="40"/>
       <c r="D134" s="31"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
@@ -4737,7 +4743,7 @@
     <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="22"/>
       <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="C135" s="40"/>
       <c r="D135" s="31"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
@@ -4767,7 +4773,7 @@
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="22"/>
       <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="C136" s="40"/>
       <c r="D136" s="31"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
@@ -4797,7 +4803,7 @@
     <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="22"/>
       <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
+      <c r="C137" s="39"/>
       <c r="D137" s="30"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
@@ -4827,7 +4833,7 @@
     <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" s="22"/>
       <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
+      <c r="C138" s="39"/>
       <c r="D138" s="30"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -4857,7 +4863,7 @@
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="22"/>
       <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="C139" s="40"/>
       <c r="D139" s="31"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -4887,7 +4893,7 @@
     <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="22"/>
       <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
+      <c r="C140" s="40"/>
       <c r="D140" s="31"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
@@ -4917,7 +4923,7 @@
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="22"/>
       <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="C141" s="40"/>
       <c r="D141" s="31"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
@@ -4947,7 +4953,7 @@
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="22"/>
       <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
+      <c r="C142" s="40"/>
       <c r="D142" s="31"/>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
@@ -4977,7 +4983,7 @@
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="22"/>
       <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
+      <c r="C143" s="40"/>
       <c r="D143" s="31"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
@@ -5007,7 +5013,7 @@
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="22"/>
       <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
+      <c r="C144" s="40"/>
       <c r="D144" s="31"/>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
@@ -5037,7 +5043,7 @@
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" s="22"/>
       <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
+      <c r="C145" s="40"/>
       <c r="D145" s="31"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
@@ -5067,7 +5073,7 @@
     <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" s="22"/>
       <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
+      <c r="C146" s="40"/>
       <c r="D146" s="31"/>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
@@ -5097,7 +5103,7 @@
     <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147" s="22"/>
       <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
+      <c r="C147" s="39"/>
       <c r="D147" s="30"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
@@ -5127,7 +5133,7 @@
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="22"/>
       <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
+      <c r="C148" s="39"/>
       <c r="D148" s="30"/>
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
@@ -5157,7 +5163,7 @@
     <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" s="22"/>
       <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
+      <c r="C149" s="40"/>
       <c r="D149" s="31"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
@@ -5187,7 +5193,7 @@
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="22"/>
       <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
+      <c r="C150" s="40"/>
       <c r="D150" s="31"/>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
@@ -5217,7 +5223,7 @@
     <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" s="22"/>
       <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
+      <c r="C151" s="40"/>
       <c r="D151" s="31"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
@@ -5247,7 +5253,7 @@
     <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" s="22"/>
       <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
+      <c r="C152" s="40"/>
       <c r="D152" s="31"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
@@ -5277,7 +5283,7 @@
     <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153" s="22"/>
       <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+      <c r="C153" s="40"/>
       <c r="D153" s="31"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
@@ -5307,7 +5313,7 @@
     <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" s="22"/>
       <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
+      <c r="C154" s="40"/>
       <c r="D154" s="31"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
@@ -5337,7 +5343,7 @@
     <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155" s="22"/>
       <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
+      <c r="C155" s="40"/>
       <c r="D155" s="31"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
@@ -5367,7 +5373,7 @@
     <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156" s="22"/>
       <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
+      <c r="C156" s="40"/>
       <c r="D156" s="31"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
@@ -5397,7 +5403,7 @@
     <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157" s="22"/>
       <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
+      <c r="C157" s="39"/>
       <c r="D157" s="30"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
@@ -5427,7 +5433,7 @@
     <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158" s="22"/>
       <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
+      <c r="C158" s="39"/>
       <c r="D158" s="30"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
@@ -5457,7 +5463,7 @@
     <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159" s="22"/>
       <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+      <c r="C159" s="40"/>
       <c r="D159" s="31"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
@@ -5487,7 +5493,7 @@
     <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160" s="22"/>
       <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
+      <c r="C160" s="40"/>
       <c r="D160" s="31"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
@@ -5517,7 +5523,7 @@
     <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161" s="22"/>
       <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
+      <c r="C161" s="40"/>
       <c r="D161" s="31"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
@@ -5547,7 +5553,7 @@
     <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162" s="22"/>
       <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
+      <c r="C162" s="40"/>
       <c r="D162" s="31"/>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
@@ -5577,7 +5583,7 @@
     <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163" s="22"/>
       <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
+      <c r="C163" s="40"/>
       <c r="D163" s="31"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
@@ -5607,7 +5613,7 @@
     <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" s="22"/>
       <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
+      <c r="C164" s="40"/>
       <c r="D164" s="31"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
@@ -5637,7 +5643,7 @@
     <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165" s="22"/>
       <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
+      <c r="C165" s="40"/>
       <c r="D165" s="31"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
@@ -5667,7 +5673,7 @@
     <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" s="22"/>
       <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
+      <c r="C166" s="40"/>
       <c r="D166" s="31"/>
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
@@ -5697,7 +5703,7 @@
     <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167" s="22"/>
       <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
+      <c r="C167" s="39"/>
       <c r="D167" s="30"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
@@ -5727,7 +5733,7 @@
     <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" s="22"/>
       <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
+      <c r="C168" s="39"/>
       <c r="D168" s="30"/>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
@@ -5757,7 +5763,7 @@
     <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169" s="22"/>
       <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
+      <c r="C169" s="40"/>
       <c r="D169" s="31"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
@@ -5787,7 +5793,7 @@
     <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170" s="22"/>
       <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
+      <c r="C170" s="40"/>
       <c r="D170" s="31"/>
       <c r="E170" s="22"/>
       <c r="F170" s="22"/>
@@ -5817,7 +5823,7 @@
     <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171" s="22"/>
       <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
+      <c r="C171" s="40"/>
       <c r="D171" s="31"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
@@ -5847,7 +5853,7 @@
     <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" s="22"/>
       <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
+      <c r="C172" s="40"/>
       <c r="D172" s="31"/>
       <c r="E172" s="22"/>
       <c r="F172" s="22"/>
@@ -5877,7 +5883,7 @@
     <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173" s="22"/>
       <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
+      <c r="C173" s="40"/>
       <c r="D173" s="31"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
@@ -5907,7 +5913,7 @@
     <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" s="22"/>
       <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
+      <c r="C174" s="40"/>
       <c r="D174" s="31"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
@@ -5937,7 +5943,7 @@
     <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175" s="22"/>
       <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
+      <c r="C175" s="40"/>
       <c r="D175" s="31"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
@@ -5967,7 +5973,7 @@
     <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176" s="22"/>
       <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
+      <c r="C176" s="40"/>
       <c r="D176" s="31"/>
       <c r="E176" s="22"/>
       <c r="F176" s="22"/>
@@ -5997,7 +6003,7 @@
     <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177" s="22"/>
       <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
+      <c r="C177" s="39"/>
       <c r="D177" s="30"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
@@ -6027,7 +6033,7 @@
     <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178" s="22"/>
       <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
+      <c r="C178" s="39"/>
       <c r="D178" s="30"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
@@ -6057,7 +6063,7 @@
     <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179" s="22"/>
       <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
+      <c r="C179" s="40"/>
       <c r="D179" s="31"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
@@ -6087,7 +6093,7 @@
     <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" s="22"/>
       <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
+      <c r="C180" s="40"/>
       <c r="D180" s="31"/>
       <c r="E180" s="22"/>
       <c r="F180" s="22"/>
@@ -6117,7 +6123,7 @@
     <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" s="22"/>
       <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
+      <c r="C181" s="40"/>
       <c r="D181" s="31"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
@@ -6147,7 +6153,7 @@
     <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" s="22"/>
       <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
+      <c r="C182" s="40"/>
       <c r="D182" s="31"/>
       <c r="E182" s="22"/>
       <c r="F182" s="22"/>
@@ -6177,7 +6183,7 @@
     <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" s="22"/>
       <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
+      <c r="C183" s="40"/>
       <c r="D183" s="31"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
@@ -6207,7 +6213,7 @@
     <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" s="22"/>
       <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
+      <c r="C184" s="40"/>
       <c r="D184" s="31"/>
       <c r="E184" s="22"/>
       <c r="F184" s="22"/>
@@ -6237,7 +6243,7 @@
     <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185" s="22"/>
       <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
+      <c r="C185" s="40"/>
       <c r="D185" s="31"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
@@ -6267,7 +6273,7 @@
     <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" s="22"/>
       <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
+      <c r="C186" s="40"/>
       <c r="D186" s="31"/>
       <c r="E186" s="22"/>
       <c r="F186" s="22"/>
@@ -6297,7 +6303,7 @@
     <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187" s="22"/>
       <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
+      <c r="C187" s="39"/>
       <c r="D187" s="30"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
@@ -6327,7 +6333,7 @@
     <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" s="22"/>
       <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
+      <c r="C188" s="39"/>
       <c r="D188" s="30"/>
       <c r="E188" s="22"/>
       <c r="F188" s="22"/>
@@ -6357,7 +6363,7 @@
     <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" s="22"/>
       <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
+      <c r="C189" s="40"/>
       <c r="D189" s="31"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
@@ -6387,7 +6393,7 @@
     <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190" s="22"/>
       <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
+      <c r="C190" s="40"/>
       <c r="D190" s="31"/>
       <c r="E190" s="22"/>
       <c r="F190" s="22"/>
@@ -6417,7 +6423,7 @@
     <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" s="22"/>
       <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
+      <c r="C191" s="40"/>
       <c r="D191" s="31"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
@@ -6447,7 +6453,7 @@
     <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" s="22"/>
       <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
+      <c r="C192" s="40"/>
       <c r="D192" s="31"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
@@ -6477,7 +6483,7 @@
     <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193" s="22"/>
       <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
+      <c r="C193" s="40"/>
       <c r="D193" s="31"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
@@ -6507,7 +6513,7 @@
     <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194" s="22"/>
       <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
+      <c r="C194" s="40"/>
       <c r="D194" s="31"/>
       <c r="E194" s="22"/>
       <c r="F194" s="22"/>
@@ -6537,7 +6543,7 @@
     <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195" s="22"/>
       <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
+      <c r="C195" s="40"/>
       <c r="D195" s="31"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
@@ -6567,7 +6573,7 @@
     <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196" s="22"/>
       <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
+      <c r="C196" s="40"/>
       <c r="D196" s="31"/>
       <c r="E196" s="22"/>
       <c r="F196" s="22"/>
@@ -6597,7 +6603,7 @@
     <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" s="22"/>
       <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
+      <c r="C197" s="39"/>
       <c r="D197" s="30"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
@@ -6627,7 +6633,7 @@
     <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198" s="22"/>
       <c r="B198" s="30"/>
-      <c r="C198" s="30"/>
+      <c r="C198" s="39"/>
       <c r="D198" s="30"/>
       <c r="E198" s="22"/>
       <c r="F198" s="22"/>
@@ -6657,7 +6663,7 @@
     <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" s="22"/>
       <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
+      <c r="C199" s="40"/>
       <c r="D199" s="31"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
@@ -6687,7 +6693,7 @@
     <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" s="22"/>
       <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
+      <c r="C200" s="40"/>
       <c r="D200" s="31"/>
       <c r="E200" s="22"/>
       <c r="F200" s="22"/>
@@ -6717,7 +6723,7 @@
     <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" s="22"/>
       <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
+      <c r="C201" s="40"/>
       <c r="D201" s="31"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
@@ -6747,7 +6753,7 @@
     <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" s="22"/>
       <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
+      <c r="C202" s="40"/>
       <c r="D202" s="31"/>
       <c r="E202" s="22"/>
       <c r="F202" s="22"/>
@@ -6777,7 +6783,7 @@
     <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" s="22"/>
       <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
+      <c r="C203" s="40"/>
       <c r="D203" s="31"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
@@ -6807,7 +6813,7 @@
     <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" s="22"/>
       <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
+      <c r="C204" s="40"/>
       <c r="D204" s="31"/>
       <c r="E204" s="22"/>
       <c r="F204" s="22"/>
@@ -6837,7 +6843,7 @@
     <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" s="22"/>
       <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
+      <c r="C205" s="40"/>
       <c r="D205" s="31"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
@@ -6867,7 +6873,7 @@
     <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206" s="22"/>
       <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
+      <c r="C206" s="40"/>
       <c r="D206" s="31"/>
       <c r="E206" s="22"/>
       <c r="F206" s="22"/>
@@ -6897,7 +6903,7 @@
     <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" s="22"/>
       <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
+      <c r="C207" s="39"/>
       <c r="D207" s="30"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
@@ -6927,7 +6933,7 @@
     <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" s="22"/>
       <c r="B208" s="30"/>
-      <c r="C208" s="30"/>
+      <c r="C208" s="39"/>
       <c r="D208" s="30"/>
       <c r="E208" s="22"/>
       <c r="F208" s="22"/>
@@ -6957,7 +6963,7 @@
     <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" s="22"/>
       <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
+      <c r="C209" s="40"/>
       <c r="D209" s="31"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
@@ -6987,7 +6993,7 @@
     <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" s="22"/>
       <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
+      <c r="C210" s="40"/>
       <c r="D210" s="31"/>
       <c r="E210" s="22"/>
       <c r="F210" s="22"/>
@@ -7017,7 +7023,7 @@
     <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" s="22"/>
       <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
+      <c r="C211" s="40"/>
       <c r="D211" s="31"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
@@ -7047,7 +7053,7 @@
     <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" s="22"/>
       <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
+      <c r="C212" s="40"/>
       <c r="D212" s="31"/>
       <c r="E212" s="22"/>
       <c r="F212" s="22"/>
@@ -7077,7 +7083,7 @@
     <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213" s="22"/>
       <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
+      <c r="C213" s="40"/>
       <c r="D213" s="31"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
@@ -7107,7 +7113,7 @@
     <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" s="22"/>
       <c r="B214" s="31"/>
-      <c r="C214" s="31"/>
+      <c r="C214" s="40"/>
       <c r="D214" s="31"/>
       <c r="E214" s="22"/>
       <c r="F214" s="22"/>
@@ -7137,7 +7143,7 @@
     <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" s="22"/>
       <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
+      <c r="C215" s="40"/>
       <c r="D215" s="31"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
@@ -7167,7 +7173,7 @@
     <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" s="22"/>
       <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
+      <c r="C216" s="40"/>
       <c r="D216" s="31"/>
       <c r="E216" s="22"/>
       <c r="F216" s="22"/>
@@ -7197,7 +7203,7 @@
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" s="22"/>
       <c r="B217" s="30"/>
-      <c r="C217" s="30"/>
+      <c r="C217" s="39"/>
       <c r="D217" s="30"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
@@ -7227,7 +7233,7 @@
     <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" s="22"/>
       <c r="B218" s="30"/>
-      <c r="C218" s="30"/>
+      <c r="C218" s="39"/>
       <c r="D218" s="30"/>
       <c r="E218" s="22"/>
       <c r="F218" s="22"/>
@@ -7257,7 +7263,7 @@
     <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" s="22"/>
       <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
+      <c r="C219" s="40"/>
       <c r="D219" s="31"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
@@ -7287,7 +7293,7 @@
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
+      <c r="C220" s="40"/>
       <c r="D220" s="31"/>
       <c r="E220" s="27"/>
       <c r="F220" s="27"/>
@@ -7296,7 +7302,7 @@
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
+      <c r="C221" s="40"/>
       <c r="D221" s="31"/>
       <c r="E221" s="27"/>
       <c r="F221" s="27"/>
@@ -7305,7 +7311,7 @@
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
+      <c r="C222" s="40"/>
       <c r="D222" s="31"/>
       <c r="E222" s="27"/>
       <c r="F222" s="27"/>
@@ -7314,7 +7320,7 @@
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
+      <c r="C223" s="40"/>
       <c r="D223" s="31"/>
       <c r="E223" s="27"/>
       <c r="F223" s="27"/>
@@ -7323,7 +7329,7 @@
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
+      <c r="C224" s="40"/>
       <c r="D224" s="31"/>
       <c r="E224" s="27"/>
       <c r="F224" s="27"/>
@@ -7332,7 +7338,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
+      <c r="C225" s="40"/>
       <c r="D225" s="31"/>
       <c r="E225" s="27"/>
       <c r="F225" s="27"/>
@@ -7341,7 +7347,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
+      <c r="C226" s="40"/>
       <c r="D226" s="31"/>
       <c r="E226" s="27"/>
       <c r="F226" s="27"/>
@@ -7350,7 +7356,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="30"/>
-      <c r="C227" s="30"/>
+      <c r="C227" s="39"/>
       <c r="D227" s="30"/>
       <c r="E227" s="27"/>
       <c r="F227" s="27"/>
@@ -7359,7 +7365,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="30"/>
-      <c r="C228" s="30"/>
+      <c r="C228" s="39"/>
       <c r="D228" s="30"/>
       <c r="E228" s="27"/>
       <c r="F228" s="27"/>
@@ -7368,7 +7374,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="31"/>
-      <c r="C229" s="31"/>
+      <c r="C229" s="40"/>
       <c r="D229" s="31"/>
       <c r="E229" s="27"/>
       <c r="F229" s="27"/>
@@ -7377,7 +7383,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
+      <c r="C230" s="40"/>
       <c r="D230" s="31"/>
       <c r="E230" s="27"/>
       <c r="F230" s="27"/>
@@ -7386,7 +7392,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="31"/>
-      <c r="C231" s="31"/>
+      <c r="C231" s="40"/>
       <c r="D231" s="31"/>
       <c r="E231" s="27"/>
       <c r="F231" s="27"/>
@@ -7395,7 +7401,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="31"/>
-      <c r="C232" s="31"/>
+      <c r="C232" s="40"/>
       <c r="D232" s="31"/>
       <c r="E232" s="27"/>
       <c r="F232" s="27"/>
@@ -7404,7 +7410,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="31"/>
-      <c r="C233" s="31"/>
+      <c r="C233" s="40"/>
       <c r="D233" s="31"/>
       <c r="E233" s="27"/>
       <c r="F233" s="27"/>
@@ -7413,7 +7419,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
+      <c r="C234" s="40"/>
       <c r="D234" s="31"/>
       <c r="E234" s="27"/>
       <c r="F234" s="27"/>
@@ -7422,7 +7428,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
+      <c r="C235" s="40"/>
       <c r="D235" s="31"/>
       <c r="E235" s="27"/>
       <c r="F235" s="27"/>
@@ -7431,7 +7437,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="31"/>
-      <c r="C236" s="31"/>
+      <c r="C236" s="40"/>
       <c r="D236" s="31"/>
       <c r="E236" s="27"/>
       <c r="F236" s="27"/>
@@ -7440,7 +7446,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="30"/>
-      <c r="C237" s="30"/>
+      <c r="C237" s="39"/>
       <c r="D237" s="30"/>
       <c r="E237" s="27"/>
       <c r="F237" s="27"/>
@@ -7449,7 +7455,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="30"/>
-      <c r="C238" s="30"/>
+      <c r="C238" s="39"/>
       <c r="D238" s="30"/>
       <c r="E238" s="27"/>
       <c r="F238" s="27"/>
@@ -7458,7 +7464,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
+      <c r="C239" s="40"/>
       <c r="D239" s="31"/>
       <c r="E239" s="27"/>
       <c r="F239" s="27"/>
@@ -7467,7 +7473,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="31"/>
-      <c r="C240" s="31"/>
+      <c r="C240" s="40"/>
       <c r="D240" s="31"/>
       <c r="E240" s="27"/>
       <c r="F240" s="27"/>
@@ -7476,7 +7482,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
+      <c r="C241" s="40"/>
       <c r="D241" s="31"/>
       <c r="E241" s="27"/>
       <c r="F241" s="27"/>
@@ -7485,7 +7491,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="31"/>
-      <c r="C242" s="31"/>
+      <c r="C242" s="40"/>
       <c r="D242" s="31"/>
       <c r="E242" s="27"/>
       <c r="F242" s="27"/>
@@ -7494,7 +7500,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
+      <c r="C243" s="40"/>
       <c r="D243" s="31"/>
       <c r="E243" s="27"/>
       <c r="F243" s="27"/>
@@ -7503,7 +7509,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="31"/>
-      <c r="C244" s="31"/>
+      <c r="C244" s="40"/>
       <c r="D244" s="31"/>
       <c r="E244" s="27"/>
       <c r="F244" s="27"/>
@@ -7512,7 +7518,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
+      <c r="C245" s="40"/>
       <c r="D245" s="31"/>
       <c r="E245" s="27"/>
       <c r="F245" s="27"/>
@@ -7521,7 +7527,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
+      <c r="C246" s="40"/>
       <c r="D246" s="31"/>
       <c r="E246" s="27"/>
       <c r="F246" s="27"/>
@@ -7530,7 +7536,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="30"/>
-      <c r="C247" s="30"/>
+      <c r="C247" s="39"/>
       <c r="D247" s="30"/>
       <c r="E247" s="27"/>
       <c r="F247" s="27"/>
@@ -7539,7 +7545,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
+      <c r="C248" s="39"/>
       <c r="D248" s="30"/>
       <c r="E248" s="27"/>
       <c r="F248" s="27"/>
@@ -7548,7 +7554,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="31"/>
-      <c r="C249" s="31"/>
+      <c r="C249" s="40"/>
       <c r="D249" s="31"/>
       <c r="E249" s="27"/>
       <c r="F249" s="27"/>
@@ -7557,7 +7563,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="31"/>
-      <c r="C250" s="31"/>
+      <c r="C250" s="40"/>
       <c r="D250" s="31"/>
       <c r="E250" s="27"/>
       <c r="F250" s="27"/>
@@ -7566,7 +7572,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="31"/>
-      <c r="C251" s="31"/>
+      <c r="C251" s="40"/>
       <c r="D251" s="31"/>
       <c r="E251" s="27"/>
       <c r="F251" s="27"/>
@@ -7575,7 +7581,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="31"/>
-      <c r="C252" s="31"/>
+      <c r="C252" s="40"/>
       <c r="D252" s="31"/>
       <c r="E252" s="27"/>
       <c r="F252" s="27"/>
@@ -7584,7 +7590,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
+      <c r="C253" s="40"/>
       <c r="D253" s="31"/>
       <c r="E253" s="27"/>
       <c r="F253" s="27"/>
@@ -7593,7 +7599,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="31"/>
-      <c r="C254" s="31"/>
+      <c r="C254" s="40"/>
       <c r="D254" s="31"/>
       <c r="E254" s="27"/>
       <c r="F254" s="27"/>
@@ -7602,7 +7608,7 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
+      <c r="C255" s="40"/>
       <c r="D255" s="31"/>
       <c r="E255" s="27"/>
       <c r="F255" s="27"/>
@@ -7611,7 +7617,7 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="31"/>
-      <c r="C256" s="31"/>
+      <c r="C256" s="40"/>
       <c r="D256" s="31"/>
       <c r="E256" s="27"/>
       <c r="F256" s="27"/>
@@ -7620,7 +7626,7 @@
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="21"/>
       <c r="B257" s="30"/>
-      <c r="C257" s="30"/>
+      <c r="C257" s="39"/>
       <c r="D257" s="30"/>
       <c r="E257" s="22"/>
       <c r="F257" s="22"/>
@@ -7631,7 +7637,7 @@
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="21"/>
       <c r="B258" s="30"/>
-      <c r="C258" s="30"/>
+      <c r="C258" s="39"/>
       <c r="D258" s="30"/>
       <c r="E258" s="22"/>
       <c r="F258" s="22"/>
@@ -7642,7 +7648,7 @@
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="22"/>
       <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
+      <c r="C259" s="40"/>
       <c r="D259" s="31"/>
       <c r="E259" s="22"/>
       <c r="F259" s="22"/>
@@ -7653,7 +7659,7 @@
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="21"/>
       <c r="B260" s="31"/>
-      <c r="C260" s="31"/>
+      <c r="C260" s="40"/>
       <c r="D260" s="31"/>
       <c r="E260" s="22"/>
       <c r="F260" s="22"/>
@@ -7664,7 +7670,7 @@
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="21"/>
       <c r="B261" s="31"/>
-      <c r="C261" s="31"/>
+      <c r="C261" s="40"/>
       <c r="D261" s="31"/>
       <c r="E261" s="22"/>
       <c r="F261" s="22"/>
@@ -7675,7 +7681,7 @@
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="21"/>
       <c r="B262" s="31"/>
-      <c r="C262" s="31"/>
+      <c r="C262" s="40"/>
       <c r="D262" s="31"/>
       <c r="E262" s="22"/>
       <c r="F262" s="22"/>
@@ -7686,7 +7692,7 @@
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="21"/>
       <c r="B263" s="31"/>
-      <c r="C263" s="31"/>
+      <c r="C263" s="40"/>
       <c r="D263" s="31"/>
       <c r="E263" s="22"/>
       <c r="F263" s="22"/>
@@ -7697,7 +7703,7 @@
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="21"/>
       <c r="B264" s="31"/>
-      <c r="C264" s="31"/>
+      <c r="C264" s="40"/>
       <c r="D264" s="31"/>
       <c r="E264" s="22"/>
       <c r="F264" s="22"/>
@@ -7708,7 +7714,7 @@
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="21"/>
       <c r="B265" s="31"/>
-      <c r="C265" s="31"/>
+      <c r="C265" s="40"/>
       <c r="D265" s="31"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
@@ -7719,7 +7725,7 @@
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="21"/>
       <c r="B266" s="31"/>
-      <c r="C266" s="31"/>
+      <c r="C266" s="40"/>
       <c r="D266" s="31"/>
       <c r="E266" s="22"/>
       <c r="F266" s="22"/>
@@ -7730,7 +7736,7 @@
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="21"/>
       <c r="B267" s="30"/>
-      <c r="C267" s="30"/>
+      <c r="C267" s="39"/>
       <c r="D267" s="30"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
@@ -7741,7 +7747,7 @@
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="21"/>
       <c r="B268" s="30"/>
-      <c r="C268" s="30"/>
+      <c r="C268" s="39"/>
       <c r="D268" s="30"/>
       <c r="E268" s="22"/>
       <c r="F268" s="22"/>
@@ -7752,7 +7758,7 @@
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="21"/>
       <c r="B269" s="31"/>
-      <c r="C269" s="31"/>
+      <c r="C269" s="40"/>
       <c r="D269" s="31"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
@@ -7763,7 +7769,7 @@
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="21"/>
       <c r="B270" s="31"/>
-      <c r="C270" s="31"/>
+      <c r="C270" s="40"/>
       <c r="D270" s="31"/>
       <c r="E270" s="22"/>
       <c r="F270" s="22"/>
@@ -7774,7 +7780,7 @@
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="21"/>
       <c r="B271" s="31"/>
-      <c r="C271" s="31"/>
+      <c r="C271" s="40"/>
       <c r="D271" s="31"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
@@ -7785,7 +7791,7 @@
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="22"/>
       <c r="B272" s="31"/>
-      <c r="C272" s="31"/>
+      <c r="C272" s="40"/>
       <c r="D272" s="31"/>
       <c r="E272" s="22"/>
       <c r="F272" s="22"/>
@@ -7796,7 +7802,7 @@
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="22"/>
       <c r="B273" s="31"/>
-      <c r="C273" s="31"/>
+      <c r="C273" s="40"/>
       <c r="D273" s="31"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
@@ -7807,7 +7813,7 @@
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="22"/>
       <c r="B274" s="31"/>
-      <c r="C274" s="31"/>
+      <c r="C274" s="40"/>
       <c r="D274" s="31"/>
       <c r="E274" s="22"/>
       <c r="F274" s="22"/>
@@ -7818,7 +7824,7 @@
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="22"/>
       <c r="B275" s="31"/>
-      <c r="C275" s="31"/>
+      <c r="C275" s="40"/>
       <c r="D275" s="31"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
@@ -7829,7 +7835,7 @@
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="22"/>
       <c r="B276" s="31"/>
-      <c r="C276" s="31"/>
+      <c r="C276" s="40"/>
       <c r="D276" s="31"/>
       <c r="E276" s="22"/>
       <c r="F276" s="22"/>
@@ -7840,7 +7846,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="22"/>
       <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
+      <c r="C277" s="39"/>
       <c r="D277" s="30"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
@@ -7851,7 +7857,7 @@
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="22"/>
       <c r="B278" s="30"/>
-      <c r="C278" s="30"/>
+      <c r="C278" s="39"/>
       <c r="D278" s="30"/>
       <c r="E278" s="22"/>
       <c r="F278" s="22"/>
@@ -7862,7 +7868,7 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="21"/>
       <c r="B279" s="31"/>
-      <c r="C279" s="31"/>
+      <c r="C279" s="40"/>
       <c r="D279" s="31"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
@@ -7873,7 +7879,7 @@
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="21"/>
       <c r="B280" s="31"/>
-      <c r="C280" s="31"/>
+      <c r="C280" s="40"/>
       <c r="D280" s="31"/>
       <c r="E280" s="22"/>
       <c r="F280" s="22"/>
@@ -7884,7 +7890,7 @@
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="21"/>
       <c r="B281" s="31"/>
-      <c r="C281" s="31"/>
+      <c r="C281" s="40"/>
       <c r="D281" s="31"/>
       <c r="E281" s="22"/>
       <c r="F281" s="22"/>
@@ -7895,7 +7901,7 @@
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="21"/>
       <c r="B282" s="31"/>
-      <c r="C282" s="31"/>
+      <c r="C282" s="40"/>
       <c r="D282" s="31"/>
       <c r="E282" s="22"/>
       <c r="F282" s="22"/>
@@ -7906,7 +7912,7 @@
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="21"/>
       <c r="B283" s="31"/>
-      <c r="C283" s="31"/>
+      <c r="C283" s="40"/>
       <c r="D283" s="31"/>
       <c r="E283" s="22"/>
       <c r="F283" s="22"/>
@@ -7917,7 +7923,7 @@
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="21"/>
       <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
+      <c r="C284" s="40"/>
       <c r="D284" s="31"/>
       <c r="E284" s="22"/>
       <c r="F284" s="22"/>
@@ -7928,7 +7934,7 @@
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="21"/>
       <c r="B285" s="31"/>
-      <c r="C285" s="31"/>
+      <c r="C285" s="40"/>
       <c r="D285" s="31"/>
       <c r="E285" s="22"/>
       <c r="F285" s="22"/>
@@ -7939,7 +7945,7 @@
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="21"/>
       <c r="B286" s="31"/>
-      <c r="C286" s="31"/>
+      <c r="C286" s="40"/>
       <c r="D286" s="31"/>
       <c r="E286" s="22"/>
       <c r="F286" s="22"/>
@@ -7950,7 +7956,7 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="21"/>
       <c r="B287" s="30"/>
-      <c r="C287" s="30"/>
+      <c r="C287" s="39"/>
       <c r="D287" s="30"/>
       <c r="E287" s="22"/>
       <c r="F287" s="22"/>
@@ -7961,7 +7967,7 @@
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="21"/>
       <c r="B288" s="30"/>
-      <c r="C288" s="30"/>
+      <c r="C288" s="39"/>
       <c r="D288" s="30"/>
       <c r="E288" s="22"/>
       <c r="F288" s="22"/>
@@ -7972,7 +7978,7 @@
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="21"/>
       <c r="B289" s="31"/>
-      <c r="C289" s="31"/>
+      <c r="C289" s="40"/>
       <c r="D289" s="31"/>
       <c r="E289" s="22"/>
       <c r="F289" s="22"/>
@@ -7983,7 +7989,7 @@
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="21"/>
       <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+      <c r="C290" s="40"/>
       <c r="D290" s="31"/>
       <c r="E290" s="22"/>
       <c r="F290" s="22"/>
@@ -7994,7 +8000,7 @@
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="21"/>
       <c r="B291" s="31"/>
-      <c r="C291" s="31"/>
+      <c r="C291" s="40"/>
       <c r="D291" s="31"/>
       <c r="E291" s="22"/>
       <c r="F291" s="22"/>
@@ -8005,7 +8011,7 @@
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="21"/>
       <c r="B292" s="31"/>
-      <c r="C292" s="31"/>
+      <c r="C292" s="40"/>
       <c r="D292" s="31"/>
       <c r="E292" s="22"/>
       <c r="F292" s="22"/>
@@ -8016,7 +8022,7 @@
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="21"/>
       <c r="B293" s="31"/>
-      <c r="C293" s="31"/>
+      <c r="C293" s="40"/>
       <c r="D293" s="31"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
@@ -8027,7 +8033,7 @@
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="21"/>
       <c r="B294" s="31"/>
-      <c r="C294" s="31"/>
+      <c r="C294" s="40"/>
       <c r="D294" s="31"/>
       <c r="E294" s="22"/>
       <c r="F294" s="22"/>
@@ -8038,7 +8044,7 @@
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
       <c r="B295" s="31"/>
-      <c r="C295" s="31"/>
+      <c r="C295" s="40"/>
       <c r="D295" s="31"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
@@ -8049,7 +8055,7 @@
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="21"/>
       <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
+      <c r="C296" s="40"/>
       <c r="D296" s="31"/>
       <c r="E296" s="22"/>
       <c r="F296" s="22"/>
@@ -8060,7 +8066,7 @@
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="21"/>
       <c r="B297" s="30"/>
-      <c r="C297" s="30"/>
+      <c r="C297" s="39"/>
       <c r="D297" s="30"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
@@ -8071,7 +8077,7 @@
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="21"/>
       <c r="B298" s="30"/>
-      <c r="C298" s="30"/>
+      <c r="C298" s="39"/>
       <c r="D298" s="30"/>
       <c r="E298" s="22"/>
       <c r="F298" s="22"/>
@@ -8082,7 +8088,7 @@
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="21"/>
       <c r="B299" s="31"/>
-      <c r="C299" s="31"/>
+      <c r="C299" s="40"/>
       <c r="D299" s="31"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
@@ -8093,7 +8099,7 @@
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="21"/>
       <c r="B300" s="31"/>
-      <c r="C300" s="31"/>
+      <c r="C300" s="40"/>
       <c r="D300" s="31"/>
       <c r="E300" s="22"/>
       <c r="F300" s="22"/>
@@ -8104,7 +8110,7 @@
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="21"/>
       <c r="B301" s="31"/>
-      <c r="C301" s="31"/>
+      <c r="C301" s="40"/>
       <c r="D301" s="31"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
@@ -8115,7 +8121,7 @@
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="22"/>
       <c r="B302" s="31"/>
-      <c r="C302" s="31"/>
+      <c r="C302" s="40"/>
       <c r="D302" s="31"/>
       <c r="E302" s="22"/>
       <c r="F302" s="22"/>
@@ -8126,7 +8132,7 @@
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="22"/>
       <c r="B303" s="31"/>
-      <c r="C303" s="31"/>
+      <c r="C303" s="40"/>
       <c r="D303" s="31"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
@@ -8137,7 +8143,7 @@
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="22"/>
       <c r="B304" s="31"/>
-      <c r="C304" s="31"/>
+      <c r="C304" s="40"/>
       <c r="D304" s="31"/>
       <c r="E304" s="22"/>
       <c r="F304" s="22"/>
@@ -8148,7 +8154,7 @@
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="22"/>
       <c r="B305" s="31"/>
-      <c r="C305" s="31"/>
+      <c r="C305" s="40"/>
       <c r="D305" s="31"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
@@ -8159,7 +8165,7 @@
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="22"/>
       <c r="B306" s="31"/>
-      <c r="C306" s="31"/>
+      <c r="C306" s="40"/>
       <c r="D306" s="31"/>
       <c r="E306" s="22"/>
       <c r="F306" s="22"/>
@@ -8170,7 +8176,7 @@
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="22"/>
       <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
+      <c r="C307" s="39"/>
       <c r="D307" s="30"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
@@ -8181,7 +8187,7 @@
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="22"/>
       <c r="B308" s="30"/>
-      <c r="C308" s="30"/>
+      <c r="C308" s="39"/>
       <c r="D308" s="30"/>
       <c r="E308" s="22"/>
       <c r="F308" s="22"/>
@@ -8192,7 +8198,7 @@
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="22"/>
       <c r="B309" s="31"/>
-      <c r="C309" s="31"/>
+      <c r="C309" s="40"/>
       <c r="D309" s="31"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
@@ -8203,7 +8209,7 @@
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="22"/>
       <c r="B310" s="31"/>
-      <c r="C310" s="31"/>
+      <c r="C310" s="40"/>
       <c r="D310" s="31"/>
       <c r="E310" s="22"/>
       <c r="F310" s="22"/>
@@ -8214,7 +8220,7 @@
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="22"/>
       <c r="B311" s="31"/>
-      <c r="C311" s="31"/>
+      <c r="C311" s="40"/>
       <c r="D311" s="31"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
@@ -8225,7 +8231,7 @@
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="22"/>
       <c r="B312" s="31"/>
-      <c r="C312" s="31"/>
+      <c r="C312" s="40"/>
       <c r="D312" s="31"/>
       <c r="E312" s="22"/>
       <c r="F312" s="22"/>
@@ -8236,7 +8242,7 @@
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="22"/>
       <c r="B313" s="31"/>
-      <c r="C313" s="31"/>
+      <c r="C313" s="40"/>
       <c r="D313" s="31"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
@@ -8247,7 +8253,7 @@
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="22"/>
       <c r="B314" s="31"/>
-      <c r="C314" s="31"/>
+      <c r="C314" s="40"/>
       <c r="D314" s="31"/>
       <c r="E314" s="22"/>
       <c r="F314" s="22"/>
@@ -8258,7 +8264,7 @@
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="22"/>
       <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
+      <c r="C315" s="40"/>
       <c r="D315" s="31"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
@@ -8269,7 +8275,7 @@
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="22"/>
       <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
+      <c r="C316" s="40"/>
       <c r="D316" s="31"/>
       <c r="E316" s="22"/>
       <c r="F316" s="22"/>
@@ -8280,7 +8286,7 @@
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="22"/>
       <c r="B317" s="30"/>
-      <c r="C317" s="30"/>
+      <c r="C317" s="39"/>
       <c r="D317" s="30"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
@@ -8291,7 +8297,7 @@
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="22"/>
       <c r="B318" s="30"/>
-      <c r="C318" s="30"/>
+      <c r="C318" s="39"/>
       <c r="D318" s="30"/>
       <c r="E318" s="22"/>
       <c r="F318" s="22"/>
@@ -8302,7 +8308,7 @@
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="22"/>
       <c r="B319" s="31"/>
-      <c r="C319" s="31"/>
+      <c r="C319" s="40"/>
       <c r="D319" s="31"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
@@ -8313,7 +8319,7 @@
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="22"/>
       <c r="B320" s="31"/>
-      <c r="C320" s="31"/>
+      <c r="C320" s="40"/>
       <c r="D320" s="31"/>
       <c r="E320" s="22"/>
       <c r="F320" s="22"/>
@@ -8324,7 +8330,7 @@
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="22"/>
       <c r="B321" s="31"/>
-      <c r="C321" s="31"/>
+      <c r="C321" s="40"/>
       <c r="D321" s="31"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
@@ -8335,7 +8341,7 @@
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="22"/>
       <c r="B322" s="31"/>
-      <c r="C322" s="31"/>
+      <c r="C322" s="40"/>
       <c r="D322" s="31"/>
       <c r="E322" s="22"/>
       <c r="F322" s="22"/>
@@ -8346,7 +8352,7 @@
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="22"/>
       <c r="B323" s="31"/>
-      <c r="C323" s="31"/>
+      <c r="C323" s="40"/>
       <c r="D323" s="31"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
@@ -8357,7 +8363,7 @@
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="22"/>
       <c r="B324" s="31"/>
-      <c r="C324" s="31"/>
+      <c r="C324" s="40"/>
       <c r="D324" s="31"/>
       <c r="E324" s="22"/>
       <c r="F324" s="22"/>
@@ -8368,7 +8374,7 @@
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="22"/>
       <c r="B325" s="31"/>
-      <c r="C325" s="31"/>
+      <c r="C325" s="40"/>
       <c r="D325" s="31"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
@@ -8379,7 +8385,7 @@
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="22"/>
       <c r="B326" s="31"/>
-      <c r="C326" s="31"/>
+      <c r="C326" s="40"/>
       <c r="D326" s="31"/>
       <c r="E326" s="22"/>
       <c r="F326" s="22"/>
@@ -8390,7 +8396,7 @@
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="22"/>
       <c r="B327" s="30"/>
-      <c r="C327" s="30"/>
+      <c r="C327" s="39"/>
       <c r="D327" s="30"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
@@ -8401,7 +8407,7 @@
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="22"/>
       <c r="B328" s="30"/>
-      <c r="C328" s="30"/>
+      <c r="C328" s="39"/>
       <c r="D328" s="30"/>
       <c r="E328" s="22"/>
       <c r="F328" s="22"/>
@@ -8412,7 +8418,7 @@
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="22"/>
       <c r="B329" s="31"/>
-      <c r="C329" s="31"/>
+      <c r="C329" s="40"/>
       <c r="D329" s="31"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
@@ -8423,7 +8429,7 @@
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="22"/>
       <c r="B330" s="31"/>
-      <c r="C330" s="31"/>
+      <c r="C330" s="40"/>
       <c r="D330" s="31"/>
       <c r="E330" s="22"/>
       <c r="F330" s="22"/>
@@ -8434,7 +8440,7 @@
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="22"/>
       <c r="B331" s="31"/>
-      <c r="C331" s="31"/>
+      <c r="C331" s="40"/>
       <c r="D331" s="31"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
@@ -8445,7 +8451,7 @@
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="22"/>
       <c r="B332" s="31"/>
-      <c r="C332" s="31"/>
+      <c r="C332" s="40"/>
       <c r="D332" s="31"/>
       <c r="E332" s="22"/>
       <c r="F332" s="22"/>
@@ -8456,7 +8462,7 @@
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="22"/>
       <c r="B333" s="31"/>
-      <c r="C333" s="31"/>
+      <c r="C333" s="40"/>
       <c r="D333" s="31"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
@@ -8467,7 +8473,7 @@
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="22"/>
       <c r="B334" s="31"/>
-      <c r="C334" s="31"/>
+      <c r="C334" s="40"/>
       <c r="D334" s="31"/>
       <c r="E334" s="22"/>
       <c r="F334" s="22"/>
@@ -8478,7 +8484,7 @@
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="22"/>
       <c r="B335" s="31"/>
-      <c r="C335" s="31"/>
+      <c r="C335" s="40"/>
       <c r="D335" s="31"/>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
@@ -8489,7 +8495,7 @@
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="22"/>
       <c r="B336" s="31"/>
-      <c r="C336" s="31"/>
+      <c r="C336" s="40"/>
       <c r="D336" s="31"/>
       <c r="E336" s="22"/>
       <c r="F336" s="22"/>
@@ -8500,7 +8506,7 @@
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="22"/>
       <c r="B337" s="30"/>
-      <c r="C337" s="30"/>
+      <c r="C337" s="39"/>
       <c r="D337" s="30"/>
       <c r="E337" s="22"/>
       <c r="F337" s="22"/>
@@ -8511,7 +8517,7 @@
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="22"/>
       <c r="B338" s="30"/>
-      <c r="C338" s="30"/>
+      <c r="C338" s="39"/>
       <c r="D338" s="30"/>
       <c r="E338" s="22"/>
       <c r="F338" s="22"/>
@@ -8522,7 +8528,7 @@
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="22"/>
       <c r="B339" s="31"/>
-      <c r="C339" s="31"/>
+      <c r="C339" s="40"/>
       <c r="D339" s="31"/>
       <c r="E339" s="22"/>
       <c r="F339" s="22"/>
@@ -8533,7 +8539,7 @@
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="22"/>
       <c r="B340" s="31"/>
-      <c r="C340" s="31"/>
+      <c r="C340" s="40"/>
       <c r="D340" s="31"/>
       <c r="E340" s="22"/>
       <c r="F340" s="22"/>
@@ -8544,7 +8550,7 @@
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="22"/>
       <c r="B341" s="31"/>
-      <c r="C341" s="31"/>
+      <c r="C341" s="40"/>
       <c r="D341" s="31"/>
       <c r="E341" s="22"/>
       <c r="F341" s="22"/>
@@ -8555,7 +8561,7 @@
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="22"/>
       <c r="B342" s="31"/>
-      <c r="C342" s="31"/>
+      <c r="C342" s="40"/>
       <c r="D342" s="31"/>
       <c r="E342" s="22"/>
       <c r="F342" s="22"/>
@@ -8566,7 +8572,7 @@
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="22"/>
       <c r="B343" s="31"/>
-      <c r="C343" s="31"/>
+      <c r="C343" s="40"/>
       <c r="D343" s="31"/>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
@@ -8577,7 +8583,7 @@
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="22"/>
       <c r="B344" s="31"/>
-      <c r="C344" s="31"/>
+      <c r="C344" s="40"/>
       <c r="D344" s="31"/>
       <c r="E344" s="22"/>
       <c r="F344" s="22"/>
@@ -8588,7 +8594,7 @@
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="22"/>
       <c r="B345" s="31"/>
-      <c r="C345" s="31"/>
+      <c r="C345" s="40"/>
       <c r="D345" s="31"/>
       <c r="E345" s="22"/>
       <c r="F345" s="22"/>
@@ -8599,7 +8605,7 @@
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="22"/>
       <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
+      <c r="C346" s="40"/>
       <c r="D346" s="31"/>
       <c r="E346" s="22"/>
       <c r="F346" s="22"/>
@@ -8610,7 +8616,7 @@
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="22"/>
       <c r="B347" s="30"/>
-      <c r="C347" s="30"/>
+      <c r="C347" s="39"/>
       <c r="D347" s="30"/>
       <c r="E347" s="22"/>
       <c r="F347" s="22"/>
@@ -8621,7 +8627,7 @@
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="22"/>
       <c r="B348" s="30"/>
-      <c r="C348" s="30"/>
+      <c r="C348" s="39"/>
       <c r="D348" s="30"/>
       <c r="E348" s="22"/>
       <c r="F348" s="22"/>
@@ -8632,7 +8638,7 @@
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="22"/>
       <c r="B349" s="31"/>
-      <c r="C349" s="31"/>
+      <c r="C349" s="40"/>
       <c r="D349" s="31"/>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
@@ -8643,7 +8649,7 @@
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="22"/>
       <c r="B350" s="31"/>
-      <c r="C350" s="31"/>
+      <c r="C350" s="40"/>
       <c r="D350" s="31"/>
       <c r="E350" s="22"/>
       <c r="F350" s="22"/>
@@ -8654,7 +8660,7 @@
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="22"/>
       <c r="B351" s="31"/>
-      <c r="C351" s="31"/>
+      <c r="C351" s="40"/>
       <c r="D351" s="31"/>
       <c r="E351" s="22"/>
       <c r="F351" s="22"/>
@@ -8665,7 +8671,7 @@
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="22"/>
       <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
+      <c r="C352" s="40"/>
       <c r="D352" s="31"/>
       <c r="E352" s="22"/>
       <c r="F352" s="22"/>
@@ -8676,7 +8682,7 @@
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="22"/>
       <c r="B353" s="31"/>
-      <c r="C353" s="31"/>
+      <c r="C353" s="40"/>
       <c r="D353" s="31"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
@@ -8687,7 +8693,7 @@
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="22"/>
       <c r="B354" s="31"/>
-      <c r="C354" s="31"/>
+      <c r="C354" s="40"/>
       <c r="D354" s="31"/>
       <c r="E354" s="22"/>
       <c r="F354" s="22"/>
@@ -8698,7 +8704,7 @@
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="22"/>
       <c r="B355" s="31"/>
-      <c r="C355" s="31"/>
+      <c r="C355" s="40"/>
       <c r="D355" s="31"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
@@ -8709,7 +8715,7 @@
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="22"/>
       <c r="B356" s="31"/>
-      <c r="C356" s="31"/>
+      <c r="C356" s="40"/>
       <c r="D356" s="31"/>
       <c r="E356" s="22"/>
       <c r="F356" s="22"/>
@@ -8720,7 +8726,7 @@
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="22"/>
       <c r="B357" s="30"/>
-      <c r="C357" s="30"/>
+      <c r="C357" s="39"/>
       <c r="D357" s="30"/>
       <c r="E357" s="22"/>
       <c r="F357" s="22"/>
@@ -8731,7 +8737,7 @@
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="22"/>
       <c r="B358" s="30"/>
-      <c r="C358" s="30"/>
+      <c r="C358" s="39"/>
       <c r="D358" s="30"/>
       <c r="E358" s="22"/>
       <c r="F358" s="22"/>
@@ -8742,7 +8748,7 @@
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="22"/>
       <c r="B359" s="31"/>
-      <c r="C359" s="31"/>
+      <c r="C359" s="40"/>
       <c r="D359" s="31"/>
       <c r="E359" s="22"/>
       <c r="F359" s="22"/>
@@ -8753,7 +8759,7 @@
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="22"/>
       <c r="B360" s="31"/>
-      <c r="C360" s="31"/>
+      <c r="C360" s="40"/>
       <c r="D360" s="31"/>
       <c r="E360" s="22"/>
       <c r="F360" s="22"/>
@@ -8764,7 +8770,7 @@
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="22"/>
       <c r="B361" s="31"/>
-      <c r="C361" s="31"/>
+      <c r="C361" s="40"/>
       <c r="D361" s="31"/>
       <c r="E361" s="22"/>
       <c r="F361" s="22"/>
@@ -8775,7 +8781,7 @@
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="22"/>
       <c r="B362" s="31"/>
-      <c r="C362" s="31"/>
+      <c r="C362" s="40"/>
       <c r="D362" s="31"/>
       <c r="E362" s="22"/>
       <c r="F362" s="22"/>
@@ -8786,7 +8792,7 @@
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="22"/>
       <c r="B363" s="31"/>
-      <c r="C363" s="31"/>
+      <c r="C363" s="40"/>
       <c r="D363" s="31"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
@@ -8797,7 +8803,7 @@
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="22"/>
       <c r="B364" s="31"/>
-      <c r="C364" s="31"/>
+      <c r="C364" s="40"/>
       <c r="D364" s="31"/>
       <c r="E364" s="22"/>
       <c r="F364" s="22"/>
@@ -8808,7 +8814,7 @@
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="22"/>
       <c r="B365" s="31"/>
-      <c r="C365" s="31"/>
+      <c r="C365" s="40"/>
       <c r="D365" s="31"/>
       <c r="E365" s="22"/>
       <c r="F365" s="22"/>
@@ -8819,7 +8825,7 @@
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="22"/>
       <c r="B366" s="31"/>
-      <c r="C366" s="31"/>
+      <c r="C366" s="40"/>
       <c r="D366" s="31"/>
       <c r="E366" s="22"/>
       <c r="F366" s="22"/>
@@ -8830,7 +8836,7 @@
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="22"/>
       <c r="B367" s="30"/>
-      <c r="C367" s="30"/>
+      <c r="C367" s="39"/>
       <c r="D367" s="30"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
@@ -8841,7 +8847,7 @@
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="22"/>
       <c r="B368" s="30"/>
-      <c r="C368" s="30"/>
+      <c r="C368" s="39"/>
       <c r="D368" s="30"/>
       <c r="E368" s="22"/>
       <c r="F368" s="22"/>
@@ -8852,7 +8858,7 @@
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="22"/>
       <c r="B369" s="31"/>
-      <c r="C369" s="31"/>
+      <c r="C369" s="40"/>
       <c r="D369" s="31"/>
       <c r="E369" s="22"/>
       <c r="F369" s="22"/>
@@ -8863,7 +8869,7 @@
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="22"/>
       <c r="B370" s="31"/>
-      <c r="C370" s="31"/>
+      <c r="C370" s="40"/>
       <c r="D370" s="31"/>
       <c r="E370" s="22"/>
       <c r="F370" s="22"/>
@@ -8874,7 +8880,7 @@
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="22"/>
       <c r="B371" s="31"/>
-      <c r="C371" s="31"/>
+      <c r="C371" s="40"/>
       <c r="D371" s="31"/>
       <c r="E371" s="22"/>
       <c r="F371" s="22"/>
@@ -8885,7 +8891,7 @@
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="22"/>
       <c r="B372" s="31"/>
-      <c r="C372" s="31"/>
+      <c r="C372" s="40"/>
       <c r="D372" s="31"/>
       <c r="E372" s="22"/>
       <c r="F372" s="22"/>
@@ -8896,7 +8902,7 @@
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="22"/>
       <c r="B373" s="31"/>
-      <c r="C373" s="31"/>
+      <c r="C373" s="40"/>
       <c r="D373" s="31"/>
       <c r="E373" s="22"/>
       <c r="F373" s="22"/>
@@ -8907,7 +8913,7 @@
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="22"/>
       <c r="B374" s="31"/>
-      <c r="C374" s="31"/>
+      <c r="C374" s="40"/>
       <c r="D374" s="31"/>
       <c r="E374" s="22"/>
       <c r="F374" s="22"/>
@@ -8918,7 +8924,7 @@
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="22"/>
       <c r="B375" s="31"/>
-      <c r="C375" s="31"/>
+      <c r="C375" s="40"/>
       <c r="D375" s="31"/>
       <c r="E375" s="22"/>
       <c r="F375" s="22"/>
@@ -8929,7 +8935,7 @@
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="22"/>
       <c r="B376" s="31"/>
-      <c r="C376" s="31"/>
+      <c r="C376" s="40"/>
       <c r="D376" s="31"/>
       <c r="E376" s="22"/>
       <c r="F376" s="22"/>
@@ -8940,7 +8946,7 @@
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="22"/>
       <c r="B377" s="30"/>
-      <c r="C377" s="30"/>
+      <c r="C377" s="39"/>
       <c r="D377" s="30"/>
       <c r="E377" s="22"/>
       <c r="F377" s="22"/>
@@ -8951,7 +8957,7 @@
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="22"/>
       <c r="B378" s="30"/>
-      <c r="C378" s="30"/>
+      <c r="C378" s="39"/>
       <c r="D378" s="30"/>
       <c r="E378" s="22"/>
       <c r="F378" s="22"/>
@@ -8962,7 +8968,7 @@
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="22"/>
       <c r="B379" s="31"/>
-      <c r="C379" s="31"/>
+      <c r="C379" s="40"/>
       <c r="D379" s="31"/>
       <c r="E379" s="22"/>
       <c r="F379" s="22"/>
@@ -8973,7 +8979,7 @@
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="22"/>
       <c r="B380" s="31"/>
-      <c r="C380" s="31"/>
+      <c r="C380" s="40"/>
       <c r="D380" s="31"/>
       <c r="E380" s="22"/>
       <c r="F380" s="22"/>
@@ -8984,7 +8990,7 @@
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="22"/>
       <c r="B381" s="31"/>
-      <c r="C381" s="31"/>
+      <c r="C381" s="40"/>
       <c r="D381" s="31"/>
       <c r="E381" s="22"/>
       <c r="F381" s="22"/>
@@ -8995,7 +9001,7 @@
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="22"/>
       <c r="B382" s="31"/>
-      <c r="C382" s="31"/>
+      <c r="C382" s="40"/>
       <c r="D382" s="31"/>
       <c r="E382" s="22"/>
       <c r="F382" s="22"/>
@@ -9006,7 +9012,7 @@
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="22"/>
       <c r="B383" s="31"/>
-      <c r="C383" s="31"/>
+      <c r="C383" s="40"/>
       <c r="D383" s="31"/>
       <c r="E383" s="22"/>
       <c r="F383" s="22"/>
@@ -9017,7 +9023,7 @@
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="22"/>
       <c r="B384" s="31"/>
-      <c r="C384" s="31"/>
+      <c r="C384" s="40"/>
       <c r="D384" s="31"/>
       <c r="E384" s="22"/>
       <c r="F384" s="22"/>
@@ -9028,7 +9034,7 @@
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="22"/>
       <c r="B385" s="31"/>
-      <c r="C385" s="31"/>
+      <c r="C385" s="40"/>
       <c r="D385" s="31"/>
       <c r="E385" s="22"/>
       <c r="F385" s="22"/>
@@ -9039,7 +9045,7 @@
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="22"/>
       <c r="B386" s="31"/>
-      <c r="C386" s="31"/>
+      <c r="C386" s="40"/>
       <c r="D386" s="31"/>
       <c r="E386" s="22"/>
       <c r="F386" s="22"/>
@@ -9050,7 +9056,7 @@
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="22"/>
       <c r="B387" s="30"/>
-      <c r="C387" s="30"/>
+      <c r="C387" s="39"/>
       <c r="D387" s="30"/>
       <c r="E387" s="22"/>
       <c r="F387" s="22"/>
@@ -9061,7 +9067,7 @@
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="22"/>
       <c r="B388" s="30"/>
-      <c r="C388" s="30"/>
+      <c r="C388" s="39"/>
       <c r="D388" s="30"/>
       <c r="E388" s="22"/>
       <c r="F388" s="22"/>
@@ -9072,7 +9078,7 @@
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="22"/>
       <c r="B389" s="31"/>
-      <c r="C389" s="31"/>
+      <c r="C389" s="40"/>
       <c r="D389" s="31"/>
       <c r="E389" s="22"/>
       <c r="F389" s="22"/>
@@ -9083,7 +9089,7 @@
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="22"/>
       <c r="B390" s="31"/>
-      <c r="C390" s="31"/>
+      <c r="C390" s="40"/>
       <c r="D390" s="31"/>
       <c r="E390" s="22"/>
       <c r="F390" s="22"/>
@@ -9094,7 +9100,7 @@
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="22"/>
       <c r="B391" s="31"/>
-      <c r="C391" s="31"/>
+      <c r="C391" s="40"/>
       <c r="D391" s="31"/>
       <c r="E391" s="22"/>
       <c r="F391" s="22"/>
@@ -9105,7 +9111,7 @@
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="22"/>
       <c r="B392" s="31"/>
-      <c r="C392" s="31"/>
+      <c r="C392" s="40"/>
       <c r="D392" s="31"/>
       <c r="E392" s="22"/>
       <c r="F392" s="22"/>
@@ -9116,7 +9122,7 @@
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="22"/>
       <c r="B393" s="31"/>
-      <c r="C393" s="31"/>
+      <c r="C393" s="40"/>
       <c r="D393" s="31"/>
       <c r="E393" s="22"/>
       <c r="F393" s="22"/>
@@ -9127,7 +9133,7 @@
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="22"/>
       <c r="B394" s="31"/>
-      <c r="C394" s="31"/>
+      <c r="C394" s="40"/>
       <c r="D394" s="31"/>
       <c r="E394" s="22"/>
       <c r="F394" s="22"/>
@@ -9138,7 +9144,7 @@
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="22"/>
       <c r="B395" s="31"/>
-      <c r="C395" s="31"/>
+      <c r="C395" s="40"/>
       <c r="D395" s="31"/>
       <c r="E395" s="22"/>
       <c r="F395" s="22"/>
@@ -9149,7 +9155,7 @@
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="22"/>
       <c r="B396" s="31"/>
-      <c r="C396" s="31"/>
+      <c r="C396" s="40"/>
       <c r="D396" s="31"/>
       <c r="E396" s="22"/>
       <c r="F396" s="22"/>
@@ -9160,7 +9166,7 @@
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="22"/>
       <c r="B397" s="30"/>
-      <c r="C397" s="30"/>
+      <c r="C397" s="39"/>
       <c r="D397" s="30"/>
       <c r="E397" s="22"/>
       <c r="F397" s="22"/>
@@ -9171,7 +9177,7 @@
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="22"/>
       <c r="B398" s="30"/>
-      <c r="C398" s="30"/>
+      <c r="C398" s="39"/>
       <c r="D398" s="30"/>
       <c r="E398" s="22"/>
       <c r="F398" s="22"/>
@@ -9182,7 +9188,7 @@
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="22"/>
       <c r="B399" s="31"/>
-      <c r="C399" s="31"/>
+      <c r="C399" s="40"/>
       <c r="D399" s="31"/>
       <c r="E399" s="22"/>
       <c r="F399" s="22"/>
@@ -9193,7 +9199,7 @@
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="22"/>
       <c r="B400" s="31"/>
-      <c r="C400" s="31"/>
+      <c r="C400" s="40"/>
       <c r="D400" s="31"/>
       <c r="E400" s="22"/>
       <c r="F400" s="22"/>
@@ -9204,7 +9210,7 @@
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="22"/>
       <c r="B401" s="31"/>
-      <c r="C401" s="31"/>
+      <c r="C401" s="40"/>
       <c r="D401" s="31"/>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
@@ -9215,7 +9221,7 @@
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="22"/>
       <c r="B402" s="31"/>
-      <c r="C402" s="31"/>
+      <c r="C402" s="40"/>
       <c r="D402" s="31"/>
       <c r="E402" s="22"/>
       <c r="F402" s="22"/>
@@ -9226,7 +9232,7 @@
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="22"/>
       <c r="B403" s="31"/>
-      <c r="C403" s="31"/>
+      <c r="C403" s="40"/>
       <c r="D403" s="31"/>
       <c r="E403" s="22"/>
       <c r="F403" s="22"/>
@@ -9237,7 +9243,7 @@
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="22"/>
       <c r="B404" s="31"/>
-      <c r="C404" s="31"/>
+      <c r="C404" s="40"/>
       <c r="D404" s="31"/>
       <c r="E404" s="22"/>
       <c r="F404" s="22"/>
@@ -9248,7 +9254,7 @@
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="22"/>
       <c r="B405" s="31"/>
-      <c r="C405" s="31"/>
+      <c r="C405" s="40"/>
       <c r="D405" s="31"/>
       <c r="E405" s="22"/>
       <c r="F405" s="22"/>
@@ -9259,7 +9265,7 @@
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="22"/>
       <c r="B406" s="31"/>
-      <c r="C406" s="31"/>
+      <c r="C406" s="40"/>
       <c r="D406" s="31"/>
       <c r="E406" s="22"/>
       <c r="F406" s="22"/>
@@ -9270,7 +9276,7 @@
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="22"/>
       <c r="B407" s="30"/>
-      <c r="C407" s="30"/>
+      <c r="C407" s="39"/>
       <c r="D407" s="30"/>
       <c r="E407" s="22"/>
       <c r="F407" s="22"/>
@@ -9281,7 +9287,7 @@
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="22"/>
       <c r="B408" s="30"/>
-      <c r="C408" s="30"/>
+      <c r="C408" s="39"/>
       <c r="D408" s="30"/>
       <c r="E408" s="22"/>
       <c r="F408" s="22"/>
@@ -9292,7 +9298,7 @@
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="22"/>
       <c r="B409" s="31"/>
-      <c r="C409" s="31"/>
+      <c r="C409" s="40"/>
       <c r="D409" s="31"/>
       <c r="E409" s="22"/>
       <c r="F409" s="22"/>
@@ -9303,7 +9309,7 @@
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="22"/>
       <c r="B410" s="31"/>
-      <c r="C410" s="31"/>
+      <c r="C410" s="40"/>
       <c r="D410" s="31"/>
       <c r="E410" s="22"/>
       <c r="F410" s="22"/>
@@ -9314,7 +9320,7 @@
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="22"/>
       <c r="B411" s="31"/>
-      <c r="C411" s="31"/>
+      <c r="C411" s="40"/>
       <c r="D411" s="31"/>
       <c r="E411" s="22"/>
       <c r="F411" s="22"/>
@@ -9325,7 +9331,7 @@
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="22"/>
       <c r="B412" s="31"/>
-      <c r="C412" s="31"/>
+      <c r="C412" s="40"/>
       <c r="D412" s="31"/>
       <c r="E412" s="22"/>
       <c r="F412" s="22"/>
@@ -9336,7 +9342,7 @@
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="22"/>
       <c r="B413" s="31"/>
-      <c r="C413" s="31"/>
+      <c r="C413" s="40"/>
       <c r="D413" s="31"/>
       <c r="E413" s="22"/>
       <c r="F413" s="22"/>
@@ -9347,7 +9353,7 @@
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="22"/>
       <c r="B414" s="31"/>
-      <c r="C414" s="31"/>
+      <c r="C414" s="40"/>
       <c r="D414" s="31"/>
       <c r="E414" s="22"/>
       <c r="F414" s="22"/>
@@ -9358,7 +9364,7 @@
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="22"/>
       <c r="B415" s="31"/>
-      <c r="C415" s="31"/>
+      <c r="C415" s="40"/>
       <c r="D415" s="31"/>
       <c r="E415" s="22"/>
       <c r="F415" s="22"/>
@@ -9369,7 +9375,7 @@
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="22"/>
       <c r="B416" s="31"/>
-      <c r="C416" s="31"/>
+      <c r="C416" s="40"/>
       <c r="D416" s="31"/>
       <c r="E416" s="22"/>
       <c r="F416" s="22"/>
@@ -9380,7 +9386,7 @@
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="22"/>
       <c r="B417" s="30"/>
-      <c r="C417" s="30"/>
+      <c r="C417" s="39"/>
       <c r="D417" s="30"/>
       <c r="E417" s="22"/>
       <c r="F417" s="22"/>
@@ -9391,7 +9397,7 @@
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="22"/>
       <c r="B418" s="30"/>
-      <c r="C418" s="30"/>
+      <c r="C418" s="39"/>
       <c r="D418" s="30"/>
       <c r="E418" s="22"/>
       <c r="F418" s="22"/>
@@ -9402,7 +9408,7 @@
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="22"/>
       <c r="B419" s="31"/>
-      <c r="C419" s="31"/>
+      <c r="C419" s="40"/>
       <c r="D419" s="31"/>
       <c r="E419" s="22"/>
       <c r="F419" s="22"/>
@@ -9413,7 +9419,7 @@
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="22"/>
       <c r="B420" s="31"/>
-      <c r="C420" s="31"/>
+      <c r="C420" s="40"/>
       <c r="D420" s="31"/>
       <c r="E420" s="22"/>
       <c r="F420" s="22"/>
@@ -9424,7 +9430,7 @@
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="22"/>
       <c r="B421" s="31"/>
-      <c r="C421" s="31"/>
+      <c r="C421" s="40"/>
       <c r="D421" s="31"/>
       <c r="E421" s="22"/>
       <c r="F421" s="22"/>
@@ -9435,7 +9441,7 @@
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="22"/>
       <c r="B422" s="31"/>
-      <c r="C422" s="31"/>
+      <c r="C422" s="40"/>
       <c r="D422" s="31"/>
       <c r="E422" s="22"/>
       <c r="F422" s="22"/>
@@ -9446,7 +9452,7 @@
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="22"/>
       <c r="B423" s="31"/>
-      <c r="C423" s="31"/>
+      <c r="C423" s="40"/>
       <c r="D423" s="31"/>
       <c r="E423" s="22"/>
       <c r="F423" s="22"/>
@@ -9457,7 +9463,7 @@
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="22"/>
       <c r="B424" s="31"/>
-      <c r="C424" s="31"/>
+      <c r="C424" s="40"/>
       <c r="D424" s="31"/>
       <c r="E424" s="22"/>
       <c r="F424" s="22"/>
@@ -9468,7 +9474,7 @@
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="22"/>
       <c r="B425" s="31"/>
-      <c r="C425" s="31"/>
+      <c r="C425" s="40"/>
       <c r="D425" s="31"/>
       <c r="E425" s="22"/>
       <c r="F425" s="22"/>
@@ -9479,7 +9485,7 @@
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="22"/>
       <c r="B426" s="31"/>
-      <c r="C426" s="31"/>
+      <c r="C426" s="40"/>
       <c r="D426" s="31"/>
       <c r="E426" s="22"/>
       <c r="F426" s="22"/>
@@ -9490,7 +9496,7 @@
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="22"/>
       <c r="B427" s="30"/>
-      <c r="C427" s="30"/>
+      <c r="C427" s="39"/>
       <c r="D427" s="30"/>
       <c r="E427" s="22"/>
       <c r="F427" s="22"/>
@@ -9501,7 +9507,7 @@
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="22"/>
       <c r="B428" s="30"/>
-      <c r="C428" s="30"/>
+      <c r="C428" s="39"/>
       <c r="D428" s="30"/>
       <c r="E428" s="22"/>
       <c r="F428" s="22"/>
@@ -9512,7 +9518,7 @@
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="22"/>
       <c r="B429" s="31"/>
-      <c r="C429" s="31"/>
+      <c r="C429" s="40"/>
       <c r="D429" s="31"/>
       <c r="E429" s="22"/>
       <c r="F429" s="22"/>
@@ -9523,7 +9529,7 @@
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="22"/>
       <c r="B430" s="31"/>
-      <c r="C430" s="31"/>
+      <c r="C430" s="40"/>
       <c r="D430" s="31"/>
       <c r="E430" s="22"/>
       <c r="F430" s="22"/>
@@ -9534,7 +9540,7 @@
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="22"/>
       <c r="B431" s="31"/>
-      <c r="C431" s="31"/>
+      <c r="C431" s="40"/>
       <c r="D431" s="31"/>
       <c r="E431" s="22"/>
       <c r="F431" s="22"/>
@@ -9545,7 +9551,7 @@
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="22"/>
       <c r="B432" s="31"/>
-      <c r="C432" s="31"/>
+      <c r="C432" s="40"/>
       <c r="D432" s="31"/>
       <c r="E432" s="22"/>
       <c r="F432" s="22"/>
@@ -9556,7 +9562,7 @@
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="22"/>
       <c r="B433" s="31"/>
-      <c r="C433" s="31"/>
+      <c r="C433" s="40"/>
       <c r="D433" s="31"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
@@ -9567,7 +9573,7 @@
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="22"/>
       <c r="B434" s="31"/>
-      <c r="C434" s="31"/>
+      <c r="C434" s="40"/>
       <c r="D434" s="31"/>
       <c r="E434" s="22"/>
       <c r="F434" s="22"/>
@@ -9578,7 +9584,7 @@
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="22"/>
       <c r="B435" s="31"/>
-      <c r="C435" s="31"/>
+      <c r="C435" s="40"/>
       <c r="D435" s="31"/>
       <c r="E435" s="22"/>
       <c r="F435" s="22"/>
@@ -9589,7 +9595,7 @@
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="22"/>
       <c r="B436" s="31"/>
-      <c r="C436" s="31"/>
+      <c r="C436" s="40"/>
       <c r="D436" s="31"/>
       <c r="E436" s="22"/>
       <c r="F436" s="22"/>
@@ -9600,7 +9606,7 @@
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="22"/>
       <c r="B437" s="30"/>
-      <c r="C437" s="30"/>
+      <c r="C437" s="39"/>
       <c r="D437" s="30"/>
       <c r="E437" s="22"/>
       <c r="F437" s="22"/>
@@ -9611,7 +9617,7 @@
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="22"/>
       <c r="B438" s="30"/>
-      <c r="C438" s="30"/>
+      <c r="C438" s="39"/>
       <c r="D438" s="30"/>
       <c r="E438" s="22"/>
       <c r="F438" s="22"/>
@@ -9622,7 +9628,7 @@
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="22"/>
       <c r="B439" s="31"/>
-      <c r="C439" s="31"/>
+      <c r="C439" s="40"/>
       <c r="D439" s="31"/>
       <c r="E439" s="22"/>
       <c r="F439" s="22"/>
@@ -9633,7 +9639,7 @@
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="22"/>
       <c r="B440" s="31"/>
-      <c r="C440" s="31"/>
+      <c r="C440" s="40"/>
       <c r="D440" s="31"/>
       <c r="E440" s="22"/>
       <c r="F440" s="22"/>
@@ -9644,7 +9650,7 @@
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="22"/>
       <c r="B441" s="31"/>
-      <c r="C441" s="31"/>
+      <c r="C441" s="40"/>
       <c r="D441" s="31"/>
       <c r="E441" s="22"/>
       <c r="F441" s="22"/>
@@ -9655,7 +9661,7 @@
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="22"/>
       <c r="B442" s="31"/>
-      <c r="C442" s="31"/>
+      <c r="C442" s="40"/>
       <c r="D442" s="31"/>
       <c r="E442" s="22"/>
       <c r="F442" s="22"/>
@@ -9666,7 +9672,7 @@
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="22"/>
       <c r="B443" s="31"/>
-      <c r="C443" s="31"/>
+      <c r="C443" s="40"/>
       <c r="D443" s="31"/>
       <c r="E443" s="22"/>
       <c r="F443" s="22"/>
@@ -9677,7 +9683,7 @@
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="22"/>
       <c r="B444" s="31"/>
-      <c r="C444" s="31"/>
+      <c r="C444" s="40"/>
       <c r="D444" s="31"/>
       <c r="E444" s="22"/>
       <c r="F444" s="22"/>
@@ -9688,7 +9694,7 @@
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="22"/>
       <c r="B445" s="31"/>
-      <c r="C445" s="31"/>
+      <c r="C445" s="40"/>
       <c r="D445" s="31"/>
       <c r="E445" s="22"/>
       <c r="F445" s="22"/>
@@ -9699,7 +9705,7 @@
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="22"/>
       <c r="B446" s="31"/>
-      <c r="C446" s="31"/>
+      <c r="C446" s="40"/>
       <c r="D446" s="31"/>
       <c r="E446" s="22"/>
       <c r="F446" s="22"/>
@@ -9710,7 +9716,7 @@
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="22"/>
       <c r="B447" s="30"/>
-      <c r="C447" s="30"/>
+      <c r="C447" s="39"/>
       <c r="D447" s="30"/>
       <c r="E447" s="22"/>
       <c r="F447" s="22"/>
@@ -9721,7 +9727,7 @@
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="22"/>
       <c r="B448" s="30"/>
-      <c r="C448" s="30"/>
+      <c r="C448" s="39"/>
       <c r="D448" s="30"/>
       <c r="E448" s="22"/>
       <c r="F448" s="22"/>
@@ -9732,7 +9738,7 @@
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="22"/>
       <c r="B449" s="31"/>
-      <c r="C449" s="31"/>
+      <c r="C449" s="40"/>
       <c r="D449" s="31"/>
       <c r="E449" s="22"/>
       <c r="F449" s="22"/>
@@ -9743,7 +9749,7 @@
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="22"/>
       <c r="B450" s="31"/>
-      <c r="C450" s="31"/>
+      <c r="C450" s="40"/>
       <c r="D450" s="31"/>
       <c r="E450" s="22"/>
       <c r="F450" s="22"/>
@@ -9754,7 +9760,7 @@
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="22"/>
       <c r="B451" s="31"/>
-      <c r="C451" s="31"/>
+      <c r="C451" s="40"/>
       <c r="D451" s="31"/>
       <c r="E451" s="22"/>
       <c r="F451" s="22"/>
@@ -9765,7 +9771,7 @@
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="22"/>
       <c r="B452" s="31"/>
-      <c r="C452" s="31"/>
+      <c r="C452" s="40"/>
       <c r="D452" s="31"/>
       <c r="E452" s="22"/>
       <c r="F452" s="22"/>
@@ -9776,7 +9782,7 @@
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="22"/>
       <c r="B453" s="31"/>
-      <c r="C453" s="31"/>
+      <c r="C453" s="40"/>
       <c r="D453" s="31"/>
       <c r="E453" s="22"/>
       <c r="F453" s="22"/>
@@ -9787,7 +9793,7 @@
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="22"/>
       <c r="B454" s="31"/>
-      <c r="C454" s="31"/>
+      <c r="C454" s="40"/>
       <c r="D454" s="31"/>
       <c r="E454" s="22"/>
       <c r="F454" s="22"/>
@@ -9798,7 +9804,7 @@
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="22"/>
       <c r="B455" s="31"/>
-      <c r="C455" s="31"/>
+      <c r="C455" s="40"/>
       <c r="D455" s="31"/>
       <c r="E455" s="22"/>
       <c r="F455" s="22"/>
@@ -9809,7 +9815,7 @@
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="22"/>
       <c r="B456" s="31"/>
-      <c r="C456" s="31"/>
+      <c r="C456" s="40"/>
       <c r="D456" s="31"/>
       <c r="E456" s="22"/>
       <c r="F456" s="22"/>
@@ -9820,7 +9826,7 @@
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="22"/>
       <c r="B457" s="30"/>
-      <c r="C457" s="30"/>
+      <c r="C457" s="39"/>
       <c r="D457" s="30"/>
       <c r="E457" s="22"/>
       <c r="F457" s="22"/>
@@ -9831,7 +9837,7 @@
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="22"/>
       <c r="B458" s="30"/>
-      <c r="C458" s="30"/>
+      <c r="C458" s="39"/>
       <c r="D458" s="30"/>
       <c r="E458" s="22"/>
       <c r="F458" s="22"/>
@@ -9842,7 +9848,7 @@
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="22"/>
       <c r="B459" s="31"/>
-      <c r="C459" s="31"/>
+      <c r="C459" s="40"/>
       <c r="D459" s="31"/>
       <c r="E459" s="22"/>
       <c r="F459" s="22"/>
@@ -9853,7 +9859,7 @@
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="27"/>
       <c r="B460" s="31"/>
-      <c r="C460" s="31"/>
+      <c r="C460" s="40"/>
       <c r="D460" s="31"/>
       <c r="E460" s="27"/>
       <c r="F460" s="27"/>
@@ -9862,7 +9868,7 @@
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="27"/>
       <c r="B461" s="31"/>
-      <c r="C461" s="31"/>
+      <c r="C461" s="40"/>
       <c r="D461" s="31"/>
       <c r="E461" s="27"/>
       <c r="F461" s="27"/>
@@ -9871,7 +9877,7 @@
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="27"/>
       <c r="B462" s="31"/>
-      <c r="C462" s="31"/>
+      <c r="C462" s="40"/>
       <c r="D462" s="31"/>
       <c r="E462" s="27"/>
       <c r="F462" s="27"/>
@@ -9880,7 +9886,7 @@
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="27"/>
       <c r="B463" s="31"/>
-      <c r="C463" s="31"/>
+      <c r="C463" s="40"/>
       <c r="D463" s="31"/>
       <c r="E463" s="27"/>
       <c r="F463" s="27"/>
@@ -9889,7 +9895,7 @@
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="27"/>
       <c r="B464" s="31"/>
-      <c r="C464" s="31"/>
+      <c r="C464" s="40"/>
       <c r="D464" s="31"/>
       <c r="E464" s="27"/>
       <c r="F464" s="27"/>
@@ -9898,7 +9904,7 @@
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="27"/>
       <c r="B465" s="31"/>
-      <c r="C465" s="31"/>
+      <c r="C465" s="40"/>
       <c r="D465" s="31"/>
       <c r="E465" s="27"/>
       <c r="F465" s="27"/>
@@ -9907,7 +9913,7 @@
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="27"/>
       <c r="B466" s="31"/>
-      <c r="C466" s="31"/>
+      <c r="C466" s="40"/>
       <c r="D466" s="31"/>
       <c r="E466" s="27"/>
       <c r="F466" s="27"/>
@@ -9916,7 +9922,7 @@
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="27"/>
       <c r="B467" s="30"/>
-      <c r="C467" s="30"/>
+      <c r="C467" s="39"/>
       <c r="D467" s="30"/>
       <c r="E467" s="27"/>
       <c r="F467" s="27"/>
@@ -9925,7 +9931,7 @@
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="27"/>
       <c r="B468" s="30"/>
-      <c r="C468" s="30"/>
+      <c r="C468" s="39"/>
       <c r="D468" s="30"/>
       <c r="E468" s="27"/>
       <c r="F468" s="27"/>
@@ -9934,7 +9940,7 @@
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="27"/>
       <c r="B469" s="31"/>
-      <c r="C469" s="31"/>
+      <c r="C469" s="40"/>
       <c r="D469" s="31"/>
       <c r="E469" s="27"/>
       <c r="F469" s="27"/>
@@ -9943,7 +9949,7 @@
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="27"/>
       <c r="B470" s="31"/>
-      <c r="C470" s="31"/>
+      <c r="C470" s="40"/>
       <c r="D470" s="31"/>
       <c r="E470" s="27"/>
       <c r="F470" s="27"/>
@@ -9952,7 +9958,7 @@
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="27"/>
       <c r="B471" s="31"/>
-      <c r="C471" s="31"/>
+      <c r="C471" s="40"/>
       <c r="D471" s="31"/>
       <c r="E471" s="27"/>
       <c r="F471" s="27"/>
@@ -9961,7 +9967,7 @@
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="27"/>
       <c r="B472" s="31"/>
-      <c r="C472" s="31"/>
+      <c r="C472" s="40"/>
       <c r="D472" s="31"/>
       <c r="E472" s="27"/>
       <c r="F472" s="27"/>
@@ -9970,7 +9976,7 @@
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="27"/>
       <c r="B473" s="31"/>
-      <c r="C473" s="31"/>
+      <c r="C473" s="40"/>
       <c r="D473" s="31"/>
       <c r="E473" s="27"/>
       <c r="F473" s="27"/>
@@ -9979,7 +9985,7 @@
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="27"/>
       <c r="B474" s="31"/>
-      <c r="C474" s="31"/>
+      <c r="C474" s="40"/>
       <c r="D474" s="31"/>
       <c r="E474" s="27"/>
       <c r="F474" s="27"/>
@@ -9988,7 +9994,7 @@
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="27"/>
       <c r="B475" s="31"/>
-      <c r="C475" s="31"/>
+      <c r="C475" s="40"/>
       <c r="D475" s="31"/>
       <c r="E475" s="27"/>
       <c r="F475" s="27"/>
@@ -9997,7 +10003,7 @@
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="27"/>
       <c r="B476" s="31"/>
-      <c r="C476" s="31"/>
+      <c r="C476" s="40"/>
       <c r="D476" s="31"/>
       <c r="E476" s="27"/>
       <c r="F476" s="27"/>
@@ -10006,7 +10012,7 @@
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="27"/>
       <c r="B477" s="30"/>
-      <c r="C477" s="30"/>
+      <c r="C477" s="39"/>
       <c r="D477" s="30"/>
       <c r="E477" s="27"/>
       <c r="F477" s="27"/>
@@ -10015,7 +10021,7 @@
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="27"/>
       <c r="B478" s="30"/>
-      <c r="C478" s="30"/>
+      <c r="C478" s="39"/>
       <c r="D478" s="30"/>
       <c r="E478" s="27"/>
       <c r="F478" s="27"/>
@@ -10024,7 +10030,7 @@
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="27"/>
       <c r="B479" s="31"/>
-      <c r="C479" s="31"/>
+      <c r="C479" s="40"/>
       <c r="D479" s="31"/>
       <c r="E479" s="27"/>
       <c r="F479" s="27"/>
@@ -10033,7 +10039,7 @@
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="27"/>
       <c r="B480" s="31"/>
-      <c r="C480" s="31"/>
+      <c r="C480" s="40"/>
       <c r="D480" s="31"/>
       <c r="E480" s="27"/>
       <c r="F480" s="27"/>
@@ -10042,7 +10048,7 @@
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="27"/>
       <c r="B481" s="31"/>
-      <c r="C481" s="31"/>
+      <c r="C481" s="40"/>
       <c r="D481" s="31"/>
       <c r="E481" s="27"/>
       <c r="F481" s="27"/>
@@ -10051,7 +10057,7 @@
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="27"/>
       <c r="B482" s="31"/>
-      <c r="C482" s="31"/>
+      <c r="C482" s="40"/>
       <c r="D482" s="31"/>
       <c r="E482" s="27"/>
       <c r="F482" s="27"/>
@@ -10060,7 +10066,7 @@
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="27"/>
       <c r="B483" s="31"/>
-      <c r="C483" s="31"/>
+      <c r="C483" s="40"/>
       <c r="D483" s="31"/>
       <c r="E483" s="27"/>
       <c r="F483" s="27"/>
@@ -10069,7 +10075,7 @@
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="27"/>
       <c r="B484" s="31"/>
-      <c r="C484" s="31"/>
+      <c r="C484" s="40"/>
       <c r="D484" s="31"/>
       <c r="E484" s="27"/>
       <c r="F484" s="27"/>
@@ -10078,7 +10084,7 @@
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="27"/>
       <c r="B485" s="31"/>
-      <c r="C485" s="31"/>
+      <c r="C485" s="40"/>
       <c r="D485" s="31"/>
       <c r="E485" s="27"/>
       <c r="F485" s="27"/>
@@ -10087,7 +10093,7 @@
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="27"/>
       <c r="B486" s="31"/>
-      <c r="C486" s="31"/>
+      <c r="C486" s="40"/>
       <c r="D486" s="31"/>
       <c r="E486" s="27"/>
       <c r="F486" s="27"/>
@@ -10096,7 +10102,7 @@
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="27"/>
       <c r="B487" s="30"/>
-      <c r="C487" s="30"/>
+      <c r="C487" s="39"/>
       <c r="D487" s="30"/>
       <c r="E487" s="27"/>
       <c r="F487" s="27"/>
@@ -10105,7 +10111,7 @@
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="27"/>
       <c r="B488" s="30"/>
-      <c r="C488" s="30"/>
+      <c r="C488" s="39"/>
       <c r="D488" s="30"/>
       <c r="E488" s="27"/>
       <c r="F488" s="27"/>
@@ -10114,7 +10120,7 @@
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="27"/>
       <c r="B489" s="31"/>
-      <c r="C489" s="31"/>
+      <c r="C489" s="40"/>
       <c r="D489" s="31"/>
       <c r="E489" s="27"/>
       <c r="F489" s="27"/>
@@ -10123,7 +10129,7 @@
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="27"/>
       <c r="B490" s="31"/>
-      <c r="C490" s="31"/>
+      <c r="C490" s="40"/>
       <c r="D490" s="31"/>
       <c r="E490" s="27"/>
       <c r="F490" s="27"/>
@@ -10132,7 +10138,7 @@
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="27"/>
       <c r="B491" s="31"/>
-      <c r="C491" s="31"/>
+      <c r="C491" s="40"/>
       <c r="D491" s="31"/>
       <c r="E491" s="27"/>
       <c r="F491" s="27"/>
@@ -10141,7 +10147,7 @@
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="27"/>
       <c r="B492" s="31"/>
-      <c r="C492" s="31"/>
+      <c r="C492" s="40"/>
       <c r="D492" s="31"/>
       <c r="E492" s="27"/>
       <c r="F492" s="27"/>
@@ -10150,7 +10156,7 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="27"/>
       <c r="B493" s="31"/>
-      <c r="C493" s="31"/>
+      <c r="C493" s="40"/>
       <c r="D493" s="31"/>
       <c r="E493" s="27"/>
       <c r="F493" s="27"/>
@@ -10159,7 +10165,7 @@
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="27"/>
       <c r="B494" s="31"/>
-      <c r="C494" s="31"/>
+      <c r="C494" s="40"/>
       <c r="D494" s="31"/>
       <c r="E494" s="27"/>
       <c r="F494" s="27"/>
@@ -10168,7 +10174,7 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="27"/>
       <c r="B495" s="31"/>
-      <c r="C495" s="31"/>
+      <c r="C495" s="40"/>
       <c r="D495" s="31"/>
       <c r="E495" s="27"/>
       <c r="F495" s="27"/>
@@ -10177,7 +10183,7 @@
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="27"/>
       <c r="B496" s="31"/>
-      <c r="C496" s="31"/>
+      <c r="C496" s="40"/>
       <c r="D496" s="31"/>
       <c r="E496" s="27"/>
       <c r="F496" s="27"/>
@@ -10186,7 +10192,7 @@
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="21"/>
       <c r="B497" s="30"/>
-      <c r="C497" s="30"/>
+      <c r="C497" s="39"/>
       <c r="D497" s="30"/>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
@@ -10197,7 +10203,7 @@
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="21"/>
       <c r="B498" s="30"/>
-      <c r="C498" s="30"/>
+      <c r="C498" s="39"/>
       <c r="D498" s="30"/>
       <c r="E498" s="22"/>
       <c r="F498" s="22"/>
@@ -10208,7 +10214,7 @@
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="22"/>
       <c r="B499" s="31"/>
-      <c r="C499" s="31"/>
+      <c r="C499" s="40"/>
       <c r="D499" s="31"/>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
@@ -10219,7 +10225,7 @@
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="21"/>
       <c r="B500" s="31"/>
-      <c r="C500" s="31"/>
+      <c r="C500" s="40"/>
       <c r="D500" s="31"/>
       <c r="E500" s="22"/>
       <c r="F500" s="22"/>
@@ -10230,7 +10236,7 @@
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="21"/>
       <c r="B501" s="31"/>
-      <c r="C501" s="31"/>
+      <c r="C501" s="40"/>
       <c r="D501" s="31"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
@@ -10241,7 +10247,7 @@
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="21"/>
       <c r="B502" s="31"/>
-      <c r="C502" s="31"/>
+      <c r="C502" s="40"/>
       <c r="D502" s="31"/>
       <c r="E502" s="22"/>
       <c r="F502" s="22"/>
@@ -10252,7 +10258,7 @@
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="21"/>
       <c r="B503" s="31"/>
-      <c r="C503" s="31"/>
+      <c r="C503" s="40"/>
       <c r="D503" s="31"/>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
@@ -10263,7 +10269,7 @@
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="21"/>
       <c r="B504" s="31"/>
-      <c r="C504" s="31"/>
+      <c r="C504" s="40"/>
       <c r="D504" s="31"/>
       <c r="E504" s="22"/>
       <c r="F504" s="22"/>
@@ -10274,7 +10280,7 @@
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="21"/>
       <c r="B505" s="31"/>
-      <c r="C505" s="31"/>
+      <c r="C505" s="40"/>
       <c r="D505" s="31"/>
       <c r="E505" s="22"/>
       <c r="F505" s="22"/>
@@ -10285,7 +10291,7 @@
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="21"/>
       <c r="B506" s="31"/>
-      <c r="C506" s="31"/>
+      <c r="C506" s="40"/>
       <c r="D506" s="31"/>
       <c r="E506" s="22"/>
       <c r="F506" s="22"/>
@@ -10296,7 +10302,7 @@
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="21"/>
       <c r="B507" s="30"/>
-      <c r="C507" s="30"/>
+      <c r="C507" s="39"/>
       <c r="D507" s="30"/>
       <c r="E507" s="22"/>
       <c r="F507" s="22"/>
@@ -10307,7 +10313,7 @@
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="21"/>
       <c r="B508" s="30"/>
-      <c r="C508" s="30"/>
+      <c r="C508" s="39"/>
       <c r="D508" s="30"/>
       <c r="E508" s="22"/>
       <c r="F508" s="22"/>
@@ -10318,7 +10324,7 @@
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="21"/>
       <c r="B509" s="31"/>
-      <c r="C509" s="31"/>
+      <c r="C509" s="40"/>
       <c r="D509" s="31"/>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
@@ -10329,7 +10335,7 @@
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="21"/>
       <c r="B510" s="31"/>
-      <c r="C510" s="31"/>
+      <c r="C510" s="40"/>
       <c r="D510" s="31"/>
       <c r="E510" s="22"/>
       <c r="F510" s="22"/>
@@ -10340,7 +10346,7 @@
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="21"/>
       <c r="B511" s="31"/>
-      <c r="C511" s="31"/>
+      <c r="C511" s="40"/>
       <c r="D511" s="31"/>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
@@ -10351,7 +10357,7 @@
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="22"/>
       <c r="B512" s="31"/>
-      <c r="C512" s="31"/>
+      <c r="C512" s="40"/>
       <c r="D512" s="31"/>
       <c r="E512" s="22"/>
       <c r="F512" s="22"/>
@@ -10362,7 +10368,7 @@
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="22"/>
       <c r="B513" s="31"/>
-      <c r="C513" s="31"/>
+      <c r="C513" s="40"/>
       <c r="D513" s="31"/>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
@@ -10373,7 +10379,7 @@
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="22"/>
       <c r="B514" s="31"/>
-      <c r="C514" s="31"/>
+      <c r="C514" s="40"/>
       <c r="D514" s="31"/>
       <c r="E514" s="22"/>
       <c r="F514" s="22"/>
@@ -10384,7 +10390,7 @@
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="22"/>
       <c r="B515" s="31"/>
-      <c r="C515" s="31"/>
+      <c r="C515" s="40"/>
       <c r="D515" s="31"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
@@ -10395,7 +10401,7 @@
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="22"/>
       <c r="B516" s="31"/>
-      <c r="C516" s="31"/>
+      <c r="C516" s="40"/>
       <c r="D516" s="31"/>
       <c r="E516" s="22"/>
       <c r="F516" s="22"/>
@@ -10406,7 +10412,7 @@
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="22"/>
       <c r="B517" s="30"/>
-      <c r="C517" s="30"/>
+      <c r="C517" s="39"/>
       <c r="D517" s="30"/>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
@@ -10417,7 +10423,7 @@
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="22"/>
       <c r="B518" s="30"/>
-      <c r="C518" s="30"/>
+      <c r="C518" s="39"/>
       <c r="D518" s="30"/>
       <c r="E518" s="22"/>
       <c r="F518" s="22"/>
@@ -10428,7 +10434,7 @@
     <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" s="21"/>
       <c r="B519" s="31"/>
-      <c r="C519" s="31"/>
+      <c r="C519" s="40"/>
       <c r="D519" s="31"/>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
@@ -10439,7 +10445,7 @@
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" s="21"/>
       <c r="B520" s="31"/>
-      <c r="C520" s="31"/>
+      <c r="C520" s="40"/>
       <c r="D520" s="31"/>
       <c r="E520" s="22"/>
       <c r="F520" s="22"/>
@@ -10450,7 +10456,7 @@
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="21"/>
       <c r="B521" s="31"/>
-      <c r="C521" s="31"/>
+      <c r="C521" s="40"/>
       <c r="D521" s="31"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
@@ -10461,7 +10467,7 @@
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="21"/>
       <c r="B522" s="31"/>
-      <c r="C522" s="31"/>
+      <c r="C522" s="40"/>
       <c r="D522" s="31"/>
       <c r="E522" s="22"/>
       <c r="F522" s="22"/>
@@ -10472,7 +10478,7 @@
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="21"/>
       <c r="B523" s="31"/>
-      <c r="C523" s="31"/>
+      <c r="C523" s="40"/>
       <c r="D523" s="31"/>
       <c r="E523" s="22"/>
       <c r="F523" s="22"/>
@@ -10483,7 +10489,7 @@
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="21"/>
       <c r="B524" s="31"/>
-      <c r="C524" s="31"/>
+      <c r="C524" s="40"/>
       <c r="D524" s="31"/>
       <c r="E524" s="22"/>
       <c r="F524" s="22"/>
@@ -10494,7 +10500,7 @@
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="21"/>
       <c r="B525" s="31"/>
-      <c r="C525" s="31"/>
+      <c r="C525" s="40"/>
       <c r="D525" s="31"/>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
@@ -10505,7 +10511,7 @@
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="21"/>
       <c r="B526" s="31"/>
-      <c r="C526" s="31"/>
+      <c r="C526" s="40"/>
       <c r="D526" s="31"/>
       <c r="E526" s="22"/>
       <c r="F526" s="22"/>
@@ -10516,7 +10522,7 @@
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="21"/>
       <c r="B527" s="30"/>
-      <c r="C527" s="30"/>
+      <c r="C527" s="39"/>
       <c r="D527" s="30"/>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
@@ -10527,7 +10533,7 @@
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
       <c r="B528" s="30"/>
-      <c r="C528" s="30"/>
+      <c r="C528" s="39"/>
       <c r="D528" s="30"/>
       <c r="E528" s="22"/>
       <c r="F528" s="22"/>
@@ -10538,7 +10544,7 @@
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="21"/>
       <c r="B529" s="31"/>
-      <c r="C529" s="31"/>
+      <c r="C529" s="40"/>
       <c r="D529" s="31"/>
       <c r="E529" s="22"/>
       <c r="F529" s="22"/>
@@ -10549,7 +10555,7 @@
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="21"/>
       <c r="B530" s="31"/>
-      <c r="C530" s="31"/>
+      <c r="C530" s="40"/>
       <c r="D530" s="31"/>
       <c r="E530" s="22"/>
       <c r="F530" s="22"/>
@@ -10560,7 +10566,7 @@
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="21"/>
       <c r="B531" s="31"/>
-      <c r="C531" s="31"/>
+      <c r="C531" s="40"/>
       <c r="D531" s="31"/>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
@@ -10571,7 +10577,7 @@
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="21"/>
       <c r="B532" s="31"/>
-      <c r="C532" s="31"/>
+      <c r="C532" s="40"/>
       <c r="D532" s="31"/>
       <c r="E532" s="22"/>
       <c r="F532" s="22"/>
@@ -10582,7 +10588,7 @@
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="21"/>
       <c r="B533" s="31"/>
-      <c r="C533" s="31"/>
+      <c r="C533" s="40"/>
       <c r="D533" s="31"/>
       <c r="E533" s="22"/>
       <c r="F533" s="22"/>
@@ -10593,7 +10599,7 @@
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="21"/>
       <c r="B534" s="31"/>
-      <c r="C534" s="31"/>
+      <c r="C534" s="40"/>
       <c r="D534" s="31"/>
       <c r="E534" s="22"/>
       <c r="F534" s="22"/>
@@ -10604,7 +10610,7 @@
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="21"/>
       <c r="B535" s="31"/>
-      <c r="C535" s="31"/>
+      <c r="C535" s="40"/>
       <c r="D535" s="31"/>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
@@ -10615,7 +10621,7 @@
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="21"/>
       <c r="B536" s="31"/>
-      <c r="C536" s="31"/>
+      <c r="C536" s="40"/>
       <c r="D536" s="31"/>
       <c r="E536" s="22"/>
       <c r="F536" s="22"/>
@@ -10626,7 +10632,7 @@
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="21"/>
       <c r="B537" s="30"/>
-      <c r="C537" s="30"/>
+      <c r="C537" s="39"/>
       <c r="D537" s="30"/>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
@@ -10637,7 +10643,7 @@
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="21"/>
       <c r="B538" s="30"/>
-      <c r="C538" s="30"/>
+      <c r="C538" s="39"/>
       <c r="D538" s="30"/>
       <c r="E538" s="22"/>
       <c r="F538" s="22"/>
@@ -10648,7 +10654,7 @@
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="21"/>
       <c r="B539" s="31"/>
-      <c r="C539" s="31"/>
+      <c r="C539" s="40"/>
       <c r="D539" s="31"/>
       <c r="E539" s="22"/>
       <c r="F539" s="22"/>
@@ -10659,7 +10665,7 @@
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="21"/>
       <c r="B540" s="31"/>
-      <c r="C540" s="31"/>
+      <c r="C540" s="40"/>
       <c r="D540" s="31"/>
       <c r="E540" s="22"/>
       <c r="F540" s="22"/>
@@ -10670,7 +10676,7 @@
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="21"/>
       <c r="B541" s="31"/>
-      <c r="C541" s="31"/>
+      <c r="C541" s="40"/>
       <c r="D541" s="31"/>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
@@ -10681,7 +10687,7 @@
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="22"/>
       <c r="B542" s="31"/>
-      <c r="C542" s="31"/>
+      <c r="C542" s="40"/>
       <c r="D542" s="31"/>
       <c r="E542" s="22"/>
       <c r="F542" s="22"/>
@@ -10692,7 +10698,7 @@
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="22"/>
       <c r="B543" s="31"/>
-      <c r="C543" s="31"/>
+      <c r="C543" s="40"/>
       <c r="D543" s="31"/>
       <c r="E543" s="22"/>
       <c r="F543" s="22"/>
@@ -10703,7 +10709,7 @@
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="22"/>
       <c r="B544" s="31"/>
-      <c r="C544" s="31"/>
+      <c r="C544" s="40"/>
       <c r="D544" s="31"/>
       <c r="E544" s="22"/>
       <c r="F544" s="22"/>
@@ -10714,7 +10720,7 @@
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="22"/>
       <c r="B545" s="31"/>
-      <c r="C545" s="31"/>
+      <c r="C545" s="40"/>
       <c r="D545" s="31"/>
       <c r="E545" s="22"/>
       <c r="F545" s="22"/>
@@ -10725,7 +10731,7 @@
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="22"/>
       <c r="B546" s="31"/>
-      <c r="C546" s="31"/>
+      <c r="C546" s="40"/>
       <c r="D546" s="31"/>
       <c r="E546" s="22"/>
       <c r="F546" s="22"/>
@@ -10736,7 +10742,7 @@
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" s="22"/>
       <c r="B547" s="30"/>
-      <c r="C547" s="30"/>
+      <c r="C547" s="39"/>
       <c r="D547" s="30"/>
       <c r="E547" s="22"/>
       <c r="F547" s="22"/>
@@ -10747,7 +10753,7 @@
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="22"/>
       <c r="B548" s="30"/>
-      <c r="C548" s="30"/>
+      <c r="C548" s="39"/>
       <c r="D548" s="30"/>
       <c r="E548" s="22"/>
       <c r="F548" s="22"/>
@@ -10758,7 +10764,7 @@
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="22"/>
       <c r="B549" s="31"/>
-      <c r="C549" s="31"/>
+      <c r="C549" s="40"/>
       <c r="D549" s="31"/>
       <c r="E549" s="22"/>
       <c r="F549" s="22"/>
@@ -10769,7 +10775,7 @@
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="22"/>
       <c r="B550" s="31"/>
-      <c r="C550" s="31"/>
+      <c r="C550" s="40"/>
       <c r="D550" s="31"/>
       <c r="E550" s="22"/>
       <c r="F550" s="22"/>
@@ -10780,7 +10786,7 @@
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="22"/>
       <c r="B551" s="31"/>
-      <c r="C551" s="31"/>
+      <c r="C551" s="40"/>
       <c r="D551" s="31"/>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
@@ -10791,7 +10797,7 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="22"/>
       <c r="B552" s="31"/>
-      <c r="C552" s="31"/>
+      <c r="C552" s="40"/>
       <c r="D552" s="31"/>
       <c r="E552" s="22"/>
       <c r="F552" s="22"/>
@@ -10802,7 +10808,7 @@
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" s="22"/>
       <c r="B553" s="31"/>
-      <c r="C553" s="31"/>
+      <c r="C553" s="40"/>
       <c r="D553" s="31"/>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
@@ -10813,7 +10819,7 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="22"/>
       <c r="B554" s="31"/>
-      <c r="C554" s="31"/>
+      <c r="C554" s="40"/>
       <c r="D554" s="31"/>
       <c r="E554" s="22"/>
       <c r="F554" s="22"/>
@@ -10824,7 +10830,7 @@
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="22"/>
       <c r="B555" s="31"/>
-      <c r="C555" s="31"/>
+      <c r="C555" s="40"/>
       <c r="D555" s="31"/>
       <c r="E555" s="22"/>
       <c r="F555" s="22"/>
@@ -10835,7 +10841,7 @@
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="22"/>
       <c r="B556" s="31"/>
-      <c r="C556" s="31"/>
+      <c r="C556" s="40"/>
       <c r="D556" s="31"/>
       <c r="E556" s="22"/>
       <c r="F556" s="22"/>
@@ -10846,7 +10852,7 @@
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="22"/>
       <c r="B557" s="30"/>
-      <c r="C557" s="30"/>
+      <c r="C557" s="39"/>
       <c r="D557" s="30"/>
       <c r="E557" s="22"/>
       <c r="F557" s="22"/>
@@ -10857,7 +10863,7 @@
     <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" s="22"/>
       <c r="B558" s="30"/>
-      <c r="C558" s="30"/>
+      <c r="C558" s="39"/>
       <c r="D558" s="30"/>
       <c r="E558" s="22"/>
       <c r="F558" s="22"/>
@@ -10868,7 +10874,7 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="22"/>
       <c r="B559" s="31"/>
-      <c r="C559" s="31"/>
+      <c r="C559" s="40"/>
       <c r="D559" s="31"/>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
@@ -10879,7 +10885,7 @@
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" s="22"/>
       <c r="B560" s="31"/>
-      <c r="C560" s="31"/>
+      <c r="C560" s="40"/>
       <c r="D560" s="31"/>
       <c r="E560" s="22"/>
       <c r="F560" s="22"/>
@@ -10890,7 +10896,7 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="22"/>
       <c r="B561" s="31"/>
-      <c r="C561" s="31"/>
+      <c r="C561" s="40"/>
       <c r="D561" s="31"/>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
@@ -10901,7 +10907,7 @@
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="22"/>
       <c r="B562" s="31"/>
-      <c r="C562" s="31"/>
+      <c r="C562" s="40"/>
       <c r="D562" s="31"/>
       <c r="E562" s="22"/>
       <c r="F562" s="22"/>
@@ -10912,7 +10918,7 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="22"/>
       <c r="B563" s="31"/>
-      <c r="C563" s="31"/>
+      <c r="C563" s="40"/>
       <c r="D563" s="31"/>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
@@ -10923,7 +10929,7 @@
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="22"/>
       <c r="B564" s="31"/>
-      <c r="C564" s="31"/>
+      <c r="C564" s="40"/>
       <c r="D564" s="31"/>
       <c r="E564" s="22"/>
       <c r="F564" s="22"/>
@@ -10934,7 +10940,7 @@
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" s="22"/>
       <c r="B565" s="31"/>
-      <c r="C565" s="31"/>
+      <c r="C565" s="40"/>
       <c r="D565" s="31"/>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
@@ -10945,7 +10951,7 @@
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" s="22"/>
       <c r="B566" s="31"/>
-      <c r="C566" s="31"/>
+      <c r="C566" s="40"/>
       <c r="D566" s="31"/>
       <c r="E566" s="22"/>
       <c r="F566" s="22"/>
@@ -10956,7 +10962,7 @@
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="22"/>
       <c r="B567" s="30"/>
-      <c r="C567" s="30"/>
+      <c r="C567" s="39"/>
       <c r="D567" s="30"/>
       <c r="E567" s="22"/>
       <c r="F567" s="22"/>
@@ -10967,7 +10973,7 @@
     <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" s="22"/>
       <c r="B568" s="30"/>
-      <c r="C568" s="30"/>
+      <c r="C568" s="39"/>
       <c r="D568" s="30"/>
       <c r="E568" s="22"/>
       <c r="F568" s="22"/>
@@ -10978,7 +10984,7 @@
     <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" s="22"/>
       <c r="B569" s="31"/>
-      <c r="C569" s="31"/>
+      <c r="C569" s="40"/>
       <c r="D569" s="31"/>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
@@ -10989,7 +10995,7 @@
     <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" s="22"/>
       <c r="B570" s="31"/>
-      <c r="C570" s="31"/>
+      <c r="C570" s="40"/>
       <c r="D570" s="31"/>
       <c r="E570" s="22"/>
       <c r="F570" s="22"/>
@@ -11000,7 +11006,7 @@
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" s="22"/>
       <c r="B571" s="31"/>
-      <c r="C571" s="31"/>
+      <c r="C571" s="40"/>
       <c r="D571" s="31"/>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
@@ -11011,7 +11017,7 @@
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="22"/>
       <c r="B572" s="31"/>
-      <c r="C572" s="31"/>
+      <c r="C572" s="40"/>
       <c r="D572" s="31"/>
       <c r="E572" s="22"/>
       <c r="F572" s="22"/>
@@ -11022,7 +11028,7 @@
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="22"/>
       <c r="B573" s="31"/>
-      <c r="C573" s="31"/>
+      <c r="C573" s="40"/>
       <c r="D573" s="31"/>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
@@ -11033,7 +11039,7 @@
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="22"/>
       <c r="B574" s="31"/>
-      <c r="C574" s="31"/>
+      <c r="C574" s="40"/>
       <c r="D574" s="31"/>
       <c r="E574" s="22"/>
       <c r="F574" s="22"/>
@@ -11044,7 +11050,7 @@
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="22"/>
       <c r="B575" s="31"/>
-      <c r="C575" s="31"/>
+      <c r="C575" s="40"/>
       <c r="D575" s="31"/>
       <c r="E575" s="22"/>
       <c r="F575" s="22"/>
@@ -11055,7 +11061,7 @@
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="22"/>
       <c r="B576" s="31"/>
-      <c r="C576" s="31"/>
+      <c r="C576" s="40"/>
       <c r="D576" s="31"/>
       <c r="E576" s="22"/>
       <c r="F576" s="22"/>
@@ -11066,7 +11072,7 @@
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="22"/>
       <c r="B577" s="30"/>
-      <c r="C577" s="30"/>
+      <c r="C577" s="39"/>
       <c r="D577" s="30"/>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
@@ -11077,7 +11083,7 @@
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="22"/>
       <c r="B578" s="30"/>
-      <c r="C578" s="30"/>
+      <c r="C578" s="39"/>
       <c r="D578" s="30"/>
       <c r="E578" s="22"/>
       <c r="F578" s="22"/>
@@ -11088,7 +11094,7 @@
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="22"/>
       <c r="B579" s="31"/>
-      <c r="C579" s="31"/>
+      <c r="C579" s="40"/>
       <c r="D579" s="31"/>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
@@ -11099,7 +11105,7 @@
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="22"/>
       <c r="B580" s="31"/>
-      <c r="C580" s="31"/>
+      <c r="C580" s="40"/>
       <c r="D580" s="31"/>
       <c r="E580" s="22"/>
       <c r="F580" s="22"/>
@@ -11110,7 +11116,7 @@
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="22"/>
       <c r="B581" s="31"/>
-      <c r="C581" s="31"/>
+      <c r="C581" s="40"/>
       <c r="D581" s="31"/>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
@@ -11121,7 +11127,7 @@
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="22"/>
       <c r="B582" s="31"/>
-      <c r="C582" s="31"/>
+      <c r="C582" s="40"/>
       <c r="D582" s="31"/>
       <c r="E582" s="22"/>
       <c r="F582" s="22"/>
@@ -11132,7 +11138,7 @@
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="22"/>
       <c r="B583" s="31"/>
-      <c r="C583" s="31"/>
+      <c r="C583" s="40"/>
       <c r="D583" s="31"/>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
@@ -11143,7 +11149,7 @@
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="22"/>
       <c r="B584" s="31"/>
-      <c r="C584" s="31"/>
+      <c r="C584" s="40"/>
       <c r="D584" s="31"/>
       <c r="E584" s="22"/>
       <c r="F584" s="22"/>
@@ -11154,7 +11160,7 @@
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="22"/>
       <c r="B585" s="31"/>
-      <c r="C585" s="31"/>
+      <c r="C585" s="40"/>
       <c r="D585" s="31"/>
       <c r="E585" s="22"/>
       <c r="F585" s="22"/>
@@ -11165,7 +11171,7 @@
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="22"/>
       <c r="B586" s="31"/>
-      <c r="C586" s="31"/>
+      <c r="C586" s="40"/>
       <c r="D586" s="31"/>
       <c r="E586" s="22"/>
       <c r="F586" s="22"/>
@@ -11176,7 +11182,7 @@
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="22"/>
       <c r="B587" s="30"/>
-      <c r="C587" s="30"/>
+      <c r="C587" s="39"/>
       <c r="D587" s="30"/>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
@@ -11187,7 +11193,7 @@
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="22"/>
       <c r="B588" s="30"/>
-      <c r="C588" s="30"/>
+      <c r="C588" s="39"/>
       <c r="D588" s="30"/>
       <c r="E588" s="22"/>
       <c r="F588" s="22"/>
@@ -11198,7 +11204,7 @@
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="22"/>
       <c r="B589" s="31"/>
-      <c r="C589" s="31"/>
+      <c r="C589" s="40"/>
       <c r="D589" s="31"/>
       <c r="E589" s="22"/>
       <c r="F589" s="22"/>
@@ -11209,7 +11215,7 @@
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="22"/>
       <c r="B590" s="31"/>
-      <c r="C590" s="31"/>
+      <c r="C590" s="40"/>
       <c r="D590" s="31"/>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -11220,7 +11226,7 @@
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="22"/>
       <c r="B591" s="31"/>
-      <c r="C591" s="31"/>
+      <c r="C591" s="40"/>
       <c r="D591" s="31"/>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
@@ -11231,7 +11237,7 @@
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="22"/>
       <c r="B592" s="31"/>
-      <c r="C592" s="31"/>
+      <c r="C592" s="40"/>
       <c r="D592" s="31"/>
       <c r="E592" s="22"/>
       <c r="F592" s="22"/>
@@ -11242,7 +11248,7 @@
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="22"/>
       <c r="B593" s="31"/>
-      <c r="C593" s="31"/>
+      <c r="C593" s="40"/>
       <c r="D593" s="31"/>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
@@ -11253,7 +11259,7 @@
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="22"/>
       <c r="B594" s="31"/>
-      <c r="C594" s="31"/>
+      <c r="C594" s="40"/>
       <c r="D594" s="31"/>
       <c r="E594" s="22"/>
       <c r="F594" s="22"/>
@@ -11264,7 +11270,7 @@
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="22"/>
       <c r="B595" s="31"/>
-      <c r="C595" s="31"/>
+      <c r="C595" s="40"/>
       <c r="D595" s="31"/>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
@@ -11275,7 +11281,7 @@
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="22"/>
       <c r="B596" s="31"/>
-      <c r="C596" s="31"/>
+      <c r="C596" s="40"/>
       <c r="D596" s="31"/>
       <c r="E596" s="22"/>
       <c r="F596" s="22"/>
@@ -11286,7 +11292,7 @@
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="22"/>
       <c r="B597" s="30"/>
-      <c r="C597" s="30"/>
+      <c r="C597" s="39"/>
       <c r="D597" s="30"/>
       <c r="E597" s="22"/>
       <c r="F597" s="22"/>
@@ -11297,7 +11303,7 @@
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="22"/>
       <c r="B598" s="30"/>
-      <c r="C598" s="30"/>
+      <c r="C598" s="39"/>
       <c r="D598" s="30"/>
       <c r="E598" s="22"/>
       <c r="F598" s="22"/>
@@ -11308,7 +11314,7 @@
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="22"/>
       <c r="B599" s="31"/>
-      <c r="C599" s="31"/>
+      <c r="C599" s="40"/>
       <c r="D599" s="31"/>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
@@ -11319,7 +11325,7 @@
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="22"/>
       <c r="B600" s="31"/>
-      <c r="C600" s="31"/>
+      <c r="C600" s="40"/>
       <c r="D600" s="31"/>
       <c r="E600" s="22"/>
       <c r="F600" s="22"/>
@@ -11330,7 +11336,7 @@
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="22"/>
       <c r="B601" s="31"/>
-      <c r="C601" s="31"/>
+      <c r="C601" s="40"/>
       <c r="D601" s="31"/>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
@@ -11341,7 +11347,7 @@
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="22"/>
       <c r="B602" s="31"/>
-      <c r="C602" s="31"/>
+      <c r="C602" s="40"/>
       <c r="D602" s="31"/>
       <c r="E602" s="22"/>
       <c r="F602" s="22"/>
@@ -11352,7 +11358,7 @@
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="22"/>
       <c r="B603" s="31"/>
-      <c r="C603" s="31"/>
+      <c r="C603" s="40"/>
       <c r="D603" s="31"/>
       <c r="E603" s="22"/>
       <c r="F603" s="22"/>
@@ -11363,7 +11369,7 @@
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="22"/>
       <c r="B604" s="31"/>
-      <c r="C604" s="31"/>
+      <c r="C604" s="40"/>
       <c r="D604" s="31"/>
       <c r="E604" s="22"/>
       <c r="F604" s="22"/>
@@ -11374,7 +11380,7 @@
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="22"/>
       <c r="B605" s="31"/>
-      <c r="C605" s="31"/>
+      <c r="C605" s="40"/>
       <c r="D605" s="31"/>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
@@ -11385,7 +11391,7 @@
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="22"/>
       <c r="B606" s="31"/>
-      <c r="C606" s="31"/>
+      <c r="C606" s="40"/>
       <c r="D606" s="31"/>
       <c r="E606" s="22"/>
       <c r="F606" s="22"/>
@@ -11396,7 +11402,7 @@
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="22"/>
       <c r="B607" s="30"/>
-      <c r="C607" s="30"/>
+      <c r="C607" s="39"/>
       <c r="D607" s="30"/>
       <c r="E607" s="22"/>
       <c r="F607" s="22"/>
@@ -11407,7 +11413,7 @@
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="22"/>
       <c r="B608" s="30"/>
-      <c r="C608" s="30"/>
+      <c r="C608" s="39"/>
       <c r="D608" s="30"/>
       <c r="E608" s="22"/>
       <c r="F608" s="22"/>
@@ -11418,7 +11424,7 @@
     <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="22"/>
       <c r="B609" s="31"/>
-      <c r="C609" s="31"/>
+      <c r="C609" s="40"/>
       <c r="D609" s="31"/>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
@@ -11429,7 +11435,7 @@
     <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="22"/>
       <c r="B610" s="31"/>
-      <c r="C610" s="31"/>
+      <c r="C610" s="40"/>
       <c r="D610" s="31"/>
       <c r="E610" s="22"/>
       <c r="F610" s="22"/>
@@ -11440,7 +11446,7 @@
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="22"/>
       <c r="B611" s="31"/>
-      <c r="C611" s="31"/>
+      <c r="C611" s="40"/>
       <c r="D611" s="31"/>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
@@ -11451,7 +11457,7 @@
     <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="22"/>
       <c r="B612" s="31"/>
-      <c r="C612" s="31"/>
+      <c r="C612" s="40"/>
       <c r="D612" s="31"/>
       <c r="E612" s="22"/>
       <c r="F612" s="22"/>
@@ -11462,7 +11468,7 @@
     <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="22"/>
       <c r="B613" s="31"/>
-      <c r="C613" s="31"/>
+      <c r="C613" s="40"/>
       <c r="D613" s="31"/>
       <c r="E613" s="22"/>
       <c r="F613" s="22"/>
@@ -11473,7 +11479,7 @@
     <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="22"/>
       <c r="B614" s="31"/>
-      <c r="C614" s="31"/>
+      <c r="C614" s="40"/>
       <c r="D614" s="31"/>
       <c r="E614" s="22"/>
       <c r="F614" s="22"/>
@@ -11484,7 +11490,7 @@
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="22"/>
       <c r="B615" s="31"/>
-      <c r="C615" s="31"/>
+      <c r="C615" s="40"/>
       <c r="D615" s="31"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
@@ -11495,7 +11501,7 @@
     <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="22"/>
       <c r="B616" s="31"/>
-      <c r="C616" s="31"/>
+      <c r="C616" s="40"/>
       <c r="D616" s="31"/>
       <c r="E616" s="22"/>
       <c r="F616" s="22"/>
@@ -11506,7 +11512,7 @@
     <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="22"/>
       <c r="B617" s="30"/>
-      <c r="C617" s="30"/>
+      <c r="C617" s="39"/>
       <c r="D617" s="30"/>
       <c r="E617" s="22"/>
       <c r="F617" s="22"/>
@@ -11517,7 +11523,7 @@
     <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="22"/>
       <c r="B618" s="30"/>
-      <c r="C618" s="30"/>
+      <c r="C618" s="39"/>
       <c r="D618" s="30"/>
       <c r="E618" s="22"/>
       <c r="F618" s="22"/>
@@ -11528,7 +11534,7 @@
     <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="22"/>
       <c r="B619" s="31"/>
-      <c r="C619" s="31"/>
+      <c r="C619" s="40"/>
       <c r="D619" s="31"/>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
@@ -11539,7 +11545,7 @@
     <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="22"/>
       <c r="B620" s="31"/>
-      <c r="C620" s="31"/>
+      <c r="C620" s="40"/>
       <c r="D620" s="31"/>
       <c r="E620" s="22"/>
       <c r="F620" s="22"/>
@@ -11550,7 +11556,7 @@
     <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="22"/>
       <c r="B621" s="31"/>
-      <c r="C621" s="31"/>
+      <c r="C621" s="40"/>
       <c r="D621" s="31"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
@@ -11561,7 +11567,7 @@
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="22"/>
       <c r="B622" s="31"/>
-      <c r="C622" s="31"/>
+      <c r="C622" s="40"/>
       <c r="D622" s="31"/>
       <c r="E622" s="22"/>
       <c r="F622" s="22"/>
@@ -11572,7 +11578,7 @@
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="22"/>
       <c r="B623" s="31"/>
-      <c r="C623" s="31"/>
+      <c r="C623" s="40"/>
       <c r="D623" s="31"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22"/>
@@ -11583,7 +11589,7 @@
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="22"/>
       <c r="B624" s="31"/>
-      <c r="C624" s="31"/>
+      <c r="C624" s="40"/>
       <c r="D624" s="31"/>
       <c r="E624" s="22"/>
       <c r="F624" s="22"/>
@@ -11594,7 +11600,7 @@
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="22"/>
       <c r="B625" s="31"/>
-      <c r="C625" s="31"/>
+      <c r="C625" s="40"/>
       <c r="D625" s="31"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
@@ -11605,7 +11611,7 @@
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="22"/>
       <c r="B626" s="31"/>
-      <c r="C626" s="31"/>
+      <c r="C626" s="40"/>
       <c r="D626" s="31"/>
       <c r="E626" s="22"/>
       <c r="F626" s="22"/>
@@ -11616,7 +11622,7 @@
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="22"/>
       <c r="B627" s="30"/>
-      <c r="C627" s="30"/>
+      <c r="C627" s="39"/>
       <c r="D627" s="30"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
@@ -11627,7 +11633,7 @@
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="22"/>
       <c r="B628" s="30"/>
-      <c r="C628" s="30"/>
+      <c r="C628" s="39"/>
       <c r="D628" s="30"/>
       <c r="E628" s="22"/>
       <c r="F628" s="22"/>
@@ -11638,7 +11644,7 @@
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="22"/>
       <c r="B629" s="31"/>
-      <c r="C629" s="31"/>
+      <c r="C629" s="40"/>
       <c r="D629" s="31"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
@@ -11649,7 +11655,7 @@
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="22"/>
       <c r="B630" s="31"/>
-      <c r="C630" s="31"/>
+      <c r="C630" s="40"/>
       <c r="D630" s="31"/>
       <c r="E630" s="22"/>
       <c r="F630" s="22"/>
@@ -11660,7 +11666,7 @@
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="22"/>
       <c r="B631" s="31"/>
-      <c r="C631" s="31"/>
+      <c r="C631" s="40"/>
       <c r="D631" s="31"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
@@ -11671,7 +11677,7 @@
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="22"/>
       <c r="B632" s="31"/>
-      <c r="C632" s="31"/>
+      <c r="C632" s="40"/>
       <c r="D632" s="31"/>
       <c r="E632" s="22"/>
       <c r="F632" s="22"/>
@@ -11682,7 +11688,7 @@
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="22"/>
       <c r="B633" s="31"/>
-      <c r="C633" s="31"/>
+      <c r="C633" s="40"/>
       <c r="D633" s="31"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22"/>
@@ -11693,7 +11699,7 @@
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="22"/>
       <c r="B634" s="31"/>
-      <c r="C634" s="31"/>
+      <c r="C634" s="40"/>
       <c r="D634" s="31"/>
       <c r="E634" s="22"/>
       <c r="F634" s="22"/>
@@ -11704,7 +11710,7 @@
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="22"/>
       <c r="B635" s="31"/>
-      <c r="C635" s="31"/>
+      <c r="C635" s="40"/>
       <c r="D635" s="31"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
@@ -11715,7 +11721,7 @@
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="22"/>
       <c r="B636" s="31"/>
-      <c r="C636" s="31"/>
+      <c r="C636" s="40"/>
       <c r="D636" s="31"/>
       <c r="E636" s="22"/>
       <c r="F636" s="22"/>
@@ -11726,7 +11732,7 @@
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="22"/>
       <c r="B637" s="30"/>
-      <c r="C637" s="30"/>
+      <c r="C637" s="39"/>
       <c r="D637" s="30"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
@@ -11737,7 +11743,7 @@
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="22"/>
       <c r="B638" s="30"/>
-      <c r="C638" s="30"/>
+      <c r="C638" s="39"/>
       <c r="D638" s="30"/>
       <c r="E638" s="22"/>
       <c r="F638" s="22"/>
@@ -11748,7 +11754,7 @@
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="22"/>
       <c r="B639" s="31"/>
-      <c r="C639" s="31"/>
+      <c r="C639" s="40"/>
       <c r="D639" s="31"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22"/>
@@ -11759,7 +11765,7 @@
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="22"/>
       <c r="B640" s="31"/>
-      <c r="C640" s="31"/>
+      <c r="C640" s="40"/>
       <c r="D640" s="31"/>
       <c r="E640" s="22"/>
       <c r="F640" s="22"/>
@@ -11770,7 +11776,7 @@
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="22"/>
       <c r="B641" s="31"/>
-      <c r="C641" s="31"/>
+      <c r="C641" s="40"/>
       <c r="D641" s="31"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
@@ -11781,7 +11787,7 @@
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="22"/>
       <c r="B642" s="31"/>
-      <c r="C642" s="31"/>
+      <c r="C642" s="40"/>
       <c r="D642" s="31"/>
       <c r="E642" s="22"/>
       <c r="F642" s="22"/>
@@ -11792,7 +11798,7 @@
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="22"/>
       <c r="B643" s="31"/>
-      <c r="C643" s="31"/>
+      <c r="C643" s="40"/>
       <c r="D643" s="31"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22"/>
@@ -11803,7 +11809,7 @@
     <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="22"/>
       <c r="B644" s="31"/>
-      <c r="C644" s="31"/>
+      <c r="C644" s="40"/>
       <c r="D644" s="31"/>
       <c r="E644" s="22"/>
       <c r="F644" s="22"/>
@@ -11814,7 +11820,7 @@
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="22"/>
       <c r="B645" s="31"/>
-      <c r="C645" s="31"/>
+      <c r="C645" s="40"/>
       <c r="D645" s="31"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
@@ -11825,7 +11831,7 @@
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="22"/>
       <c r="B646" s="31"/>
-      <c r="C646" s="31"/>
+      <c r="C646" s="40"/>
       <c r="D646" s="31"/>
       <c r="E646" s="22"/>
       <c r="F646" s="22"/>
@@ -11836,7 +11842,7 @@
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="22"/>
       <c r="B647" s="30"/>
-      <c r="C647" s="30"/>
+      <c r="C647" s="39"/>
       <c r="D647" s="30"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
@@ -11847,7 +11853,7 @@
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="22"/>
       <c r="B648" s="30"/>
-      <c r="C648" s="30"/>
+      <c r="C648" s="39"/>
       <c r="D648" s="30"/>
       <c r="E648" s="22"/>
       <c r="F648" s="22"/>
@@ -11858,7 +11864,7 @@
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="22"/>
       <c r="B649" s="31"/>
-      <c r="C649" s="31"/>
+      <c r="C649" s="40"/>
       <c r="D649" s="31"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22"/>
@@ -11869,7 +11875,7 @@
     <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="22"/>
       <c r="B650" s="31"/>
-      <c r="C650" s="31"/>
+      <c r="C650" s="40"/>
       <c r="D650" s="31"/>
       <c r="E650" s="22"/>
       <c r="F650" s="22"/>
@@ -11880,7 +11886,7 @@
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="22"/>
       <c r="B651" s="31"/>
-      <c r="C651" s="31"/>
+      <c r="C651" s="40"/>
       <c r="D651" s="31"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
@@ -11891,7 +11897,7 @@
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="22"/>
       <c r="B652" s="31"/>
-      <c r="C652" s="31"/>
+      <c r="C652" s="40"/>
       <c r="D652" s="31"/>
       <c r="E652" s="22"/>
       <c r="F652" s="22"/>
@@ -11902,7 +11908,7 @@
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="22"/>
       <c r="B653" s="31"/>
-      <c r="C653" s="31"/>
+      <c r="C653" s="40"/>
       <c r="D653" s="31"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22"/>
@@ -11913,7 +11919,7 @@
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="22"/>
       <c r="B654" s="31"/>
-      <c r="C654" s="31"/>
+      <c r="C654" s="40"/>
       <c r="D654" s="31"/>
       <c r="E654" s="22"/>
       <c r="F654" s="22"/>
@@ -11924,7 +11930,7 @@
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="22"/>
       <c r="B655" s="31"/>
-      <c r="C655" s="31"/>
+      <c r="C655" s="40"/>
       <c r="D655" s="31"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
@@ -11935,7 +11941,7 @@
     <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="22"/>
       <c r="B656" s="31"/>
-      <c r="C656" s="31"/>
+      <c r="C656" s="40"/>
       <c r="D656" s="31"/>
       <c r="E656" s="22"/>
       <c r="F656" s="22"/>
@@ -11946,7 +11952,7 @@
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="22"/>
       <c r="B657" s="30"/>
-      <c r="C657" s="30"/>
+      <c r="C657" s="39"/>
       <c r="D657" s="30"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22"/>
@@ -11957,7 +11963,7 @@
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="22"/>
       <c r="B658" s="30"/>
-      <c r="C658" s="30"/>
+      <c r="C658" s="39"/>
       <c r="D658" s="30"/>
       <c r="E658" s="22"/>
       <c r="F658" s="22"/>
@@ -11968,7 +11974,7 @@
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="22"/>
       <c r="B659" s="31"/>
-      <c r="C659" s="31"/>
+      <c r="C659" s="40"/>
       <c r="D659" s="31"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
@@ -11979,7 +11985,7 @@
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="22"/>
       <c r="B660" s="31"/>
-      <c r="C660" s="31"/>
+      <c r="C660" s="40"/>
       <c r="D660" s="31"/>
       <c r="E660" s="22"/>
       <c r="F660" s="22"/>
@@ -11990,7 +11996,7 @@
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="22"/>
       <c r="B661" s="31"/>
-      <c r="C661" s="31"/>
+      <c r="C661" s="40"/>
       <c r="D661" s="31"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
@@ -12001,7 +12007,7 @@
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="22"/>
       <c r="B662" s="31"/>
-      <c r="C662" s="31"/>
+      <c r="C662" s="40"/>
       <c r="D662" s="31"/>
       <c r="E662" s="22"/>
       <c r="F662" s="22"/>
@@ -12012,7 +12018,7 @@
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="22"/>
       <c r="B663" s="31"/>
-      <c r="C663" s="31"/>
+      <c r="C663" s="40"/>
       <c r="D663" s="31"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22"/>
@@ -12023,7 +12029,7 @@
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="22"/>
       <c r="B664" s="31"/>
-      <c r="C664" s="31"/>
+      <c r="C664" s="40"/>
       <c r="D664" s="31"/>
       <c r="E664" s="22"/>
       <c r="F664" s="22"/>
@@ -12034,7 +12040,7 @@
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="22"/>
       <c r="B665" s="31"/>
-      <c r="C665" s="31"/>
+      <c r="C665" s="40"/>
       <c r="D665" s="31"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
@@ -12045,7 +12051,7 @@
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="22"/>
       <c r="B666" s="31"/>
-      <c r="C666" s="31"/>
+      <c r="C666" s="40"/>
       <c r="D666" s="31"/>
       <c r="E666" s="22"/>
       <c r="F666" s="22"/>
@@ -12056,7 +12062,7 @@
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="22"/>
       <c r="B667" s="30"/>
-      <c r="C667" s="30"/>
+      <c r="C667" s="39"/>
       <c r="D667" s="30"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22"/>
@@ -12067,7 +12073,7 @@
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="22"/>
       <c r="B668" s="30"/>
-      <c r="C668" s="30"/>
+      <c r="C668" s="39"/>
       <c r="D668" s="30"/>
       <c r="E668" s="22"/>
       <c r="F668" s="22"/>
@@ -12078,7 +12084,7 @@
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="22"/>
       <c r="B669" s="31"/>
-      <c r="C669" s="31"/>
+      <c r="C669" s="40"/>
       <c r="D669" s="31"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
@@ -12089,7 +12095,7 @@
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="22"/>
       <c r="B670" s="31"/>
-      <c r="C670" s="31"/>
+      <c r="C670" s="40"/>
       <c r="D670" s="31"/>
       <c r="E670" s="22"/>
       <c r="F670" s="22"/>
@@ -12100,7 +12106,7 @@
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="22"/>
       <c r="B671" s="31"/>
-      <c r="C671" s="31"/>
+      <c r="C671" s="40"/>
       <c r="D671" s="31"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22"/>
@@ -12111,7 +12117,7 @@
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="22"/>
       <c r="B672" s="31"/>
-      <c r="C672" s="31"/>
+      <c r="C672" s="40"/>
       <c r="D672" s="31"/>
       <c r="E672" s="22"/>
       <c r="F672" s="22"/>
@@ -12122,7 +12128,7 @@
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="22"/>
       <c r="B673" s="31"/>
-      <c r="C673" s="31"/>
+      <c r="C673" s="40"/>
       <c r="D673" s="31"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
@@ -12133,7 +12139,7 @@
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="22"/>
       <c r="B674" s="31"/>
-      <c r="C674" s="31"/>
+      <c r="C674" s="40"/>
       <c r="D674" s="31"/>
       <c r="E674" s="22"/>
       <c r="F674" s="22"/>
@@ -12144,7 +12150,7 @@
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="22"/>
       <c r="B675" s="31"/>
-      <c r="C675" s="31"/>
+      <c r="C675" s="40"/>
       <c r="D675" s="31"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22"/>
@@ -12155,7 +12161,7 @@
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="22"/>
       <c r="B676" s="31"/>
-      <c r="C676" s="31"/>
+      <c r="C676" s="40"/>
       <c r="D676" s="31"/>
       <c r="E676" s="22"/>
       <c r="F676" s="22"/>
@@ -12166,7 +12172,7 @@
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="22"/>
       <c r="B677" s="30"/>
-      <c r="C677" s="30"/>
+      <c r="C677" s="39"/>
       <c r="D677" s="30"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
@@ -12177,7 +12183,7 @@
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="22"/>
       <c r="B678" s="30"/>
-      <c r="C678" s="30"/>
+      <c r="C678" s="39"/>
       <c r="D678" s="30"/>
       <c r="E678" s="22"/>
       <c r="F678" s="22"/>
@@ -12188,7 +12194,7 @@
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="22"/>
       <c r="B679" s="31"/>
-      <c r="C679" s="31"/>
+      <c r="C679" s="40"/>
       <c r="D679" s="31"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22"/>
@@ -12199,7 +12205,7 @@
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="22"/>
       <c r="B680" s="31"/>
-      <c r="C680" s="31"/>
+      <c r="C680" s="40"/>
       <c r="D680" s="31"/>
       <c r="E680" s="22"/>
       <c r="F680" s="22"/>
@@ -12210,7 +12216,7 @@
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="22"/>
       <c r="B681" s="31"/>
-      <c r="C681" s="31"/>
+      <c r="C681" s="40"/>
       <c r="D681" s="31"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
@@ -12221,7 +12227,7 @@
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="22"/>
       <c r="B682" s="31"/>
-      <c r="C682" s="31"/>
+      <c r="C682" s="40"/>
       <c r="D682" s="31"/>
       <c r="E682" s="22"/>
       <c r="F682" s="22"/>
@@ -12232,7 +12238,7 @@
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="22"/>
       <c r="B683" s="31"/>
-      <c r="C683" s="31"/>
+      <c r="C683" s="40"/>
       <c r="D683" s="31"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22"/>
@@ -12243,7 +12249,7 @@
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="22"/>
       <c r="B684" s="31"/>
-      <c r="C684" s="31"/>
+      <c r="C684" s="40"/>
       <c r="D684" s="31"/>
       <c r="E684" s="22"/>
       <c r="F684" s="22"/>
@@ -12254,7 +12260,7 @@
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="22"/>
       <c r="B685" s="31"/>
-      <c r="C685" s="31"/>
+      <c r="C685" s="40"/>
       <c r="D685" s="31"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22"/>
@@ -12265,7 +12271,7 @@
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="22"/>
       <c r="B686" s="31"/>
-      <c r="C686" s="31"/>
+      <c r="C686" s="40"/>
       <c r="D686" s="31"/>
       <c r="E686" s="22"/>
       <c r="F686" s="22"/>
@@ -12276,7 +12282,7 @@
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="22"/>
       <c r="B687" s="30"/>
-      <c r="C687" s="30"/>
+      <c r="C687" s="39"/>
       <c r="D687" s="30"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
@@ -12287,7 +12293,7 @@
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="22"/>
       <c r="B688" s="30"/>
-      <c r="C688" s="30"/>
+      <c r="C688" s="39"/>
       <c r="D688" s="30"/>
       <c r="E688" s="22"/>
       <c r="F688" s="22"/>
@@ -12298,7 +12304,7 @@
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="22"/>
       <c r="B689" s="31"/>
-      <c r="C689" s="31"/>
+      <c r="C689" s="40"/>
       <c r="D689" s="31"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
@@ -12309,7 +12315,7 @@
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="22"/>
       <c r="B690" s="31"/>
-      <c r="C690" s="31"/>
+      <c r="C690" s="40"/>
       <c r="D690" s="31"/>
       <c r="E690" s="22"/>
       <c r="F690" s="22"/>
@@ -12320,7 +12326,7 @@
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="22"/>
       <c r="B691" s="31"/>
-      <c r="C691" s="31"/>
+      <c r="C691" s="40"/>
       <c r="D691" s="31"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
@@ -12331,7 +12337,7 @@
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="22"/>
       <c r="B692" s="31"/>
-      <c r="C692" s="31"/>
+      <c r="C692" s="40"/>
       <c r="D692" s="31"/>
       <c r="E692" s="22"/>
       <c r="F692" s="22"/>
@@ -12342,7 +12348,7 @@
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="22"/>
       <c r="B693" s="31"/>
-      <c r="C693" s="31"/>
+      <c r="C693" s="40"/>
       <c r="D693" s="31"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
@@ -12353,7 +12359,7 @@
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="22"/>
       <c r="B694" s="31"/>
-      <c r="C694" s="31"/>
+      <c r="C694" s="40"/>
       <c r="D694" s="31"/>
       <c r="E694" s="22"/>
       <c r="F694" s="22"/>
@@ -12364,7 +12370,7 @@
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="22"/>
       <c r="B695" s="31"/>
-      <c r="C695" s="31"/>
+      <c r="C695" s="40"/>
       <c r="D695" s="31"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
@@ -12375,7 +12381,7 @@
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="22"/>
       <c r="B696" s="31"/>
-      <c r="C696" s="31"/>
+      <c r="C696" s="40"/>
       <c r="D696" s="31"/>
       <c r="E696" s="22"/>
       <c r="F696" s="22"/>
@@ -12386,7 +12392,7 @@
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="22"/>
       <c r="B697" s="30"/>
-      <c r="C697" s="30"/>
+      <c r="C697" s="39"/>
       <c r="D697" s="30"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
@@ -12397,7 +12403,7 @@
     <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="22"/>
       <c r="B698" s="30"/>
-      <c r="C698" s="30"/>
+      <c r="C698" s="39"/>
       <c r="D698" s="30"/>
       <c r="E698" s="22"/>
       <c r="F698" s="22"/>
@@ -12408,7 +12414,7 @@
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="22"/>
       <c r="B699" s="31"/>
-      <c r="C699" s="31"/>
+      <c r="C699" s="40"/>
       <c r="D699" s="31"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
@@ -12419,7 +12425,7 @@
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="27"/>
       <c r="B700" s="31"/>
-      <c r="C700" s="31"/>
+      <c r="C700" s="40"/>
       <c r="D700" s="31"/>
       <c r="E700" s="27"/>
       <c r="F700" s="27"/>
@@ -12428,7 +12434,7 @@
     <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" s="27"/>
       <c r="B701" s="31"/>
-      <c r="C701" s="31"/>
+      <c r="C701" s="40"/>
       <c r="D701" s="31"/>
       <c r="E701" s="27"/>
       <c r="F701" s="27"/>
@@ -12437,7 +12443,7 @@
     <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" s="27"/>
       <c r="B702" s="31"/>
-      <c r="C702" s="31"/>
+      <c r="C702" s="40"/>
       <c r="D702" s="31"/>
       <c r="E702" s="27"/>
       <c r="F702" s="27"/>
@@ -12446,7 +12452,7 @@
     <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="27"/>
       <c r="B703" s="31"/>
-      <c r="C703" s="31"/>
+      <c r="C703" s="40"/>
       <c r="D703" s="31"/>
       <c r="E703" s="27"/>
       <c r="F703" s="27"/>
@@ -12455,7 +12461,7 @@
     <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="27"/>
       <c r="B704" s="31"/>
-      <c r="C704" s="31"/>
+      <c r="C704" s="40"/>
       <c r="D704" s="31"/>
       <c r="E704" s="27"/>
       <c r="F704" s="27"/>
@@ -12464,7 +12470,7 @@
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="27"/>
       <c r="B705" s="31"/>
-      <c r="C705" s="31"/>
+      <c r="C705" s="40"/>
       <c r="D705" s="31"/>
       <c r="E705" s="27"/>
       <c r="F705" s="27"/>
@@ -12473,7 +12479,7 @@
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="27"/>
       <c r="B706" s="31"/>
-      <c r="C706" s="31"/>
+      <c r="C706" s="40"/>
       <c r="D706" s="31"/>
       <c r="E706" s="27"/>
       <c r="F706" s="27"/>
@@ -12482,7 +12488,7 @@
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="27"/>
       <c r="B707" s="30"/>
-      <c r="C707" s="30"/>
+      <c r="C707" s="39"/>
       <c r="D707" s="30"/>
       <c r="E707" s="27"/>
       <c r="F707" s="27"/>
@@ -12491,7 +12497,7 @@
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="27"/>
       <c r="B708" s="30"/>
-      <c r="C708" s="30"/>
+      <c r="C708" s="39"/>
       <c r="D708" s="30"/>
       <c r="E708" s="27"/>
       <c r="F708" s="27"/>
@@ -12500,7 +12506,7 @@
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="27"/>
       <c r="B709" s="31"/>
-      <c r="C709" s="31"/>
+      <c r="C709" s="40"/>
       <c r="D709" s="31"/>
       <c r="E709" s="27"/>
       <c r="F709" s="27"/>
@@ -12509,7 +12515,7 @@
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="27"/>
       <c r="B710" s="31"/>
-      <c r="C710" s="31"/>
+      <c r="C710" s="40"/>
       <c r="D710" s="31"/>
       <c r="E710" s="27"/>
       <c r="F710" s="27"/>
@@ -12518,7 +12524,7 @@
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="27"/>
       <c r="B711" s="31"/>
-      <c r="C711" s="31"/>
+      <c r="C711" s="40"/>
       <c r="D711" s="31"/>
       <c r="E711" s="27"/>
       <c r="F711" s="27"/>
@@ -12527,7 +12533,7 @@
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="27"/>
       <c r="B712" s="31"/>
-      <c r="C712" s="31"/>
+      <c r="C712" s="40"/>
       <c r="D712" s="31"/>
       <c r="E712" s="27"/>
       <c r="F712" s="27"/>
@@ -12536,7 +12542,7 @@
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="27"/>
       <c r="B713" s="31"/>
-      <c r="C713" s="31"/>
+      <c r="C713" s="40"/>
       <c r="D713" s="31"/>
       <c r="E713" s="27"/>
       <c r="F713" s="27"/>
@@ -12545,7 +12551,7 @@
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="27"/>
       <c r="B714" s="31"/>
-      <c r="C714" s="31"/>
+      <c r="C714" s="40"/>
       <c r="D714" s="31"/>
       <c r="E714" s="27"/>
       <c r="F714" s="27"/>
@@ -12554,7 +12560,7 @@
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="27"/>
       <c r="B715" s="31"/>
-      <c r="C715" s="31"/>
+      <c r="C715" s="40"/>
       <c r="D715" s="31"/>
       <c r="E715" s="27"/>
       <c r="F715" s="27"/>
@@ -12563,7 +12569,7 @@
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="27"/>
       <c r="B716" s="31"/>
-      <c r="C716" s="31"/>
+      <c r="C716" s="40"/>
       <c r="D716" s="31"/>
       <c r="E716" s="27"/>
       <c r="F716" s="27"/>
@@ -12572,7 +12578,7 @@
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="27"/>
       <c r="B717" s="30"/>
-      <c r="C717" s="30"/>
+      <c r="C717" s="39"/>
       <c r="D717" s="30"/>
       <c r="E717" s="27"/>
       <c r="F717" s="27"/>
@@ -12581,7 +12587,7 @@
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="27"/>
       <c r="B718" s="30"/>
-      <c r="C718" s="30"/>
+      <c r="C718" s="39"/>
       <c r="D718" s="30"/>
       <c r="E718" s="27"/>
       <c r="F718" s="27"/>
@@ -12590,7 +12596,7 @@
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="27"/>
       <c r="B719" s="31"/>
-      <c r="C719" s="31"/>
+      <c r="C719" s="40"/>
       <c r="D719" s="31"/>
       <c r="E719" s="27"/>
       <c r="F719" s="27"/>
@@ -12599,7 +12605,7 @@
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="27"/>
       <c r="B720" s="31"/>
-      <c r="C720" s="31"/>
+      <c r="C720" s="40"/>
       <c r="D720" s="31"/>
       <c r="E720" s="27"/>
       <c r="F720" s="27"/>
@@ -12608,7 +12614,7 @@
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="27"/>
       <c r="B721" s="31"/>
-      <c r="C721" s="31"/>
+      <c r="C721" s="40"/>
       <c r="D721" s="31"/>
       <c r="E721" s="27"/>
       <c r="F721" s="27"/>
@@ -12617,7 +12623,7 @@
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="27"/>
       <c r="B722" s="31"/>
-      <c r="C722" s="31"/>
+      <c r="C722" s="40"/>
       <c r="D722" s="31"/>
       <c r="E722" s="27"/>
       <c r="F722" s="27"/>
@@ -12626,7 +12632,7 @@
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="27"/>
       <c r="B723" s="31"/>
-      <c r="C723" s="31"/>
+      <c r="C723" s="40"/>
       <c r="D723" s="31"/>
       <c r="E723" s="27"/>
       <c r="F723" s="27"/>
@@ -12635,7 +12641,7 @@
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="27"/>
       <c r="B724" s="31"/>
-      <c r="C724" s="31"/>
+      <c r="C724" s="40"/>
       <c r="D724" s="31"/>
       <c r="E724" s="27"/>
       <c r="F724" s="27"/>
@@ -12644,7 +12650,7 @@
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="27"/>
       <c r="B725" s="31"/>
-      <c r="C725" s="31"/>
+      <c r="C725" s="40"/>
       <c r="D725" s="31"/>
       <c r="E725" s="27"/>
       <c r="F725" s="27"/>
@@ -12653,7 +12659,7 @@
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="27"/>
       <c r="B726" s="31"/>
-      <c r="C726" s="31"/>
+      <c r="C726" s="40"/>
       <c r="D726" s="31"/>
       <c r="E726" s="27"/>
       <c r="F726" s="27"/>
@@ -12662,7 +12668,7 @@
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="27"/>
       <c r="B727" s="30"/>
-      <c r="C727" s="30"/>
+      <c r="C727" s="39"/>
       <c r="D727" s="30"/>
       <c r="E727" s="27"/>
       <c r="F727" s="27"/>
@@ -12671,7 +12677,7 @@
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="27"/>
       <c r="B728" s="30"/>
-      <c r="C728" s="30"/>
+      <c r="C728" s="39"/>
       <c r="D728" s="30"/>
       <c r="E728" s="27"/>
       <c r="F728" s="27"/>
@@ -12680,7 +12686,7 @@
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="27"/>
       <c r="B729" s="31"/>
-      <c r="C729" s="31"/>
+      <c r="C729" s="40"/>
       <c r="D729" s="31"/>
       <c r="E729" s="27"/>
       <c r="F729" s="27"/>
@@ -12689,7 +12695,7 @@
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="27"/>
       <c r="B730" s="31"/>
-      <c r="C730" s="31"/>
+      <c r="C730" s="40"/>
       <c r="D730" s="31"/>
       <c r="E730" s="27"/>
       <c r="F730" s="27"/>
@@ -12698,7 +12704,7 @@
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="27"/>
       <c r="B731" s="31"/>
-      <c r="C731" s="31"/>
+      <c r="C731" s="40"/>
       <c r="D731" s="31"/>
       <c r="E731" s="27"/>
       <c r="F731" s="27"/>
@@ -12707,7 +12713,7 @@
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="27"/>
       <c r="B732" s="31"/>
-      <c r="C732" s="31"/>
+      <c r="C732" s="40"/>
       <c r="D732" s="31"/>
       <c r="E732" s="27"/>
       <c r="F732" s="27"/>
@@ -12716,7 +12722,7 @@
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="27"/>
       <c r="B733" s="31"/>
-      <c r="C733" s="31"/>
+      <c r="C733" s="40"/>
       <c r="D733" s="31"/>
       <c r="E733" s="27"/>
       <c r="F733" s="27"/>
@@ -12725,7 +12731,7 @@
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="27"/>
       <c r="B734" s="31"/>
-      <c r="C734" s="31"/>
+      <c r="C734" s="40"/>
       <c r="D734" s="31"/>
       <c r="E734" s="27"/>
       <c r="F734" s="27"/>
@@ -12734,7 +12740,7 @@
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="27"/>
       <c r="B735" s="31"/>
-      <c r="C735" s="31"/>
+      <c r="C735" s="40"/>
       <c r="D735" s="31"/>
       <c r="E735" s="27"/>
       <c r="F735" s="27"/>
@@ -12743,7 +12749,7 @@
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="27"/>
       <c r="B736" s="31"/>
-      <c r="C736" s="31"/>
+      <c r="C736" s="40"/>
       <c r="D736" s="31"/>
       <c r="E736" s="27"/>
       <c r="F736" s="27"/>
@@ -12751,33 +12757,33 @@
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B737" s="30"/>
-      <c r="C737" s="30"/>
+      <c r="C737" s="39"/>
       <c r="D737" s="30"/>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B738" s="30"/>
-      <c r="C738" s="30"/>
+      <c r="C738" s="39"/>
       <c r="D738" s="30"/>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B739" s="31"/>
-      <c r="C739" s="31"/>
+      <c r="C739" s="40"/>
       <c r="D739" s="31"/>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B740" s="31"/>
-      <c r="C740" s="31"/>
+      <c r="C740" s="40"/>
       <c r="D740" s="31"/>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B741" s="31"/>
-      <c r="C741" s="31"/>
+      <c r="C741" s="40"/>
       <c r="D741" s="31"/>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" s="21"/>
       <c r="B742" s="31"/>
-      <c r="C742" s="31"/>
+      <c r="C742" s="40"/>
       <c r="D742" s="31"/>
       <c r="E742" s="22"/>
       <c r="F742" s="22"/>
@@ -12788,7 +12794,7 @@
     <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" s="21"/>
       <c r="B743" s="31"/>
-      <c r="C743" s="31"/>
+      <c r="C743" s="40"/>
       <c r="D743" s="31"/>
       <c r="E743" s="22"/>
       <c r="F743" s="22"/>
@@ -12799,7 +12805,7 @@
     <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" s="22"/>
       <c r="B744" s="31"/>
-      <c r="C744" s="31"/>
+      <c r="C744" s="40"/>
       <c r="D744" s="31"/>
       <c r="E744" s="22"/>
       <c r="F744" s="22"/>
@@ -12810,7 +12816,7 @@
     <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" s="21"/>
       <c r="B745" s="31"/>
-      <c r="C745" s="31"/>
+      <c r="C745" s="40"/>
       <c r="D745" s="31"/>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
@@ -12821,7 +12827,7 @@
     <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" s="21"/>
       <c r="B746" s="31"/>
-      <c r="C746" s="31"/>
+      <c r="C746" s="40"/>
       <c r="D746" s="31"/>
       <c r="E746" s="22"/>
       <c r="F746" s="22"/>

--- a/rtw_excel_report/report_invoice/invoice.xlsx
+++ b/rtw_excel_report/report_invoice/invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6332D18-9490-46AE-8BDF-7ECE47A28812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B0727-0F97-40F2-BF56-8EECA5A0AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="34">
   <si>
     <t>御請求書</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">件名 </t>
-  </si>
-  <si>
-    <t>ご⾃宅⽤ 家具お⾒積もり</t>
   </si>
   <si>
     <t>税抜合計</t>
@@ -116,6 +113,15 @@
   </si>
   <si>
     <t>備考：</t>
+  </si>
+  <si>
+    <t>筑紫通 （ﾁｸｼﾄﾞｵﾘ） 支店 （714）</t>
+  </si>
+  <si>
+    <t>西日本シティ銀行 （0190）</t>
+  </si>
+  <si>
+    <t>（普） 0272585</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
   <dimension ref="A1:AB1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,7 +772,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="2"/>
@@ -795,7 +801,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="12"/>
       <c r="H4" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="2"/>
@@ -821,10 +827,12 @@
       <c r="D5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="H5" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="2"/>
@@ -850,10 +858,12 @@
       <c r="B6" s="26"/>
       <c r="C6" s="11"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="H6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="2"/>
@@ -876,15 +886,15 @@
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
@@ -911,7 +921,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="16"/>
       <c r="H8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
@@ -932,12 +942,12 @@
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="8"/>
       <c r="D9" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -962,12 +972,12 @@
     </row>
     <row r="10" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="10"/>
       <c r="D10" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
@@ -996,12 +1006,12 @@
     </row>
     <row r="11" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="10"/>
       <c r="D11" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
@@ -1065,11 +1075,11 @@
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="2"/>
@@ -1124,31 +1134,31 @@
     </row>
     <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="C15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="D15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F15" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="H15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="42" t="s">
+      <c r="I15" s="42" t="s">
         <v>20</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>21</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="17"/>
@@ -16438,10 +16448,10 @@
     <row r="1081" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1081" s="22"/>
       <c r="B1081" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1081" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1081" s="23"/>
       <c r="E1081" s="22"/>
@@ -16453,10 +16463,10 @@
     <row r="1082" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1082" s="22"/>
       <c r="B1082" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1082" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1082" s="23"/>
       <c r="E1082" s="22"/>
@@ -16468,10 +16478,10 @@
     <row r="1083" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1083" s="22"/>
       <c r="B1083" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1083" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1083" s="23"/>
       <c r="E1083" s="22"/>
@@ -16483,10 +16493,10 @@
     <row r="1084" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1084" s="22"/>
       <c r="B1084" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1084" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1084" s="23"/>
       <c r="E1084" s="22"/>
@@ -16498,10 +16508,10 @@
     <row r="1085" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1085" s="22"/>
       <c r="B1085" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1085" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1085" s="23"/>
       <c r="E1085" s="22"/>
@@ -16513,10 +16523,10 @@
     <row r="1086" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1086" s="22"/>
       <c r="B1086" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1086" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1086" s="23"/>
       <c r="E1086" s="22"/>
@@ -16528,10 +16538,10 @@
     <row r="1087" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1087" s="22"/>
       <c r="B1087" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1087" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1087" s="23"/>
       <c r="E1087" s="22"/>
@@ -16543,10 +16553,10 @@
     <row r="1088" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1088" s="22"/>
       <c r="B1088" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1088" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1088" s="23"/>
       <c r="E1088" s="22"/>
@@ -16558,10 +16568,10 @@
     <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089" s="22"/>
       <c r="B1089" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1089" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1089" s="23"/>
       <c r="E1089" s="22"/>
@@ -16573,10 +16583,10 @@
     <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090" s="22"/>
       <c r="B1090" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1090" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1090" s="23"/>
       <c r="E1090" s="22"/>
@@ -16588,10 +16598,10 @@
     <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091" s="22"/>
       <c r="B1091" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1091" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1091" s="23"/>
       <c r="E1091" s="22"/>
@@ -16603,10 +16613,10 @@
     <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092" s="22"/>
       <c r="B1092" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1092" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1092" s="23"/>
       <c r="E1092" s="22"/>
@@ -16618,10 +16628,10 @@
     <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093" s="22"/>
       <c r="B1093" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1093" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1093" s="23"/>
       <c r="E1093" s="22"/>
@@ -16633,10 +16643,10 @@
     <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094" s="22"/>
       <c r="B1094" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1094" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1094" s="23"/>
       <c r="E1094" s="22"/>
@@ -16648,10 +16658,10 @@
     <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095" s="22"/>
       <c r="B1095" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1095" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1095" s="23"/>
       <c r="E1095" s="22"/>
@@ -16663,10 +16673,10 @@
     <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096" s="22"/>
       <c r="B1096" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1096" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1096" s="23"/>
       <c r="E1096" s="22"/>
@@ -16678,10 +16688,10 @@
     <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097" s="22"/>
       <c r="B1097" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1097" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1097" s="23"/>
       <c r="E1097" s="22"/>
@@ -16693,10 +16703,10 @@
     <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1098" s="22"/>
       <c r="B1098" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1098" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1098" s="23"/>
       <c r="E1098" s="22"/>
@@ -16708,10 +16718,10 @@
     <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1099" s="22"/>
       <c r="B1099" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1099" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1099" s="23"/>
       <c r="E1099" s="22"/>
@@ -16723,10 +16733,10 @@
     <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1100" s="22"/>
       <c r="B1100" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1100" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1100" s="23"/>
       <c r="E1100" s="22"/>
@@ -16738,10 +16748,10 @@
     <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1101" s="22"/>
       <c r="B1101" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1101" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1101" s="23"/>
       <c r="E1101" s="22"/>
@@ -16753,10 +16763,10 @@
     <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1102" s="22"/>
       <c r="B1102" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1102" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1102" s="23"/>
       <c r="E1102" s="22"/>
@@ -16768,10 +16778,10 @@
     <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1103" s="22"/>
       <c r="B1103" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1103" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1103" s="23"/>
       <c r="E1103" s="22"/>
@@ -16783,10 +16793,10 @@
     <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1104" s="22"/>
       <c r="B1104" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1104" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1104" s="23"/>
       <c r="E1104" s="22"/>
@@ -16798,10 +16808,10 @@
     <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1105" s="22"/>
       <c r="B1105" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1105" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1105" s="23"/>
       <c r="E1105" s="22"/>
@@ -16813,10 +16823,10 @@
     <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1106" s="22"/>
       <c r="B1106" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1106" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1106" s="23"/>
       <c r="E1106" s="22"/>
@@ -16828,10 +16838,10 @@
     <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1107" s="22"/>
       <c r="B1107" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1107" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1107" s="23"/>
       <c r="E1107" s="22"/>
@@ -16843,10 +16853,10 @@
     <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1108" s="22"/>
       <c r="B1108" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1108" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1108" s="23"/>
       <c r="E1108" s="22"/>
@@ -16858,10 +16868,10 @@
     <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1109" s="22"/>
       <c r="B1109" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1109" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1109" s="23"/>
       <c r="E1109" s="22"/>
@@ -16873,10 +16883,10 @@
     <row r="1110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1110" s="22"/>
       <c r="B1110" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1110" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1110" s="23"/>
       <c r="E1110" s="22"/>
@@ -16888,10 +16898,10 @@
     <row r="1111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1111" s="22"/>
       <c r="B1111" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1111" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1111" s="23"/>
       <c r="E1111" s="22"/>
@@ -16903,10 +16913,10 @@
     <row r="1112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1112" s="22"/>
       <c r="B1112" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1112" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1112" s="23"/>
       <c r="E1112" s="22"/>
@@ -16918,10 +16928,10 @@
     <row r="1113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1113" s="22"/>
       <c r="B1113" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1113" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1113" s="23"/>
       <c r="E1113" s="22"/>
@@ -16933,10 +16943,10 @@
     <row r="1114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1114" s="22"/>
       <c r="B1114" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1114" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1114" s="23"/>
       <c r="E1114" s="22"/>
@@ -16948,10 +16958,10 @@
     <row r="1115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1115" s="22"/>
       <c r="B1115" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1115" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1115" s="23"/>
       <c r="E1115" s="22"/>
@@ -16963,10 +16973,10 @@
     <row r="1116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1116" s="22"/>
       <c r="B1116" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1116" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1116" s="23"/>
       <c r="E1116" s="22"/>
@@ -16978,10 +16988,10 @@
     <row r="1117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1117" s="22"/>
       <c r="B1117" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1117" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1117" s="23"/>
       <c r="E1117" s="22"/>
@@ -16993,10 +17003,10 @@
     <row r="1118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1118" s="22"/>
       <c r="B1118" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1118" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1118" s="23"/>
       <c r="E1118" s="22"/>
@@ -17008,10 +17018,10 @@
     <row r="1119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1119" s="22"/>
       <c r="B1119" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1119" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1119" s="23"/>
       <c r="E1119" s="22"/>
@@ -17023,10 +17033,10 @@
     <row r="1120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1120" s="22"/>
       <c r="B1120" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1120" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1120" s="23"/>
       <c r="E1120" s="22"/>
@@ -17038,10 +17048,10 @@
     <row r="1121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1121" s="22"/>
       <c r="B1121" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1121" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1121" s="23"/>
       <c r="E1121" s="22"/>
@@ -17053,10 +17063,10 @@
     <row r="1122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1122" s="22"/>
       <c r="B1122" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1122" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1122" s="23"/>
       <c r="E1122" s="22"/>
@@ -17068,10 +17078,10 @@
     <row r="1123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1123" s="22"/>
       <c r="B1123" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1123" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1123" s="23"/>
       <c r="E1123" s="22"/>
@@ -17083,10 +17093,10 @@
     <row r="1124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1124" s="22"/>
       <c r="B1124" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1124" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1124" s="23"/>
       <c r="E1124" s="22"/>
@@ -17098,10 +17108,10 @@
     <row r="1125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1125" s="22"/>
       <c r="B1125" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1125" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1125" s="23"/>
       <c r="E1125" s="22"/>
@@ -17113,10 +17123,10 @@
     <row r="1126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1126" s="22"/>
       <c r="B1126" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1126" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1126" s="23"/>
       <c r="E1126" s="22"/>
@@ -17128,10 +17138,10 @@
     <row r="1127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1127" s="22"/>
       <c r="B1127" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1127" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1127" s="23"/>
       <c r="E1127" s="22"/>
@@ -17143,10 +17153,10 @@
     <row r="1128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1128" s="22"/>
       <c r="B1128" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1128" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1128" s="23"/>
       <c r="E1128" s="22"/>
@@ -17158,10 +17168,10 @@
     <row r="1129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1129" s="22"/>
       <c r="B1129" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1129" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1129" s="23"/>
       <c r="E1129" s="22"/>
@@ -17173,10 +17183,10 @@
     <row r="1130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1130" s="22"/>
       <c r="B1130" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1130" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1130" s="23"/>
       <c r="E1130" s="22"/>
@@ -17188,10 +17198,10 @@
     <row r="1131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1131" s="22"/>
       <c r="B1131" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1131" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1131" s="23"/>
       <c r="E1131" s="22"/>
@@ -17203,10 +17213,10 @@
     <row r="1132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1132" s="22"/>
       <c r="B1132" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1132" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1132" s="23"/>
       <c r="E1132" s="22"/>
@@ -17218,10 +17228,10 @@
     <row r="1133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1133" s="22"/>
       <c r="B1133" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1133" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1133" s="23"/>
       <c r="E1133" s="22"/>
@@ -17233,10 +17243,10 @@
     <row r="1134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1134" s="22"/>
       <c r="B1134" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1134" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1134" s="23"/>
       <c r="E1134" s="22"/>
@@ -17248,10 +17258,10 @@
     <row r="1135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1135" s="22"/>
       <c r="B1135" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1135" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1135" s="23"/>
       <c r="E1135" s="22"/>
@@ -17263,10 +17273,10 @@
     <row r="1136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1136" s="22"/>
       <c r="B1136" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1136" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1136" s="23"/>
       <c r="E1136" s="22"/>
@@ -17278,10 +17288,10 @@
     <row r="1137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1137" s="22"/>
       <c r="B1137" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1137" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1137" s="23"/>
       <c r="E1137" s="22"/>
@@ -17293,10 +17303,10 @@
     <row r="1138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1138" s="22"/>
       <c r="B1138" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1138" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1138" s="23"/>
       <c r="E1138" s="22"/>
@@ -17308,10 +17318,10 @@
     <row r="1139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1139" s="22"/>
       <c r="B1139" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1139" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1139" s="23"/>
       <c r="E1139" s="22"/>
@@ -17323,10 +17333,10 @@
     <row r="1140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1140" s="22"/>
       <c r="B1140" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1140" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1140" s="23"/>
       <c r="E1140" s="22"/>
@@ -17338,10 +17348,10 @@
     <row r="1141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1141" s="22"/>
       <c r="B1141" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1141" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1141" s="23"/>
       <c r="E1141" s="22"/>
@@ -17353,10 +17363,10 @@
     <row r="1142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1142" s="22"/>
       <c r="B1142" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1142" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1142" s="23"/>
       <c r="E1142" s="22"/>
@@ -17368,10 +17378,10 @@
     <row r="1143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1143" s="22"/>
       <c r="B1143" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1143" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1143" s="23"/>
       <c r="E1143" s="22"/>
@@ -17383,10 +17393,10 @@
     <row r="1144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1144" s="22"/>
       <c r="B1144" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1144" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1144" s="23"/>
       <c r="E1144" s="22"/>
@@ -17398,10 +17408,10 @@
     <row r="1145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1145" s="22"/>
       <c r="B1145" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1145" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1145" s="23"/>
       <c r="E1145" s="22"/>
@@ -17413,10 +17423,10 @@
     <row r="1146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1146" s="22"/>
       <c r="B1146" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1146" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1146" s="23"/>
       <c r="E1146" s="22"/>
@@ -17428,10 +17438,10 @@
     <row r="1147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1147" s="22"/>
       <c r="B1147" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1147" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1147" s="23"/>
       <c r="E1147" s="22"/>
@@ -17443,10 +17453,10 @@
     <row r="1148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1148" s="22"/>
       <c r="B1148" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1148" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1148" s="23"/>
       <c r="E1148" s="22"/>
@@ -17458,10 +17468,10 @@
     <row r="1149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1149" s="22"/>
       <c r="B1149" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1149" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1149" s="23"/>
       <c r="E1149" s="22"/>
@@ -17473,10 +17483,10 @@
     <row r="1150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1150" s="22"/>
       <c r="B1150" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1150" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1150" s="23"/>
       <c r="E1150" s="22"/>
@@ -17488,10 +17498,10 @@
     <row r="1151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1151" s="22"/>
       <c r="B1151" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1151" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1151" s="23"/>
       <c r="E1151" s="22"/>
@@ -17503,10 +17513,10 @@
     <row r="1152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1152" s="22"/>
       <c r="B1152" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1152" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1152" s="23"/>
       <c r="E1152" s="22"/>
@@ -17518,10 +17528,10 @@
     <row r="1153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1153" s="22"/>
       <c r="B1153" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1153" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1153" s="23"/>
       <c r="E1153" s="22"/>
@@ -17533,10 +17543,10 @@
     <row r="1154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1154" s="22"/>
       <c r="B1154" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1154" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1154" s="23"/>
       <c r="E1154" s="22"/>
@@ -17548,10 +17558,10 @@
     <row r="1155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1155" s="22"/>
       <c r="B1155" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1155" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1155" s="23"/>
       <c r="E1155" s="22"/>
@@ -17563,10 +17573,10 @@
     <row r="1156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1156" s="22"/>
       <c r="B1156" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1156" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1156" s="23"/>
       <c r="E1156" s="22"/>
@@ -17578,10 +17588,10 @@
     <row r="1157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1157" s="22"/>
       <c r="B1157" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1157" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1157" s="23"/>
       <c r="E1157" s="22"/>
@@ -17593,10 +17603,10 @@
     <row r="1158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1158" s="22"/>
       <c r="B1158" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1158" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1158" s="23"/>
       <c r="E1158" s="22"/>
@@ -17608,10 +17618,10 @@
     <row r="1159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1159" s="22"/>
       <c r="B1159" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1159" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1159" s="23"/>
       <c r="E1159" s="22"/>
@@ -17623,10 +17633,10 @@
     <row r="1160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1160" s="22"/>
       <c r="B1160" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1160" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1160" s="23"/>
       <c r="E1160" s="22"/>
@@ -17638,10 +17648,10 @@
     <row r="1161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1161" s="22"/>
       <c r="B1161" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1161" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1161" s="23"/>
       <c r="E1161" s="22"/>
@@ -17653,10 +17663,10 @@
     <row r="1162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1162" s="22"/>
       <c r="B1162" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1162" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1162" s="23"/>
       <c r="E1162" s="22"/>
@@ -17668,10 +17678,10 @@
     <row r="1163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1163" s="22"/>
       <c r="B1163" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1163" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1163" s="23"/>
       <c r="E1163" s="22"/>
@@ -17683,10 +17693,10 @@
     <row r="1164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1164" s="22"/>
       <c r="B1164" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1164" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1164" s="23"/>
       <c r="E1164" s="22"/>
@@ -17698,10 +17708,10 @@
     <row r="1165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1165" s="22"/>
       <c r="B1165" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1165" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1165" s="23"/>
       <c r="E1165" s="22"/>
@@ -17713,10 +17723,10 @@
     <row r="1166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1166" s="22"/>
       <c r="B1166" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1166" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1166" s="23"/>
       <c r="E1166" s="22"/>
@@ -17728,10 +17738,10 @@
     <row r="1167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1167" s="22"/>
       <c r="B1167" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1167" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1167" s="23"/>
       <c r="E1167" s="22"/>
@@ -17743,10 +17753,10 @@
     <row r="1168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1168" s="22"/>
       <c r="B1168" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1168" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1168" s="23"/>
       <c r="E1168" s="22"/>
@@ -17758,10 +17768,10 @@
     <row r="1169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1169" s="22"/>
       <c r="B1169" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1169" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1169" s="23"/>
       <c r="E1169" s="22"/>
@@ -17773,10 +17783,10 @@
     <row r="1170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1170" s="22"/>
       <c r="B1170" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1170" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1170" s="23"/>
       <c r="E1170" s="22"/>
@@ -17788,10 +17798,10 @@
     <row r="1171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1171" s="22"/>
       <c r="B1171" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1171" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1171" s="23"/>
       <c r="E1171" s="22"/>
@@ -17803,10 +17813,10 @@
     <row r="1172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1172" s="22"/>
       <c r="B1172" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1172" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1172" s="23"/>
       <c r="E1172" s="22"/>
@@ -17818,10 +17828,10 @@
     <row r="1173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1173" s="22"/>
       <c r="B1173" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1173" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1173" s="23"/>
       <c r="E1173" s="22"/>
@@ -17833,10 +17843,10 @@
     <row r="1174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1174" s="22"/>
       <c r="B1174" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1174" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1174" s="23"/>
       <c r="E1174" s="22"/>
@@ -17848,10 +17858,10 @@
     <row r="1175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1175" s="22"/>
       <c r="B1175" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1175" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1175" s="23"/>
       <c r="E1175" s="22"/>
@@ -17863,10 +17873,10 @@
     <row r="1176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1176" s="22"/>
       <c r="B1176" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1176" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1176" s="23"/>
       <c r="E1176" s="22"/>
@@ -17878,10 +17888,10 @@
     <row r="1177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1177" s="22"/>
       <c r="B1177" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1177" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1177" s="23"/>
       <c r="E1177" s="22"/>
@@ -17893,10 +17903,10 @@
     <row r="1178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1178" s="22"/>
       <c r="B1178" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1178" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1178" s="23"/>
       <c r="E1178" s="22"/>
@@ -17908,10 +17918,10 @@
     <row r="1179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1179" s="22"/>
       <c r="B1179" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1179" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1179" s="23"/>
       <c r="E1179" s="22"/>
@@ -17923,10 +17933,10 @@
     <row r="1180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1180" s="22"/>
       <c r="B1180" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1180" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1180" s="23"/>
       <c r="E1180" s="22"/>
@@ -17938,10 +17948,10 @@
     <row r="1181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1181" s="22"/>
       <c r="B1181" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1181" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1181" s="23"/>
       <c r="E1181" s="22"/>
@@ -17953,10 +17963,10 @@
     <row r="1182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1182" s="22"/>
       <c r="B1182" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1182" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1182" s="23"/>
       <c r="E1182" s="22"/>
@@ -17968,10 +17978,10 @@
     <row r="1183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1183" s="22"/>
       <c r="B1183" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1183" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1183" s="23"/>
       <c r="E1183" s="22"/>
@@ -17983,10 +17993,10 @@
     <row r="1184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1184" s="22"/>
       <c r="B1184" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1184" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1184" s="23"/>
       <c r="E1184" s="22"/>
@@ -17998,10 +18008,10 @@
     <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1185" s="27"/>
       <c r="B1185" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1185" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1185" s="27"/>
       <c r="E1185" s="27"/>
@@ -18011,10 +18021,10 @@
     <row r="1186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1186" s="27"/>
       <c r="B1186" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1186" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1186" s="27"/>
       <c r="E1186" s="27"/>
@@ -18024,10 +18034,10 @@
     <row r="1187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1187" s="27"/>
       <c r="B1187" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1187" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1187" s="27"/>
       <c r="E1187" s="27"/>
@@ -18037,10 +18047,10 @@
     <row r="1188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1188" s="27"/>
       <c r="B1188" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1188" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1188" s="27"/>
       <c r="E1188" s="27"/>
@@ -18050,10 +18060,10 @@
     <row r="1189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1189" s="27"/>
       <c r="B1189" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1189" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1189" s="27"/>
       <c r="E1189" s="27"/>
@@ -18063,10 +18073,10 @@
     <row r="1190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1190" s="27"/>
       <c r="B1190" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1190" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1190" s="27"/>
       <c r="E1190" s="27"/>
@@ -18076,10 +18086,10 @@
     <row r="1191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1191" s="27"/>
       <c r="B1191" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1191" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1191" s="27"/>
       <c r="E1191" s="27"/>
@@ -18089,10 +18099,10 @@
     <row r="1192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1192" s="27"/>
       <c r="B1192" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1192" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1192" s="27"/>
       <c r="E1192" s="27"/>
@@ -18102,10 +18112,10 @@
     <row r="1193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1193" s="27"/>
       <c r="B1193" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1193" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1193" s="27"/>
       <c r="E1193" s="27"/>
@@ -18115,10 +18125,10 @@
     <row r="1194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1194" s="27"/>
       <c r="B1194" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1194" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1194" s="27"/>
       <c r="E1194" s="27"/>
@@ -18128,10 +18138,10 @@
     <row r="1195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1195" s="27"/>
       <c r="B1195" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1195" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1195" s="27"/>
       <c r="E1195" s="27"/>
@@ -18141,10 +18151,10 @@
     <row r="1196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1196" s="27"/>
       <c r="B1196" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1196" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1196" s="27"/>
       <c r="E1196" s="27"/>
@@ -18154,10 +18164,10 @@
     <row r="1197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1197" s="27"/>
       <c r="B1197" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1197" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1197" s="27"/>
       <c r="E1197" s="27"/>
@@ -18167,10 +18177,10 @@
     <row r="1198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1198" s="27"/>
       <c r="B1198" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1198" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1198" s="27"/>
       <c r="E1198" s="27"/>
@@ -18180,10 +18190,10 @@
     <row r="1199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1199" s="27"/>
       <c r="B1199" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1199" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1199" s="27"/>
       <c r="E1199" s="27"/>
@@ -18193,10 +18203,10 @@
     <row r="1200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1200" s="27"/>
       <c r="B1200" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1200" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1200" s="27"/>
       <c r="E1200" s="27"/>
@@ -18206,10 +18216,10 @@
     <row r="1201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1201" s="27"/>
       <c r="B1201" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1201" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1201" s="27"/>
       <c r="E1201" s="27"/>
@@ -18219,10 +18229,10 @@
     <row r="1202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1202" s="27"/>
       <c r="B1202" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1202" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1202" s="27"/>
       <c r="E1202" s="27"/>
@@ -18232,10 +18242,10 @@
     <row r="1203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1203" s="27"/>
       <c r="B1203" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1203" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1203" s="27"/>
       <c r="E1203" s="27"/>
@@ -18245,10 +18255,10 @@
     <row r="1204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1204" s="27"/>
       <c r="B1204" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1204" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1204" s="27"/>
       <c r="E1204" s="27"/>
@@ -18258,10 +18268,10 @@
     <row r="1205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1205" s="27"/>
       <c r="B1205" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1205" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1205" s="27"/>
       <c r="E1205" s="27"/>
@@ -18271,10 +18281,10 @@
     <row r="1206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1206" s="27"/>
       <c r="B1206" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1206" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1206" s="27"/>
       <c r="E1206" s="27"/>
@@ -18284,10 +18294,10 @@
     <row r="1207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1207" s="27"/>
       <c r="B1207" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1207" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1207" s="27"/>
       <c r="E1207" s="27"/>
@@ -18297,10 +18307,10 @@
     <row r="1208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1208" s="27"/>
       <c r="B1208" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1208" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1208" s="27"/>
       <c r="E1208" s="27"/>
@@ -18310,10 +18320,10 @@
     <row r="1209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1209" s="27"/>
       <c r="B1209" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1209" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1209" s="27"/>
       <c r="E1209" s="27"/>
@@ -18323,10 +18333,10 @@
     <row r="1210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1210" s="27"/>
       <c r="B1210" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1210" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1210" s="27"/>
       <c r="E1210" s="27"/>
@@ -18336,10 +18346,10 @@
     <row r="1211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1211" s="27"/>
       <c r="B1211" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1211" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1211" s="27"/>
       <c r="E1211" s="27"/>
@@ -18349,10 +18359,10 @@
     <row r="1212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1212" s="27"/>
       <c r="B1212" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1212" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1212" s="27"/>
       <c r="E1212" s="27"/>
@@ -18362,10 +18372,10 @@
     <row r="1213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1213" s="27"/>
       <c r="B1213" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1213" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1213" s="27"/>
       <c r="E1213" s="27"/>
@@ -18375,10 +18385,10 @@
     <row r="1214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1214" s="27"/>
       <c r="B1214" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1214" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1214" s="27"/>
       <c r="E1214" s="27"/>
@@ -18388,10 +18398,10 @@
     <row r="1215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1215" s="27"/>
       <c r="B1215" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1215" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1215" s="27"/>
       <c r="E1215" s="27"/>
@@ -18401,10 +18411,10 @@
     <row r="1216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1216" s="27"/>
       <c r="B1216" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1216" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1216" s="27"/>
       <c r="E1216" s="27"/>
@@ -18414,10 +18424,10 @@
     <row r="1217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1217" s="27"/>
       <c r="B1217" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1217" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1217" s="27"/>
       <c r="E1217" s="27"/>
@@ -18427,10 +18437,10 @@
     <row r="1218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1218" s="27"/>
       <c r="B1218" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1218" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1218" s="27"/>
       <c r="E1218" s="27"/>
@@ -18440,10 +18450,10 @@
     <row r="1219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1219" s="27"/>
       <c r="B1219" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1219" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1219" s="27"/>
       <c r="E1219" s="27"/>
@@ -18453,10 +18463,10 @@
     <row r="1220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1220" s="27"/>
       <c r="B1220" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1220" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1220" s="27"/>
       <c r="E1220" s="27"/>
@@ -18466,10 +18476,10 @@
     <row r="1221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1221" s="27"/>
       <c r="B1221" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1221" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1221" s="27"/>
       <c r="E1221" s="27"/>
